--- a/literature_data/creswell_2020_GM/bayesian_regression_summary_lowest_taxonomy.xlsx
+++ b/literature_data/creswell_2020_GM/bayesian_regression_summary_lowest_taxonomy.xlsx
@@ -1701,16 +1701,16 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>-0.38</v>
+        <v>-0.13</v>
       </c>
       <c r="E2">
-        <v>0.16</v>
+        <v>0.4</v>
       </c>
       <c r="F2">
-        <v>-0.11</v>
+        <v>0.135</v>
       </c>
       <c r="G2">
-        <v>-0.8213482819574477</v>
+        <v>1.030486600622594</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -1727,16 +1727,16 @@
         <v>11</v>
       </c>
       <c r="D3">
-        <v>-0.43</v>
+        <v>-0.18</v>
       </c>
       <c r="E3">
-        <v>0.11</v>
+        <v>0.36</v>
       </c>
       <c r="F3">
-        <v>-0.16</v>
+        <v>0.09</v>
       </c>
       <c r="G3">
-        <v>-1.160578155722136</v>
+        <v>0.6796128468406706</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -1753,16 +1753,16 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>-0.17</v>
+        <v>-0.24</v>
       </c>
       <c r="E4">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="F4">
-        <v>0.09999999999999999</v>
+        <v>0.03</v>
       </c>
       <c r="G4">
-        <v>0.7306747664922594</v>
+        <v>0.2009852996275485</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -1779,16 +1779,16 @@
         <v>13</v>
       </c>
       <c r="D5">
-        <v>-0.31</v>
+        <v>-0.21</v>
       </c>
       <c r="E5">
-        <v>0.23</v>
+        <v>0.32</v>
       </c>
       <c r="F5">
-        <v>-0.03999999999999999</v>
+        <v>0.05500000000000001</v>
       </c>
       <c r="G5">
-        <v>-0.322443231572557</v>
+        <v>0.4175107302087251</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -1805,19 +1805,19 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>-0.26</v>
+        <v>-0.55</v>
       </c>
       <c r="E6">
-        <v>0.28</v>
+        <v>-0.01</v>
       </c>
       <c r="F6">
-        <v>0.01000000000000001</v>
+        <v>-0.28</v>
       </c>
       <c r="G6">
-        <v>0.0622616762174894</v>
+        <v>-2.060213555867199</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1831,16 +1831,16 @@
         <v>15</v>
       </c>
       <c r="D7">
-        <v>-0.25</v>
+        <v>-0.32</v>
       </c>
       <c r="E7">
-        <v>0.28</v>
+        <v>0.21</v>
       </c>
       <c r="F7">
-        <v>0.01500000000000001</v>
+        <v>-0.05500000000000001</v>
       </c>
       <c r="G7">
-        <v>0.1201428484613342</v>
+        <v>-0.3934126234250763</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -1857,16 +1857,16 @@
         <v>16</v>
       </c>
       <c r="D8">
-        <v>-0.16</v>
+        <v>-0.14</v>
       </c>
       <c r="E8">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="F8">
-        <v>0.105</v>
+        <v>0.125</v>
       </c>
       <c r="G8">
-        <v>0.8038575127197204</v>
+        <v>0.9581298864095185</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -1883,16 +1883,16 @@
         <v>17</v>
       </c>
       <c r="D9">
-        <v>-0.25</v>
+        <v>-0.27</v>
       </c>
       <c r="E9">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="F9">
-        <v>0.01500000000000001</v>
+        <v>-0.005000000000000004</v>
       </c>
       <c r="G9">
-        <v>0.09574812355676364</v>
+        <v>0.02954903619006858</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -1909,16 +1909,16 @@
         <v>18</v>
       </c>
       <c r="D10">
-        <v>-0.27</v>
+        <v>-0.25</v>
       </c>
       <c r="E10">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.01500000000000001</v>
       </c>
       <c r="G10">
-        <v>0.02127928583148653</v>
+        <v>0.1376777616669246</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -1935,16 +1935,16 @@
         <v>19</v>
       </c>
       <c r="D11">
-        <v>-0.32</v>
+        <v>-0.28</v>
       </c>
       <c r="E11">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="F11">
-        <v>-0.05</v>
+        <v>-0.02000000000000002</v>
       </c>
       <c r="G11">
-        <v>-0.3811040421160807</v>
+        <v>-0.1226191740845431</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -1961,19 +1961,19 @@
         <v>20</v>
       </c>
       <c r="D12">
-        <v>-0.34</v>
+        <v>0.18</v>
       </c>
       <c r="E12">
-        <v>0.2</v>
+        <v>0.72</v>
       </c>
       <c r="F12">
-        <v>-0.07000000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="G12">
-        <v>-0.5077526629618263</v>
+        <v>3.276386027975271</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1987,16 +1987,16 @@
         <v>21</v>
       </c>
       <c r="D13">
-        <v>-0.28</v>
+        <v>-0.27</v>
       </c>
       <c r="E13">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="F13">
-        <v>-0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>-0.07963530219110088</v>
+        <v>0.007640136684839723</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>22</v>
       </c>
       <c r="D14">
-        <v>-0.24</v>
+        <v>-0.26</v>
       </c>
       <c r="E14">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="F14">
-        <v>0.03</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="G14">
-        <v>0.2139986911586174</v>
+        <v>0.06678787561274145</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -2039,16 +2039,16 @@
         <v>23</v>
       </c>
       <c r="D15">
-        <v>-0.26</v>
+        <v>-0.24</v>
       </c>
       <c r="E15">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="F15">
-        <v>0.01000000000000001</v>
+        <v>0.02499999999999999</v>
       </c>
       <c r="G15">
-        <v>0.05592805691682384</v>
+        <v>0.1540595616614352</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -2065,16 +2065,16 @@
         <v>24</v>
       </c>
       <c r="D16">
-        <v>-0.28</v>
+        <v>-0.25</v>
       </c>
       <c r="E16">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="F16">
-        <v>-0.01000000000000001</v>
+        <v>0.01500000000000001</v>
       </c>
       <c r="G16">
-        <v>-0.0872361640027613</v>
+        <v>0.08478971966810965</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -2094,13 +2094,13 @@
         <v>-0.27</v>
       </c>
       <c r="E17">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>-0.01000000000000001</v>
       </c>
       <c r="G17">
-        <v>-0.02082691982260999</v>
+        <v>-0.09184720056029684</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -2117,16 +2117,16 @@
         <v>26</v>
       </c>
       <c r="D18">
-        <v>-0.24</v>
+        <v>-0.25</v>
       </c>
       <c r="E18">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="F18">
-        <v>0.02499999999999999</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G18">
-        <v>0.192749461277707</v>
+        <v>0.05461471416017676</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -2143,16 +2143,16 @@
         <v>27</v>
       </c>
       <c r="D19">
-        <v>-0.29</v>
+        <v>-0.31</v>
       </c>
       <c r="E19">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="F19">
-        <v>-0.01999999999999999</v>
+        <v>-0.045</v>
       </c>
       <c r="G19">
-        <v>-0.1398253875916502</v>
+        <v>-0.3647555716298231</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -2169,16 +2169,16 @@
         <v>28</v>
       </c>
       <c r="D20">
-        <v>-0.17</v>
+        <v>-0.14</v>
       </c>
       <c r="E20">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="F20">
-        <v>0.09999999999999999</v>
+        <v>0.125</v>
       </c>
       <c r="G20">
-        <v>0.7662013099532167</v>
+        <v>0.9231242706205623</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -2195,16 +2195,16 @@
         <v>29</v>
       </c>
       <c r="D21">
-        <v>-0.33</v>
+        <v>-0.32</v>
       </c>
       <c r="E21">
         <v>0.21</v>
       </c>
       <c r="F21">
-        <v>-0.06000000000000001</v>
+        <v>-0.05500000000000001</v>
       </c>
       <c r="G21">
-        <v>-0.4687356855621796</v>
+        <v>-0.4048822518157514</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -2221,16 +2221,16 @@
         <v>10</v>
       </c>
       <c r="D22">
-        <v>-0.02</v>
+        <v>-0.05</v>
       </c>
       <c r="E22">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.004999999999999999</v>
+        <v>-0.025</v>
       </c>
       <c r="G22">
-        <v>0.3588549049206925</v>
+        <v>-1.899978375558076</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>-0.02</v>
       </c>
       <c r="E23">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>0.004999999999999999</v>
       </c>
       <c r="G23">
-        <v>0.05164212122623012</v>
+        <v>0.353252704953859</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -2273,16 +2273,16 @@
         <v>12</v>
       </c>
       <c r="D24">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="E24">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="G24">
-        <v>-0.002415372754648808</v>
+        <v>1.17502836793703</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
@@ -2308,7 +2308,7 @@
         <v>-0.004999999999999999</v>
       </c>
       <c r="G25">
-        <v>-0.4183637496529801</v>
+        <v>-0.1802443028089068</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -2325,19 +2325,19 @@
         <v>14</v>
       </c>
       <c r="D26">
-        <v>-0.02</v>
+        <v>0.01</v>
       </c>
       <c r="E26">
+        <v>0.05</v>
+      </c>
+      <c r="F26">
         <v>0.03</v>
       </c>
-      <c r="F26">
-        <v>0.004999999999999999</v>
-      </c>
       <c r="G26">
-        <v>0.742614265389254</v>
+        <v>2.55920878703623</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2351,16 +2351,16 @@
         <v>15</v>
       </c>
       <c r="D27">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="E27">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="G27">
-        <v>0.07916320562658088</v>
+        <v>1.178137675259311</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
@@ -2380,16 +2380,16 @@
         <v>-0.05</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F28">
-        <v>-0.025</v>
+        <v>-0.03</v>
       </c>
       <c r="G28">
-        <v>-1.978527146597445</v>
+        <v>-2.597840818578521</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2406,13 +2406,13 @@
         <v>-0.02</v>
       </c>
       <c r="E29">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>0.004999999999999999</v>
       </c>
       <c r="G29">
-        <v>0.1014209563350859</v>
+        <v>0.4870016310891322</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
@@ -2429,16 +2429,16 @@
         <v>18</v>
       </c>
       <c r="D30">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="E30">
         <v>0.02</v>
       </c>
       <c r="F30">
-        <v>-0.004999999999999999</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>-0.3158430473117905</v>
+        <v>-0.0132694674200133</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -2455,16 +2455,16 @@
         <v>19</v>
       </c>
       <c r="D31">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="E31">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F31">
-        <v>-0.004999999999999999</v>
+        <v>-0.015</v>
       </c>
       <c r="G31">
-        <v>-0.1145956537633284</v>
+        <v>-0.9559304021143924</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -2481,19 +2481,19 @@
         <v>20</v>
       </c>
       <c r="D32">
-        <v>-0.03</v>
+        <v>-0.06</v>
       </c>
       <c r="E32">
-        <v>0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="F32">
-        <v>-0.004999999999999999</v>
+        <v>-0.035</v>
       </c>
       <c r="G32">
-        <v>-0.6906046630948526</v>
+        <v>-3.071723104341963</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2507,16 +2507,16 @@
         <v>21</v>
       </c>
       <c r="D33">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="E33">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F33">
-        <v>0.004999999999999999</v>
+        <v>0.015</v>
       </c>
       <c r="G33">
-        <v>0.2965756582779246</v>
+        <v>1.107042576317148</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -2536,13 +2536,13 @@
         <v>-0.02</v>
       </c>
       <c r="E34">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>0.004999999999999999</v>
       </c>
       <c r="G34">
-        <v>0.07036105072691247</v>
+        <v>0.3359719243758618</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -2559,16 +2559,16 @@
         <v>23</v>
       </c>
       <c r="D35">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="E35">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F35">
-        <v>-0.004999999999999999</v>
+        <v>0.004999999999999999</v>
       </c>
       <c r="G35">
-        <v>-0.1259176553245369</v>
+        <v>0.5320558957331605</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -2585,16 +2585,16 @@
         <v>24</v>
       </c>
       <c r="D36">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="E36">
         <v>0.03</v>
       </c>
       <c r="F36">
-        <v>0.004999999999999999</v>
+        <v>0.009999999999999998</v>
       </c>
       <c r="G36">
-        <v>0.1235676117322553</v>
+        <v>0.764306821568848</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>-0.02</v>
       </c>
       <c r="E37">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>0.004999999999999999</v>
       </c>
       <c r="G37">
-        <v>-0.04164385754962156</v>
+        <v>0.1699432933472357</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -2637,16 +2637,16 @@
         <v>26</v>
       </c>
       <c r="D38">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="E38">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F38">
-        <v>0.004999999999999999</v>
+        <v>-0.004999999999999999</v>
       </c>
       <c r="G38">
-        <v>0.5379767085579402</v>
+        <v>-0.1963703971943443</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -2663,16 +2663,16 @@
         <v>27</v>
       </c>
       <c r="D39">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="E39">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F39">
-        <v>0.004999999999999999</v>
+        <v>0.015</v>
       </c>
       <c r="G39">
-        <v>0.2293926638040522</v>
+        <v>1.064274060308182</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -2698,7 +2698,7 @@
         <v>0.004999999999999999</v>
       </c>
       <c r="G40">
-        <v>0.5440487797337483</v>
+        <v>0.7309003480093753</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0.004999999999999999</v>
       </c>
       <c r="G41">
-        <v>0.1976289143698518</v>
+        <v>0.07120912094118703</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -2741,16 +2741,16 @@
         <v>30</v>
       </c>
       <c r="D42">
-        <v>-0.26</v>
+        <v>-0.63</v>
       </c>
       <c r="E42">
-        <v>0.76</v>
+        <v>0.39</v>
       </c>
       <c r="F42">
-        <v>0.25</v>
+        <v>-0.12</v>
       </c>
       <c r="G42">
-        <v>0.9645032765092543</v>
+        <v>-0.457794488195524</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -2767,16 +2767,16 @@
         <v>31</v>
       </c>
       <c r="D43">
-        <v>-0.55</v>
+        <v>-1.1</v>
       </c>
       <c r="E43">
-        <v>0.9399999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="F43">
-        <v>0.195</v>
+        <v>-0.3700000000000001</v>
       </c>
       <c r="G43">
-        <v>0.4934760529169883</v>
+        <v>-0.9839483687465732</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -2793,16 +2793,16 @@
         <v>32</v>
       </c>
       <c r="D44">
-        <v>-0.84</v>
+        <v>-0.5</v>
       </c>
       <c r="E44">
-        <v>1.27</v>
+        <v>1.62</v>
       </c>
       <c r="F44">
-        <v>0.215</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G44">
-        <v>0.3792854900321386</v>
+        <v>1.017060908674125</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -2819,16 +2819,16 @@
         <v>33</v>
       </c>
       <c r="D45">
-        <v>-0.99</v>
+        <v>-1.65</v>
       </c>
       <c r="E45">
-        <v>1.35</v>
+        <v>0.66</v>
       </c>
       <c r="F45">
-        <v>0.18</v>
+        <v>-0.4949999999999999</v>
       </c>
       <c r="G45">
-        <v>0.3177801777407755</v>
+        <v>-0.8337726471455846</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -2845,16 +2845,16 @@
         <v>34</v>
       </c>
       <c r="D46">
-        <v>-0.82</v>
+        <v>-1.19</v>
       </c>
       <c r="E46">
-        <v>0.96</v>
+        <v>0.57</v>
       </c>
       <c r="F46">
-        <v>0.07000000000000001</v>
+        <v>-0.31</v>
       </c>
       <c r="G46">
-        <v>0.1507248206584454</v>
+        <v>-0.6971355767142354</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
@@ -2871,16 +2871,16 @@
         <v>35</v>
       </c>
       <c r="D47">
-        <v>-1.45</v>
+        <v>-1.2</v>
       </c>
       <c r="E47">
-        <v>0.13</v>
+        <v>0.37</v>
       </c>
       <c r="F47">
-        <v>-0.6599999999999999</v>
+        <v>-0.415</v>
       </c>
       <c r="G47">
-        <v>-1.645832370935628</v>
+        <v>-1.067472386907237</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
@@ -2897,16 +2897,16 @@
         <v>36</v>
       </c>
       <c r="D48">
-        <v>-0.71</v>
+        <v>-0.59</v>
       </c>
       <c r="E48">
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="F48">
-        <v>-0.205</v>
+        <v>-0.07999999999999999</v>
       </c>
       <c r="G48">
-        <v>-0.8271168274996623</v>
+        <v>-0.3008533066066953</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -2923,16 +2923,16 @@
         <v>37</v>
       </c>
       <c r="D49">
-        <v>-1.2</v>
+        <v>-1.42</v>
       </c>
       <c r="E49">
-        <v>1.15</v>
+        <v>0.86</v>
       </c>
       <c r="F49">
-        <v>-0.02500000000000002</v>
+        <v>-0.28</v>
       </c>
       <c r="G49">
-        <v>-0.03678570731184619</v>
+        <v>-0.4900905893714392</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -2949,16 +2949,16 @@
         <v>38</v>
       </c>
       <c r="D50">
-        <v>-1.38</v>
+        <v>-1.63</v>
       </c>
       <c r="E50">
-        <v>1.62</v>
+        <v>1.37</v>
       </c>
       <c r="F50">
-        <v>0.1200000000000001</v>
+        <v>-0.1299999999999999</v>
       </c>
       <c r="G50">
-        <v>0.1547757616275968</v>
+        <v>-0.1555860156538876</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -2975,16 +2975,16 @@
         <v>39</v>
       </c>
       <c r="D51">
-        <v>-0.82</v>
+        <v>-0.78</v>
       </c>
       <c r="E51">
         <v>1.31</v>
       </c>
       <c r="F51">
-        <v>0.2450000000000001</v>
+        <v>0.265</v>
       </c>
       <c r="G51">
-        <v>0.4743258506884878</v>
+        <v>0.5030304178601392</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -3001,19 +3001,19 @@
         <v>40</v>
       </c>
       <c r="D52">
-        <v>0.11</v>
+        <v>-0.24</v>
       </c>
       <c r="E52">
-        <v>1.63</v>
+        <v>1.27</v>
       </c>
       <c r="F52">
-        <v>0.87</v>
+        <v>0.515</v>
       </c>
       <c r="G52">
-        <v>2.270559359104416</v>
+        <v>1.354361048064745</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3027,16 +3027,16 @@
         <v>41</v>
       </c>
       <c r="D53">
-        <v>-0.93</v>
+        <v>-1.28</v>
       </c>
       <c r="E53">
-        <v>1.45</v>
+        <v>1.13</v>
       </c>
       <c r="F53">
-        <v>0.26</v>
+        <v>-0.07500000000000007</v>
       </c>
       <c r="G53">
-        <v>0.4268590531818461</v>
+        <v>-0.1075336848647311</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -3053,16 +3053,16 @@
         <v>42</v>
       </c>
       <c r="D54">
-        <v>-2.27</v>
+        <v>-1.89</v>
       </c>
       <c r="E54">
-        <v>1.19</v>
+        <v>1.55</v>
       </c>
       <c r="F54">
-        <v>-0.54</v>
+        <v>-0.1699999999999999</v>
       </c>
       <c r="G54">
-        <v>-0.616541476617067</v>
+        <v>-0.1962632405921466</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>43</v>
       </c>
       <c r="D55">
-        <v>-1.45</v>
+        <v>-1.3</v>
       </c>
       <c r="E55">
-        <v>2.14</v>
+        <v>2.29</v>
       </c>
       <c r="F55">
-        <v>0.3450000000000001</v>
+        <v>0.495</v>
       </c>
       <c r="G55">
-        <v>0.3761961387689982</v>
+        <v>0.5486172700910598</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
@@ -3105,16 +3105,16 @@
         <v>44</v>
       </c>
       <c r="D56">
-        <v>-1.57</v>
+        <v>-2.48</v>
       </c>
       <c r="E56">
-        <v>1.56</v>
+        <v>0.63</v>
       </c>
       <c r="F56">
-        <v>-0.005000000000000004</v>
+        <v>-0.925</v>
       </c>
       <c r="G56">
-        <v>0.01363226644487093</v>
+        <v>-1.172295430578949</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -3131,16 +3131,16 @@
         <v>45</v>
       </c>
       <c r="D57">
-        <v>-1.72</v>
+        <v>-0.71</v>
       </c>
       <c r="E57">
-        <v>1.58</v>
+        <v>2.64</v>
       </c>
       <c r="F57">
-        <v>-0.06999999999999995</v>
+        <v>0.9650000000000001</v>
       </c>
       <c r="G57">
-        <v>-0.08457717977727394</v>
+        <v>1.131691103083953</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -3157,16 +3157,16 @@
         <v>46</v>
       </c>
       <c r="D58">
-        <v>-0.6899999999999999</v>
+        <v>-0.87</v>
       </c>
       <c r="E58">
-        <v>2.01</v>
+        <v>1.84</v>
       </c>
       <c r="F58">
-        <v>0.6599999999999999</v>
+        <v>0.485</v>
       </c>
       <c r="G58">
-        <v>0.982017356703089</v>
+        <v>0.7092948323509707</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -3183,16 +3183,16 @@
         <v>47</v>
       </c>
       <c r="D59">
-        <v>-1.5</v>
+        <v>-0.42</v>
       </c>
       <c r="E59">
-        <v>1.13</v>
+        <v>2.22</v>
       </c>
       <c r="F59">
-        <v>-0.1850000000000001</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="G59">
-        <v>-0.280044109558685</v>
+        <v>1.302909397418824</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -3209,19 +3209,19 @@
         <v>48</v>
       </c>
       <c r="D60">
-        <v>0.59</v>
+        <v>-1.64</v>
       </c>
       <c r="E60">
-        <v>3.42</v>
+        <v>1.2</v>
       </c>
       <c r="F60">
-        <v>2.005</v>
+        <v>-0.22</v>
       </c>
       <c r="G60">
-        <v>2.780318494266626</v>
+        <v>-0.3446872264603673</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3235,16 +3235,16 @@
         <v>49</v>
       </c>
       <c r="D61">
-        <v>-2.13</v>
+        <v>-1.65</v>
       </c>
       <c r="E61">
-        <v>1.36</v>
+        <v>1.82</v>
       </c>
       <c r="F61">
-        <v>-0.3849999999999999</v>
+        <v>0.08500000000000008</v>
       </c>
       <c r="G61">
-        <v>-0.4220459052376058</v>
+        <v>0.06522457033961442</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -3261,16 +3261,16 @@
         <v>50</v>
       </c>
       <c r="D62">
-        <v>-0.52</v>
+        <v>-0.75</v>
       </c>
       <c r="E62">
-        <v>0.51</v>
+        <v>0.27</v>
       </c>
       <c r="F62">
-        <v>-0.005000000000000004</v>
+        <v>-0.24</v>
       </c>
       <c r="G62">
-        <v>-0.01579504119594148</v>
+        <v>-0.916546576066457</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -3287,16 +3287,16 @@
         <v>51</v>
       </c>
       <c r="D63">
-        <v>-1.07</v>
+        <v>-1.46</v>
       </c>
       <c r="E63">
-        <v>0.42</v>
+        <v>0.01</v>
       </c>
       <c r="F63">
-        <v>-0.3250000000000001</v>
+        <v>-0.725</v>
       </c>
       <c r="G63">
-        <v>-0.8502931604390946</v>
+        <v>-1.995088539884614</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
@@ -3313,16 +3313,16 @@
         <v>52</v>
       </c>
       <c r="D64">
-        <v>-0.65</v>
+        <v>-0.99</v>
       </c>
       <c r="E64">
-        <v>1.47</v>
+        <v>1.1</v>
       </c>
       <c r="F64">
-        <v>0.41</v>
+        <v>0.05500000000000005</v>
       </c>
       <c r="G64">
-        <v>0.7726636713438719</v>
+        <v>0.06893974416125258</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
@@ -3339,16 +3339,16 @@
         <v>53</v>
       </c>
       <c r="D65">
-        <v>-0.99</v>
+        <v>-1.07</v>
       </c>
       <c r="E65">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="F65">
-        <v>0.18</v>
+        <v>0.105</v>
       </c>
       <c r="G65">
-        <v>0.3199426658626236</v>
+        <v>0.2215456022565171</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
@@ -3365,16 +3365,16 @@
         <v>54</v>
       </c>
       <c r="D66">
-        <v>-0.28</v>
+        <v>-1.23</v>
       </c>
       <c r="E66">
-        <v>1.51</v>
+        <v>0.54</v>
       </c>
       <c r="F66">
-        <v>0.615</v>
+        <v>-0.345</v>
       </c>
       <c r="G66">
-        <v>1.336368514156216</v>
+        <v>-0.7632054646983274</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
@@ -3391,16 +3391,16 @@
         <v>55</v>
       </c>
       <c r="D67">
-        <v>-0.5600000000000001</v>
+        <v>-0.39</v>
       </c>
       <c r="E67">
-        <v>1.04</v>
+        <v>1.19</v>
       </c>
       <c r="F67">
-        <v>0.24</v>
+        <v>0.4</v>
       </c>
       <c r="G67">
-        <v>0.5736200955798728</v>
+        <v>0.9853517538143561</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -3417,16 +3417,16 @@
         <v>56</v>
       </c>
       <c r="D68">
-        <v>-0.14</v>
+        <v>-0.43</v>
       </c>
       <c r="E68">
-        <v>0.88</v>
+        <v>0.57</v>
       </c>
       <c r="F68">
-        <v>0.37</v>
+        <v>0.06999999999999998</v>
       </c>
       <c r="G68">
-        <v>1.46273709104183</v>
+        <v>0.253304716990338</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
@@ -3443,16 +3443,16 @@
         <v>57</v>
       </c>
       <c r="D69">
-        <v>-0.73</v>
+        <v>-1.58</v>
       </c>
       <c r="E69">
-        <v>1.65</v>
+        <v>0.74</v>
       </c>
       <c r="F69">
-        <v>0.46</v>
+        <v>-0.42</v>
       </c>
       <c r="G69">
-        <v>0.7742420593648813</v>
+        <v>-0.6626078962698155</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>58</v>
       </c>
       <c r="D70">
-        <v>-1.49</v>
+        <v>-0.54</v>
       </c>
       <c r="E70">
-        <v>1.5</v>
+        <v>2.44</v>
       </c>
       <c r="F70">
-        <v>0.005000000000000004</v>
+        <v>0.95</v>
       </c>
       <c r="G70">
-        <v>0.01981146859942046</v>
+        <v>1.267153359132787</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -3495,16 +3495,16 @@
         <v>59</v>
       </c>
       <c r="D71">
-        <v>-1.3</v>
+        <v>-1.35</v>
       </c>
       <c r="E71">
-        <v>0.84</v>
+        <v>0.74</v>
       </c>
       <c r="F71">
-        <v>-0.23</v>
+        <v>-0.305</v>
       </c>
       <c r="G71">
-        <v>-0.4057494763906633</v>
+        <v>-0.5582788237150391</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
@@ -3521,16 +3521,16 @@
         <v>60</v>
       </c>
       <c r="D72">
-        <v>-0.79</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="E72">
-        <v>0.74</v>
+        <v>0.68</v>
       </c>
       <c r="F72">
-        <v>-0.02500000000000002</v>
+        <v>-0.065</v>
       </c>
       <c r="G72">
-        <v>-0.08486205717016782</v>
+        <v>-0.1932095825361209</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -3547,16 +3547,16 @@
         <v>61</v>
       </c>
       <c r="D73">
-        <v>-1.22</v>
+        <v>-1.69</v>
       </c>
       <c r="E73">
-        <v>1.18</v>
+        <v>0.76</v>
       </c>
       <c r="F73">
-        <v>-0.02000000000000002</v>
+        <v>-0.465</v>
       </c>
       <c r="G73">
-        <v>-0.03493424870118753</v>
+        <v>-0.7818619073709704</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -3573,16 +3573,16 @@
         <v>62</v>
       </c>
       <c r="D74">
-        <v>-2.03</v>
+        <v>-1.85</v>
       </c>
       <c r="E74">
-        <v>1.38</v>
+        <v>1.58</v>
       </c>
       <c r="F74">
-        <v>-0.325</v>
+        <v>-0.135</v>
       </c>
       <c r="G74">
-        <v>-0.3681962300018669</v>
+        <v>-0.1450280347030306</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -3599,16 +3599,16 @@
         <v>63</v>
       </c>
       <c r="D75">
-        <v>-0.12</v>
+        <v>-1.42</v>
       </c>
       <c r="E75">
-        <v>3.44</v>
+        <v>2.15</v>
       </c>
       <c r="F75">
-        <v>1.66</v>
+        <v>0.365</v>
       </c>
       <c r="G75">
-        <v>1.812626681380322</v>
+        <v>0.3852187100524468</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -3625,16 +3625,16 @@
         <v>64</v>
       </c>
       <c r="D76">
-        <v>-2.12</v>
+        <v>-1.11</v>
       </c>
       <c r="E76">
-        <v>1.03</v>
+        <v>1.95</v>
       </c>
       <c r="F76">
-        <v>-0.545</v>
+        <v>0.4199999999999999</v>
       </c>
       <c r="G76">
-        <v>-0.6741890109552672</v>
+        <v>0.578238897458071</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
@@ -3651,19 +3651,19 @@
         <v>65</v>
       </c>
       <c r="D77">
-        <v>0.2</v>
+        <v>-0.99</v>
       </c>
       <c r="E77">
-        <v>3.54</v>
+        <v>2.3</v>
       </c>
       <c r="F77">
-        <v>1.87</v>
+        <v>0.6549999999999999</v>
       </c>
       <c r="G77">
-        <v>2.234029348567134</v>
+        <v>0.8019620100010397</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3677,16 +3677,16 @@
         <v>66</v>
       </c>
       <c r="D78">
-        <v>-0.96</v>
+        <v>-0.32</v>
       </c>
       <c r="E78">
-        <v>1.74</v>
+        <v>2.39</v>
       </c>
       <c r="F78">
-        <v>0.39</v>
+        <v>1.035</v>
       </c>
       <c r="G78">
-        <v>0.5520913274512753</v>
+        <v>1.496769410803499</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
@@ -3703,16 +3703,16 @@
         <v>67</v>
       </c>
       <c r="D79">
-        <v>-1.56</v>
+        <v>-1.22</v>
       </c>
       <c r="E79">
-        <v>1.08</v>
+        <v>1.4</v>
       </c>
       <c r="F79">
-        <v>-0.24</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G79">
-        <v>-0.3816380246117493</v>
+        <v>0.1656476776437366</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -3729,16 +3729,16 @@
         <v>68</v>
       </c>
       <c r="D80">
-        <v>-1.3</v>
+        <v>-2.27</v>
       </c>
       <c r="E80">
-        <v>1.5</v>
+        <v>0.51</v>
       </c>
       <c r="F80">
-        <v>0.09999999999999998</v>
+        <v>-0.88</v>
       </c>
       <c r="G80">
-        <v>0.1446493296793966</v>
+        <v>-1.236353959329072</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
@@ -3755,16 +3755,16 @@
         <v>69</v>
       </c>
       <c r="D81">
-        <v>-1.14</v>
+        <v>-2.69</v>
       </c>
       <c r="E81">
-        <v>2.38</v>
+        <v>0.93</v>
       </c>
       <c r="F81">
-        <v>0.62</v>
+        <v>-0.8799999999999999</v>
       </c>
       <c r="G81">
-        <v>0.6963239928986649</v>
+        <v>-0.950949413428646</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -3781,16 +3781,16 @@
         <v>70</v>
       </c>
       <c r="D82">
-        <v>-0.61</v>
+        <v>-0.65</v>
       </c>
       <c r="E82">
-        <v>0.42</v>
+        <v>0.35</v>
       </c>
       <c r="F82">
-        <v>-0.095</v>
+        <v>-0.15</v>
       </c>
       <c r="G82">
-        <v>-0.3895824410617289</v>
+        <v>-0.6095724964475534</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -3807,16 +3807,16 @@
         <v>71</v>
       </c>
       <c r="D83">
-        <v>-0.44</v>
+        <v>-0.55</v>
       </c>
       <c r="E83">
-        <v>1.04</v>
+        <v>0.9</v>
       </c>
       <c r="F83">
-        <v>0.3</v>
+        <v>0.175</v>
       </c>
       <c r="G83">
-        <v>0.7787257102673941</v>
+        <v>0.4905923458974762</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -3833,16 +3833,16 @@
         <v>72</v>
       </c>
       <c r="D84">
-        <v>-1.39</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="E84">
-        <v>0.74</v>
+        <v>1.52</v>
       </c>
       <c r="F84">
-        <v>-0.325</v>
+        <v>0.48</v>
       </c>
       <c r="G84">
-        <v>-0.6070104970621121</v>
+        <v>0.9012012236849251</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -3859,16 +3859,16 @@
         <v>73</v>
       </c>
       <c r="D85">
-        <v>-0.95</v>
+        <v>-0.8</v>
       </c>
       <c r="E85">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="F85">
-        <v>0.225</v>
+        <v>0.36</v>
       </c>
       <c r="G85">
-        <v>0.3711354389743222</v>
+        <v>0.5749123199653273</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -3885,16 +3885,16 @@
         <v>74</v>
       </c>
       <c r="D86">
-        <v>-0.63</v>
+        <v>-0.78</v>
       </c>
       <c r="E86">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>0.26</v>
+        <v>0.11</v>
       </c>
       <c r="G86">
-        <v>0.5669526636149831</v>
+        <v>0.2451124659769737</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -3911,16 +3911,16 @@
         <v>75</v>
       </c>
       <c r="D87">
-        <v>-1.05</v>
+        <v>-1.23</v>
       </c>
       <c r="E87">
-        <v>0.55</v>
+        <v>0.34</v>
       </c>
       <c r="F87">
-        <v>-0.25</v>
+        <v>-0.445</v>
       </c>
       <c r="G87">
-        <v>-0.6101087749905789</v>
+        <v>-1.08709612491355</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -3937,19 +3937,19 @@
         <v>76</v>
       </c>
       <c r="D88">
-        <v>-0.89</v>
+        <v>-1.02</v>
       </c>
       <c r="E88">
-        <v>0.13</v>
+        <v>-0.01</v>
       </c>
       <c r="F88">
-        <v>-0.38</v>
+        <v>-0.515</v>
       </c>
       <c r="G88">
-        <v>-1.476020707451628</v>
+        <v>-1.980047813191644</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3963,16 +3963,16 @@
         <v>77</v>
       </c>
       <c r="D89">
-        <v>-1.52</v>
+        <v>-1.25</v>
       </c>
       <c r="E89">
-        <v>0.8</v>
+        <v>1.07</v>
       </c>
       <c r="F89">
-        <v>-0.36</v>
+        <v>-0.08999999999999997</v>
       </c>
       <c r="G89">
-        <v>-0.6256932139616708</v>
+        <v>-0.1675769501059721</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -3989,16 +3989,16 @@
         <v>78</v>
       </c>
       <c r="D90">
-        <v>-1.51</v>
+        <v>-1.95</v>
       </c>
       <c r="E90">
-        <v>1.44</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>-0.03500000000000003</v>
+        <v>-0.475</v>
       </c>
       <c r="G90">
-        <v>-0.03347407979396237</v>
+        <v>-0.639996205658544</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -4015,16 +4015,16 @@
         <v>79</v>
       </c>
       <c r="D91">
-        <v>-1.26</v>
+        <v>-1.49</v>
       </c>
       <c r="E91">
-        <v>0.88</v>
+        <v>0.6</v>
       </c>
       <c r="F91">
-        <v>-0.19</v>
+        <v>-0.445</v>
       </c>
       <c r="G91">
-        <v>-0.3550417856037245</v>
+        <v>-0.858801329129755</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -4041,19 +4041,19 @@
         <v>80</v>
       </c>
       <c r="D92">
-        <v>-0.73</v>
+        <v>0.09</v>
       </c>
       <c r="E92">
-        <v>0.79</v>
+        <v>1.56</v>
       </c>
       <c r="F92">
-        <v>0.03000000000000003</v>
+        <v>0.8250000000000001</v>
       </c>
       <c r="G92">
-        <v>0.06658684076808284</v>
+        <v>2.164907535866379</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4067,16 +4067,16 @@
         <v>81</v>
       </c>
       <c r="D93">
-        <v>-1.28</v>
+        <v>-1.43</v>
       </c>
       <c r="E93">
-        <v>1.12</v>
+        <v>0.95</v>
       </c>
       <c r="F93">
-        <v>-0.07999999999999996</v>
+        <v>-0.24</v>
       </c>
       <c r="G93">
-        <v>-0.1380107647085099</v>
+        <v>-0.4202382249375256</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
@@ -4093,16 +4093,16 @@
         <v>82</v>
       </c>
       <c r="D94">
-        <v>-1.38</v>
+        <v>-1.12</v>
       </c>
       <c r="E94">
-        <v>2.08</v>
+        <v>2.21</v>
       </c>
       <c r="F94">
-        <v>0.3500000000000001</v>
+        <v>0.5449999999999999</v>
       </c>
       <c r="G94">
-        <v>0.4060222072333024</v>
+        <v>0.6422336082207714</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -4119,16 +4119,16 @@
         <v>83</v>
       </c>
       <c r="D95">
-        <v>-1.92</v>
+        <v>-1.72</v>
       </c>
       <c r="E95">
-        <v>1.63</v>
+        <v>1.87</v>
       </c>
       <c r="F95">
-        <v>-0.145</v>
+        <v>0.07500000000000007</v>
       </c>
       <c r="G95">
-        <v>-0.1713463659029267</v>
+        <v>0.06709952625018251</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -4145,16 +4145,16 @@
         <v>84</v>
       </c>
       <c r="D96">
-        <v>-1.63</v>
+        <v>-1.72</v>
       </c>
       <c r="E96">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="F96">
-        <v>-0.06999999999999995</v>
+        <v>-0.155</v>
       </c>
       <c r="G96">
-        <v>-0.08655394378858584</v>
+        <v>-0.2180468701089911</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -4171,16 +4171,16 @@
         <v>85</v>
       </c>
       <c r="D97">
-        <v>-2.1</v>
+        <v>-1.6</v>
       </c>
       <c r="E97">
-        <v>1.23</v>
+        <v>1.72</v>
       </c>
       <c r="F97">
-        <v>-0.4350000000000001</v>
+        <v>0.05999999999999994</v>
       </c>
       <c r="G97">
-        <v>-0.5209422092004277</v>
+        <v>0.0991667871138702</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
@@ -4197,16 +4197,16 @@
         <v>86</v>
       </c>
       <c r="D98">
-        <v>-2.16</v>
+        <v>-1.75</v>
       </c>
       <c r="E98">
-        <v>0.5600000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="F98">
-        <v>-0.8</v>
+        <v>-0.385</v>
       </c>
       <c r="G98">
-        <v>-1.167952740409386</v>
+        <v>-0.5257376890354087</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -4223,16 +4223,16 @@
         <v>87</v>
       </c>
       <c r="D99">
-        <v>-1.78</v>
+        <v>-1.61</v>
       </c>
       <c r="E99">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="F99">
-        <v>-0.46</v>
+        <v>-0.305</v>
       </c>
       <c r="G99">
-        <v>-0.6764065509928282</v>
+        <v>-0.469429451443881</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -4249,16 +4249,16 @@
         <v>88</v>
       </c>
       <c r="D100">
-        <v>-1.53</v>
+        <v>-1.89</v>
       </c>
       <c r="E100">
-        <v>1.36</v>
+        <v>0.89</v>
       </c>
       <c r="F100">
-        <v>-0.08499999999999996</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="G100">
-        <v>-0.1213002180226192</v>
+        <v>-0.6932615921835319</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -4275,16 +4275,16 @@
         <v>89</v>
       </c>
       <c r="D101">
-        <v>-1.41</v>
+        <v>-1.32</v>
       </c>
       <c r="E101">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="F101">
-        <v>0.3550000000000001</v>
+        <v>0.4500000000000001</v>
       </c>
       <c r="G101">
-        <v>0.4105955836504235</v>
+        <v>0.496575513822079</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
@@ -4301,16 +4301,16 @@
         <v>90</v>
       </c>
       <c r="D102">
-        <v>-0.5600000000000001</v>
+        <v>-0.79</v>
       </c>
       <c r="E102">
-        <v>0.48</v>
+        <v>0.2</v>
       </c>
       <c r="F102">
-        <v>-0.04000000000000004</v>
+        <v>-0.295</v>
       </c>
       <c r="G102">
-        <v>-0.1446695669648325</v>
+        <v>-1.180953903487792</v>
       </c>
       <c r="H102" t="b">
         <v>0</v>
@@ -4327,16 +4327,16 @@
         <v>91</v>
       </c>
       <c r="D103">
-        <v>-0.38</v>
+        <v>-0.52</v>
       </c>
       <c r="E103">
-        <v>1.1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F103">
-        <v>0.36</v>
+        <v>0.21</v>
       </c>
       <c r="G103">
-        <v>0.9592417620392849</v>
+        <v>0.5324117753925958</v>
       </c>
       <c r="H103" t="b">
         <v>0</v>
@@ -4353,16 +4353,16 @@
         <v>92</v>
       </c>
       <c r="D104">
-        <v>-1.21</v>
+        <v>-0.89</v>
       </c>
       <c r="E104">
-        <v>0.91</v>
+        <v>1.19</v>
       </c>
       <c r="F104">
-        <v>-0.15</v>
+        <v>0.15</v>
       </c>
       <c r="G104">
-        <v>-0.2943680909083324</v>
+        <v>0.2475444138644685</v>
       </c>
       <c r="H104" t="b">
         <v>0</v>
@@ -4379,16 +4379,16 @@
         <v>93</v>
       </c>
       <c r="D105">
-        <v>-1.08</v>
+        <v>-1.19</v>
       </c>
       <c r="E105">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="F105">
-        <v>0.08499999999999996</v>
+        <v>-0.03000000000000003</v>
       </c>
       <c r="G105">
-        <v>0.1493769030641031</v>
+        <v>-0.06663704554870398</v>
       </c>
       <c r="H105" t="b">
         <v>0</v>
@@ -4405,16 +4405,16 @@
         <v>94</v>
       </c>
       <c r="D106">
-        <v>-0.21</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="E106">
-        <v>1.59</v>
+        <v>0.95</v>
       </c>
       <c r="F106">
-        <v>0.6900000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G106">
-        <v>1.51908223039062</v>
+        <v>0.1261222453099606</v>
       </c>
       <c r="H106" t="b">
         <v>0</v>
@@ -4431,16 +4431,16 @@
         <v>95</v>
       </c>
       <c r="D107">
-        <v>-0.9399999999999999</v>
+        <v>-0.89</v>
       </c>
       <c r="E107">
-        <v>0.65</v>
+        <v>0.63</v>
       </c>
       <c r="F107">
-        <v>-0.145</v>
+        <v>-0.13</v>
       </c>
       <c r="G107">
-        <v>-0.3711653734851356</v>
+        <v>-0.3770494209379578</v>
       </c>
       <c r="H107" t="b">
         <v>0</v>
@@ -4457,16 +4457,16 @@
         <v>96</v>
       </c>
       <c r="D108">
-        <v>-0.48</v>
+        <v>-0.6</v>
       </c>
       <c r="E108">
-        <v>0.55</v>
+        <v>0.39</v>
       </c>
       <c r="F108">
-        <v>0.03500000000000003</v>
+        <v>-0.105</v>
       </c>
       <c r="G108">
-        <v>0.1429060065749622</v>
+        <v>-0.400445759333956</v>
       </c>
       <c r="H108" t="b">
         <v>0</v>
@@ -4483,16 +4483,16 @@
         <v>97</v>
       </c>
       <c r="D109">
-        <v>-0.88</v>
+        <v>-1.01</v>
       </c>
       <c r="E109">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="F109">
-        <v>0.285</v>
+        <v>0.145</v>
       </c>
       <c r="G109">
-        <v>0.4738945475633676</v>
+        <v>0.2367320118176044</v>
       </c>
       <c r="H109" t="b">
         <v>0</v>
@@ -4509,16 +4509,16 @@
         <v>98</v>
       </c>
       <c r="D110">
-        <v>-1.54</v>
+        <v>-1.59</v>
       </c>
       <c r="E110">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="F110">
-        <v>-0.02500000000000002</v>
+        <v>-0.06500000000000006</v>
       </c>
       <c r="G110">
-        <v>-0.03584167240415526</v>
+        <v>-0.08649373365585658</v>
       </c>
       <c r="H110" t="b">
         <v>0</v>
@@ -4535,16 +4535,16 @@
         <v>99</v>
       </c>
       <c r="D111">
-        <v>-1.34</v>
+        <v>-1.45</v>
       </c>
       <c r="E111">
-        <v>0.8100000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="F111">
-        <v>-0.265</v>
+        <v>-0.4</v>
       </c>
       <c r="G111">
-        <v>-0.5005581657571766</v>
+        <v>-0.7846464786651718</v>
       </c>
       <c r="H111" t="b">
         <v>0</v>
@@ -4561,16 +4561,16 @@
         <v>100</v>
       </c>
       <c r="D112">
-        <v>-0.99</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="E112">
-        <v>0.53</v>
+        <v>0.92</v>
       </c>
       <c r="F112">
-        <v>-0.23</v>
+        <v>0.18</v>
       </c>
       <c r="G112">
-        <v>-0.5895686191121885</v>
+        <v>0.4925680947722281</v>
       </c>
       <c r="H112" t="b">
         <v>0</v>
@@ -4587,16 +4587,16 @@
         <v>101</v>
       </c>
       <c r="D113">
-        <v>-1.13</v>
+        <v>-1.94</v>
       </c>
       <c r="E113">
-        <v>1.26</v>
+        <v>0.45</v>
       </c>
       <c r="F113">
-        <v>0.06500000000000006</v>
+        <v>-0.745</v>
       </c>
       <c r="G113">
-        <v>0.1146344827127973</v>
+        <v>-1.233725323051217</v>
       </c>
       <c r="H113" t="b">
         <v>0</v>
@@ -4613,16 +4613,16 @@
         <v>102</v>
       </c>
       <c r="D114">
-        <v>-1.52</v>
+        <v>-1.41</v>
       </c>
       <c r="E114">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="F114">
-        <v>0.1849999999999999</v>
+        <v>0.305</v>
       </c>
       <c r="G114">
-        <v>0.1958649203238244</v>
+        <v>0.364344481797831</v>
       </c>
       <c r="H114" t="b">
         <v>0</v>
@@ -4639,16 +4639,16 @@
         <v>103</v>
       </c>
       <c r="D115">
-        <v>-1.82</v>
+        <v>-1.55</v>
       </c>
       <c r="E115">
-        <v>1.76</v>
+        <v>1.99</v>
       </c>
       <c r="F115">
-        <v>-0.03000000000000003</v>
+        <v>0.22</v>
       </c>
       <c r="G115">
-        <v>-0.05059272556561503</v>
+        <v>0.240040486039222</v>
       </c>
       <c r="H115" t="b">
         <v>0</v>
@@ -4665,16 +4665,16 @@
         <v>104</v>
       </c>
       <c r="D116">
-        <v>-1.66</v>
+        <v>-1.58</v>
       </c>
       <c r="E116">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="F116">
-        <v>-0.08499999999999996</v>
+        <v>-0.03500000000000003</v>
       </c>
       <c r="G116">
-        <v>-0.1283477880810118</v>
+        <v>-0.02619789271373197</v>
       </c>
       <c r="H116" t="b">
         <v>0</v>
@@ -4691,16 +4691,16 @@
         <v>105</v>
       </c>
       <c r="D117">
-        <v>-0.9399999999999999</v>
+        <v>-1.08</v>
       </c>
       <c r="E117">
-        <v>2.36</v>
+        <v>2.21</v>
       </c>
       <c r="F117">
-        <v>0.71</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="G117">
-        <v>0.8609362090707755</v>
+        <v>0.7142359846501454</v>
       </c>
       <c r="H117" t="b">
         <v>0</v>
@@ -4717,16 +4717,16 @@
         <v>106</v>
       </c>
       <c r="D118">
-        <v>-1.37</v>
+        <v>-1.12</v>
       </c>
       <c r="E118">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="F118">
-        <v>0.004999999999999893</v>
+        <v>0.235</v>
       </c>
       <c r="G118">
-        <v>0.01680268734954595</v>
+        <v>0.3594168400072911</v>
       </c>
       <c r="H118" t="b">
         <v>0</v>
@@ -4743,16 +4743,16 @@
         <v>107</v>
       </c>
       <c r="D119">
-        <v>-1.46</v>
+        <v>-1.11</v>
       </c>
       <c r="E119">
-        <v>1.18</v>
+        <v>1.52</v>
       </c>
       <c r="F119">
-        <v>-0.14</v>
+        <v>0.205</v>
       </c>
       <c r="G119">
-        <v>-0.2156620744340909</v>
+        <v>0.3025175203927927</v>
       </c>
       <c r="H119" t="b">
         <v>0</v>
@@ -4769,16 +4769,16 @@
         <v>108</v>
       </c>
       <c r="D120">
-        <v>-1.37</v>
+        <v>-1.48</v>
       </c>
       <c r="E120">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="F120">
-        <v>0.06499999999999995</v>
+        <v>-0.06999999999999995</v>
       </c>
       <c r="G120">
-        <v>0.08578704945513871</v>
+        <v>-0.1476914558182822</v>
       </c>
       <c r="H120" t="b">
         <v>0</v>
@@ -4795,16 +4795,16 @@
         <v>109</v>
       </c>
       <c r="D121">
-        <v>-1.85</v>
+        <v>-1.97</v>
       </c>
       <c r="E121">
-        <v>1.68</v>
+        <v>1.48</v>
       </c>
       <c r="F121">
-        <v>-0.08500000000000008</v>
+        <v>-0.245</v>
       </c>
       <c r="G121">
-        <v>-0.1198896770223837</v>
+        <v>-0.2603044730246427</v>
       </c>
       <c r="H121" t="b">
         <v>0</v>
@@ -4821,16 +4821,16 @@
         <v>110</v>
       </c>
       <c r="D122">
-        <v>-0.64</v>
+        <v>-0.33</v>
       </c>
       <c r="E122">
-        <v>0.39</v>
+        <v>0.66</v>
       </c>
       <c r="F122">
-        <v>-0.125</v>
+        <v>0.165</v>
       </c>
       <c r="G122">
-        <v>-0.4722813272522841</v>
+        <v>0.6929527546177368</v>
       </c>
       <c r="H122" t="b">
         <v>0</v>
@@ -4847,16 +4847,16 @@
         <v>111</v>
       </c>
       <c r="D123">
-        <v>-0.64</v>
+        <v>-0.46</v>
       </c>
       <c r="E123">
-        <v>0.83</v>
+        <v>1.02</v>
       </c>
       <c r="F123">
-        <v>0.09499999999999997</v>
+        <v>0.28</v>
       </c>
       <c r="G123">
-        <v>0.2647235759707733</v>
+        <v>0.7534990348215709</v>
       </c>
       <c r="H123" t="b">
         <v>0</v>
@@ -4873,16 +4873,16 @@
         <v>112</v>
       </c>
       <c r="D124">
-        <v>-1.28</v>
+        <v>-1.18</v>
       </c>
       <c r="E124">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="F124">
-        <v>-0.205</v>
+        <v>-0.135</v>
       </c>
       <c r="G124">
-        <v>-0.3571353791637903</v>
+        <v>-0.2691222833876307</v>
       </c>
       <c r="H124" t="b">
         <v>0</v>
@@ -4899,16 +4899,16 @@
         <v>113</v>
       </c>
       <c r="D125">
-        <v>-1.37</v>
+        <v>-1.1</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F125">
-        <v>-0.1850000000000001</v>
+        <v>0.04999999999999993</v>
       </c>
       <c r="G125">
-        <v>-0.3030894677436412</v>
+        <v>0.06410808665059076</v>
       </c>
       <c r="H125" t="b">
         <v>0</v>
@@ -4925,19 +4925,19 @@
         <v>114</v>
       </c>
       <c r="D126">
-        <v>-0.35</v>
+        <v>0.3</v>
       </c>
       <c r="E126">
-        <v>1.43</v>
+        <v>2.08</v>
       </c>
       <c r="F126">
-        <v>0.54</v>
+        <v>1.19</v>
       </c>
       <c r="G126">
-        <v>1.188565260955165</v>
+        <v>2.667265579827636</v>
       </c>
       <c r="H126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4951,16 +4951,16 @@
         <v>115</v>
       </c>
       <c r="D127">
-        <v>-0.45</v>
+        <v>-0.83</v>
       </c>
       <c r="E127">
-        <v>1.16</v>
+        <v>0.7</v>
       </c>
       <c r="F127">
-        <v>0.355</v>
+        <v>-0.065</v>
       </c>
       <c r="G127">
-        <v>0.8817047804184405</v>
+        <v>-0.16376316536895</v>
       </c>
       <c r="H127" t="b">
         <v>0</v>
@@ -4977,16 +4977,16 @@
         <v>116</v>
       </c>
       <c r="D128">
-        <v>-0.7</v>
+        <v>-0.62</v>
       </c>
       <c r="E128">
-        <v>0.31</v>
+        <v>0.37</v>
       </c>
       <c r="F128">
-        <v>-0.195</v>
+        <v>-0.125</v>
       </c>
       <c r="G128">
-        <v>-0.7569104797695915</v>
+        <v>-0.5017782986971545</v>
       </c>
       <c r="H128" t="b">
         <v>0</v>
@@ -5003,16 +5003,16 @@
         <v>117</v>
       </c>
       <c r="D129">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="E129">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="F129">
-        <v>0.265</v>
+        <v>0.335</v>
       </c>
       <c r="G129">
-        <v>0.4387042827644201</v>
+        <v>0.5813601448084681</v>
       </c>
       <c r="H129" t="b">
         <v>0</v>
@@ -5029,16 +5029,16 @@
         <v>118</v>
       </c>
       <c r="D130">
-        <v>-1.73</v>
+        <v>-1.78</v>
       </c>
       <c r="E130">
-        <v>1.27</v>
+        <v>1.15</v>
       </c>
       <c r="F130">
-        <v>-0.23</v>
+        <v>-0.3150000000000001</v>
       </c>
       <c r="G130">
-        <v>-0.2975642758966757</v>
+        <v>-0.4353440012878815</v>
       </c>
       <c r="H130" t="b">
         <v>0</v>
@@ -5055,16 +5055,16 @@
         <v>119</v>
       </c>
       <c r="D131">
-        <v>-1.07</v>
+        <v>-0.8</v>
       </c>
       <c r="E131">
-        <v>1.05</v>
+        <v>1.29</v>
       </c>
       <c r="F131">
-        <v>-0.01000000000000001</v>
+        <v>0.245</v>
       </c>
       <c r="G131">
-        <v>-0.01491868262187272</v>
+        <v>0.4398946449186349</v>
       </c>
       <c r="H131" t="b">
         <v>0</v>
@@ -5081,19 +5081,19 @@
         <v>120</v>
       </c>
       <c r="D132">
-        <v>-0.16</v>
+        <v>2.39</v>
       </c>
       <c r="E132">
-        <v>1.37</v>
+        <v>3.89</v>
       </c>
       <c r="F132">
-        <v>0.6050000000000001</v>
+        <v>3.14</v>
       </c>
       <c r="G132">
-        <v>1.533172797836071</v>
+        <v>8.223125125469339</v>
       </c>
       <c r="H132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5107,16 +5107,16 @@
         <v>121</v>
       </c>
       <c r="D133">
-        <v>-1.53</v>
+        <v>-1.63</v>
       </c>
       <c r="E133">
-        <v>0.89</v>
+        <v>0.78</v>
       </c>
       <c r="F133">
-        <v>-0.32</v>
+        <v>-0.4249999999999999</v>
       </c>
       <c r="G133">
-        <v>-0.5119290742687134</v>
+        <v>-0.7546780695631284</v>
       </c>
       <c r="H133" t="b">
         <v>0</v>
@@ -5133,16 +5133,16 @@
         <v>122</v>
       </c>
       <c r="D134">
-        <v>-1.36</v>
+        <v>-1.51</v>
       </c>
       <c r="E134">
-        <v>2.09</v>
+        <v>1.91</v>
       </c>
       <c r="F134">
-        <v>0.3649999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="G134">
-        <v>0.4026715285752852</v>
+        <v>0.2368460251696748</v>
       </c>
       <c r="H134" t="b">
         <v>0</v>
@@ -5159,16 +5159,16 @@
         <v>123</v>
       </c>
       <c r="D135">
-        <v>-1.59</v>
+        <v>-2.04</v>
       </c>
       <c r="E135">
-        <v>2.02</v>
+        <v>1.5</v>
       </c>
       <c r="F135">
-        <v>0.215</v>
+        <v>-0.27</v>
       </c>
       <c r="G135">
-        <v>0.2245100701952184</v>
+        <v>-0.2695190082724661</v>
       </c>
       <c r="H135" t="b">
         <v>0</v>
@@ -5185,16 +5185,16 @@
         <v>124</v>
       </c>
       <c r="D136">
-        <v>-1.66</v>
+        <v>-1.14</v>
       </c>
       <c r="E136">
-        <v>1.5</v>
+        <v>1.96</v>
       </c>
       <c r="F136">
-        <v>-0.07999999999999996</v>
+        <v>0.41</v>
       </c>
       <c r="G136">
-        <v>-0.09281811168078237</v>
+        <v>0.506304620463505</v>
       </c>
       <c r="H136" t="b">
         <v>0</v>
@@ -5211,16 +5211,16 @@
         <v>125</v>
       </c>
       <c r="D137">
-        <v>-2.23</v>
+        <v>-1.46</v>
       </c>
       <c r="E137">
-        <v>1.11</v>
+        <v>1.8</v>
       </c>
       <c r="F137">
-        <v>-0.5599999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="G137">
-        <v>-0.6476924322043046</v>
+        <v>0.1913022310412489</v>
       </c>
       <c r="H137" t="b">
         <v>0</v>
@@ -5237,16 +5237,16 @@
         <v>126</v>
       </c>
       <c r="D138">
-        <v>-1.9</v>
+        <v>-2.2</v>
       </c>
       <c r="E138">
-        <v>0.84</v>
+        <v>0.51</v>
       </c>
       <c r="F138">
-        <v>-0.53</v>
+        <v>-0.8450000000000001</v>
       </c>
       <c r="G138">
-        <v>-0.7565124353934385</v>
+        <v>-1.226738918856377</v>
       </c>
       <c r="H138" t="b">
         <v>0</v>
@@ -5263,16 +5263,16 @@
         <v>127</v>
       </c>
       <c r="D139">
-        <v>-2.32</v>
+        <v>-1.99</v>
       </c>
       <c r="E139">
-        <v>0.3</v>
+        <v>0.62</v>
       </c>
       <c r="F139">
-        <v>-1.01</v>
+        <v>-0.6850000000000001</v>
       </c>
       <c r="G139">
-        <v>-1.501431329311821</v>
+        <v>-1.002792619557193</v>
       </c>
       <c r="H139" t="b">
         <v>0</v>
@@ -5289,16 +5289,16 @@
         <v>128</v>
       </c>
       <c r="D140">
-        <v>-1.5</v>
+        <v>-0.49</v>
       </c>
       <c r="E140">
-        <v>1.32</v>
+        <v>2.3</v>
       </c>
       <c r="F140">
-        <v>-0.08999999999999997</v>
+        <v>0.9049999999999999</v>
       </c>
       <c r="G140">
-        <v>-0.1308348891399049</v>
+        <v>1.275347130287859</v>
       </c>
       <c r="H140" t="b">
         <v>0</v>
@@ -5315,16 +5315,16 @@
         <v>129</v>
       </c>
       <c r="D141">
-        <v>-1.8</v>
+        <v>-1.06</v>
       </c>
       <c r="E141">
-        <v>1.75</v>
+        <v>2.42</v>
       </c>
       <c r="F141">
-        <v>-0.02500000000000002</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="G141">
-        <v>-0.01391510422792449</v>
+        <v>0.8281216030708143</v>
       </c>
       <c r="H141" t="b">
         <v>0</v>
@@ -5341,16 +5341,16 @@
         <v>130</v>
       </c>
       <c r="D142">
-        <v>-0.41</v>
+        <v>-0.62</v>
       </c>
       <c r="E142">
-        <v>0.61</v>
+        <v>0.41</v>
       </c>
       <c r="F142">
-        <v>0.1</v>
+        <v>-0.105</v>
       </c>
       <c r="G142">
-        <v>0.3808018156535144</v>
+        <v>-0.3900917510466563</v>
       </c>
       <c r="H142" t="b">
         <v>0</v>
@@ -5367,16 +5367,16 @@
         <v>131</v>
       </c>
       <c r="D143">
-        <v>-0.77</v>
+        <v>-0.9</v>
       </c>
       <c r="E143">
-        <v>0.72</v>
+        <v>0.59</v>
       </c>
       <c r="F143">
-        <v>-0.02500000000000002</v>
+        <v>-0.155</v>
       </c>
       <c r="G143">
-        <v>-0.05789683014673336</v>
+        <v>-0.4072362395946733</v>
       </c>
       <c r="H143" t="b">
         <v>0</v>
@@ -5393,16 +5393,16 @@
         <v>132</v>
       </c>
       <c r="D144">
-        <v>-1.1</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="E144">
-        <v>1.03</v>
+        <v>1.14</v>
       </c>
       <c r="F144">
-        <v>-0.03500000000000003</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G144">
-        <v>-0.0668118505498503</v>
+        <v>0.1458417458875106</v>
       </c>
       <c r="H144" t="b">
         <v>0</v>
@@ -5419,16 +5419,16 @@
         <v>133</v>
       </c>
       <c r="D145">
-        <v>-1.47</v>
+        <v>-1.15</v>
       </c>
       <c r="E145">
-        <v>0.89</v>
+        <v>1.19</v>
       </c>
       <c r="F145">
-        <v>-0.29</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G145">
-        <v>-0.4875660809992045</v>
+        <v>0.02079726528243494</v>
       </c>
       <c r="H145" t="b">
         <v>0</v>
@@ -5445,16 +5445,16 @@
         <v>134</v>
       </c>
       <c r="D146">
-        <v>-0.31</v>
+        <v>-0.4</v>
       </c>
       <c r="E146">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="F146">
-        <v>0.58</v>
+        <v>0.485</v>
       </c>
       <c r="G146">
-        <v>1.293529890264326</v>
+        <v>1.110180837442225</v>
       </c>
       <c r="H146" t="b">
         <v>0</v>
@@ -5471,16 +5471,16 @@
         <v>135</v>
       </c>
       <c r="D147">
-        <v>-0.6899999999999999</v>
+        <v>-0.89</v>
       </c>
       <c r="E147">
-        <v>0.91</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F147">
-        <v>0.11</v>
+        <v>-0.1</v>
       </c>
       <c r="G147">
-        <v>0.2685268529873373</v>
+        <v>-0.2445282643642064</v>
       </c>
       <c r="H147" t="b">
         <v>0</v>
@@ -5497,16 +5497,16 @@
         <v>136</v>
       </c>
       <c r="D148">
-        <v>-0.66</v>
+        <v>-0.5</v>
       </c>
       <c r="E148">
-        <v>0.36</v>
+        <v>0.5</v>
       </c>
       <c r="F148">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="G148">
-        <v>-0.6171644770778968</v>
+        <v>-0.002711598929622993</v>
       </c>
       <c r="H148" t="b">
         <v>0</v>
@@ -5523,16 +5523,16 @@
         <v>137</v>
       </c>
       <c r="D149">
-        <v>-1.33</v>
+        <v>-0.99</v>
       </c>
       <c r="E149">
-        <v>1.02</v>
+        <v>1.32</v>
       </c>
       <c r="F149">
-        <v>-0.155</v>
+        <v>0.165</v>
       </c>
       <c r="G149">
-        <v>-0.2619326673270525</v>
+        <v>0.2503246215516885</v>
       </c>
       <c r="H149" t="b">
         <v>0</v>
@@ -5549,16 +5549,16 @@
         <v>138</v>
       </c>
       <c r="D150">
-        <v>-1.58</v>
+        <v>-1.97</v>
       </c>
       <c r="E150">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="F150">
-        <v>-0.07000000000000006</v>
+        <v>-0.48</v>
       </c>
       <c r="G150">
-        <v>-0.09330466405132511</v>
+        <v>-0.6050798812673548</v>
       </c>
       <c r="H150" t="b">
         <v>0</v>
@@ -5575,16 +5575,16 @@
         <v>139</v>
       </c>
       <c r="D151">
-        <v>-0.84</v>
+        <v>-0.91</v>
       </c>
       <c r="E151">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="F151">
-        <v>0.24</v>
+        <v>0.145</v>
       </c>
       <c r="G151">
-        <v>0.4515228429812684</v>
+        <v>0.246478063332684</v>
       </c>
       <c r="H151" t="b">
         <v>0</v>
@@ -5601,19 +5601,19 @@
         <v>140</v>
       </c>
       <c r="D152">
-        <v>-0.9399999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="E152">
-        <v>0.58</v>
+        <v>1.67</v>
       </c>
       <c r="F152">
-        <v>-0.18</v>
+        <v>0.9149999999999999</v>
       </c>
       <c r="G152">
-        <v>-0.4877727359134077</v>
+        <v>2.408432866215102</v>
       </c>
       <c r="H152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5627,16 +5627,16 @@
         <v>141</v>
       </c>
       <c r="D153">
-        <v>-1.14</v>
+        <v>-1.19</v>
       </c>
       <c r="E153">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
       <c r="F153">
-        <v>0.06000000000000005</v>
+        <v>-0.01000000000000001</v>
       </c>
       <c r="G153">
-        <v>0.1132182475986607</v>
+        <v>-0.02704977374020235</v>
       </c>
       <c r="H153" t="b">
         <v>0</v>
@@ -5653,16 +5653,16 @@
         <v>142</v>
       </c>
       <c r="D154">
-        <v>-1.82</v>
+        <v>-1.86</v>
       </c>
       <c r="E154">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="F154">
-        <v>-0.11</v>
+        <v>-0.15</v>
       </c>
       <c r="G154">
-        <v>-0.1103318315091625</v>
+        <v>-0.1645140218514396</v>
       </c>
       <c r="H154" t="b">
         <v>0</v>
@@ -5679,16 +5679,16 @@
         <v>143</v>
       </c>
       <c r="D155">
-        <v>-2.2</v>
+        <v>-1.82</v>
       </c>
       <c r="E155">
-        <v>1.37</v>
+        <v>1.75</v>
       </c>
       <c r="F155">
-        <v>-0.415</v>
+        <v>-0.03500000000000003</v>
       </c>
       <c r="G155">
-        <v>-0.4901232475030741</v>
+        <v>-0.03290620923743789</v>
       </c>
       <c r="H155" t="b">
         <v>0</v>
@@ -5705,16 +5705,16 @@
         <v>144</v>
       </c>
       <c r="D156">
-        <v>-1.92</v>
+        <v>-1.6</v>
       </c>
       <c r="E156">
-        <v>1.23</v>
+        <v>1.53</v>
       </c>
       <c r="F156">
-        <v>-0.345</v>
+        <v>-0.03500000000000003</v>
       </c>
       <c r="G156">
-        <v>-0.4231809926874863</v>
+        <v>-0.1064282772114713</v>
       </c>
       <c r="H156" t="b">
         <v>0</v>
@@ -5731,16 +5731,16 @@
         <v>145</v>
       </c>
       <c r="D157">
-        <v>-2.07</v>
+        <v>-1.85</v>
       </c>
       <c r="E157">
-        <v>1.26</v>
+        <v>1.5</v>
       </c>
       <c r="F157">
-        <v>-0.4049999999999999</v>
+        <v>-0.175</v>
       </c>
       <c r="G157">
-        <v>-0.4812437532080355</v>
+        <v>-0.186021407883422</v>
       </c>
       <c r="H157" t="b">
         <v>0</v>
@@ -5757,16 +5757,16 @@
         <v>146</v>
       </c>
       <c r="D158">
-        <v>-1.49</v>
+        <v>-1.18</v>
       </c>
       <c r="E158">
-        <v>1.23</v>
+        <v>1.52</v>
       </c>
       <c r="F158">
-        <v>-0.13</v>
+        <v>0.17</v>
       </c>
       <c r="G158">
-        <v>-0.2040920846650608</v>
+        <v>0.25357498214515</v>
       </c>
       <c r="H158" t="b">
         <v>0</v>
@@ -5783,16 +5783,16 @@
         <v>147</v>
       </c>
       <c r="D159">
-        <v>-1.47</v>
+        <v>-1.29</v>
       </c>
       <c r="E159">
-        <v>1.16</v>
+        <v>1.32</v>
       </c>
       <c r="F159">
-        <v>-0.155</v>
+        <v>0.01500000000000001</v>
       </c>
       <c r="G159">
-        <v>-0.2453348580498896</v>
+        <v>0.05041972748270705</v>
       </c>
       <c r="H159" t="b">
         <v>0</v>
@@ -5809,16 +5809,16 @@
         <v>148</v>
       </c>
       <c r="D160">
-        <v>-1.78</v>
+        <v>-1.09</v>
       </c>
       <c r="E160">
-        <v>1.02</v>
+        <v>1.68</v>
       </c>
       <c r="F160">
-        <v>-0.38</v>
+        <v>0.2949999999999999</v>
       </c>
       <c r="G160">
-        <v>-0.5286320980398072</v>
+        <v>0.423790266826417</v>
       </c>
       <c r="H160" t="b">
         <v>0</v>
@@ -5835,16 +5835,16 @@
         <v>149</v>
       </c>
       <c r="D161">
-        <v>-1.79</v>
+        <v>-1.56</v>
       </c>
       <c r="E161">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="F161">
-        <v>-0.04500000000000004</v>
+        <v>0.1699999999999999</v>
       </c>
       <c r="G161">
-        <v>-0.05347862940874443</v>
+        <v>0.1589525371248622</v>
       </c>
       <c r="H161" t="b">
         <v>0</v>
@@ -5870,7 +5870,7 @@
         <v>0.135</v>
       </c>
       <c r="G162">
-        <v>0.516896247750693</v>
+        <v>0.5320002454484377</v>
       </c>
       <c r="H162" t="b">
         <v>0</v>
@@ -5887,16 +5887,16 @@
         <v>151</v>
       </c>
       <c r="D163">
-        <v>-1.08</v>
+        <v>-1.35</v>
       </c>
       <c r="E163">
-        <v>0.4</v>
+        <v>0.09</v>
       </c>
       <c r="F163">
-        <v>-0.34</v>
+        <v>-0.63</v>
       </c>
       <c r="G163">
-        <v>-0.8943183543782579</v>
+        <v>-1.718650915658944</v>
       </c>
       <c r="H163" t="b">
         <v>0</v>
@@ -5913,16 +5913,16 @@
         <v>152</v>
       </c>
       <c r="D164">
-        <v>-0.37</v>
+        <v>-0.77</v>
       </c>
       <c r="E164">
-        <v>1.74</v>
+        <v>1.34</v>
       </c>
       <c r="F164">
-        <v>0.6850000000000001</v>
+        <v>0.285</v>
       </c>
       <c r="G164">
-        <v>1.284332769909053</v>
+        <v>0.5522710908038786</v>
       </c>
       <c r="H164" t="b">
         <v>0</v>
@@ -5939,16 +5939,16 @@
         <v>153</v>
       </c>
       <c r="D165">
-        <v>-1.09</v>
+        <v>-1.34</v>
       </c>
       <c r="E165">
-        <v>1.25</v>
+        <v>0.99</v>
       </c>
       <c r="F165">
-        <v>0.07999999999999996</v>
+        <v>-0.175</v>
       </c>
       <c r="G165">
-        <v>0.1358826797437564</v>
+        <v>-0.2848128638340816</v>
       </c>
       <c r="H165" t="b">
         <v>0</v>
@@ -5965,19 +5965,19 @@
         <v>154</v>
       </c>
       <c r="D166">
-        <v>-2.41</v>
+        <v>-0.37</v>
       </c>
       <c r="E166">
-        <v>-0.63</v>
+        <v>1.41</v>
       </c>
       <c r="F166">
-        <v>-1.52</v>
+        <v>0.52</v>
       </c>
       <c r="G166">
-        <v>-3.372511325782239</v>
+        <v>1.123859780336996</v>
       </c>
       <c r="H166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5991,19 +5991,19 @@
         <v>155</v>
       </c>
       <c r="D167">
-        <v>0.28</v>
+        <v>-1.15</v>
       </c>
       <c r="E167">
-        <v>1.87</v>
+        <v>0.41</v>
       </c>
       <c r="F167">
-        <v>1.075</v>
+        <v>-0.37</v>
       </c>
       <c r="G167">
-        <v>2.674802215648642</v>
+        <v>-0.9456722878910017</v>
       </c>
       <c r="H167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6017,16 +6017,16 @@
         <v>156</v>
       </c>
       <c r="D168">
-        <v>0.17</v>
+        <v>0.91</v>
       </c>
       <c r="E168">
-        <v>1.18</v>
+        <v>1.92</v>
       </c>
       <c r="F168">
-        <v>0.6749999999999999</v>
+        <v>1.415</v>
       </c>
       <c r="G168">
-        <v>2.628094875120634</v>
+        <v>5.612094741013302</v>
       </c>
       <c r="H168" t="b">
         <v>1</v>
@@ -6043,16 +6043,16 @@
         <v>157</v>
       </c>
       <c r="D169">
-        <v>-1</v>
+        <v>-1.16</v>
       </c>
       <c r="E169">
-        <v>1.34</v>
+        <v>1.15</v>
       </c>
       <c r="F169">
-        <v>0.17</v>
+        <v>-0.005000000000000004</v>
       </c>
       <c r="G169">
-        <v>0.2734652686874297</v>
+        <v>-0.02761446832151705</v>
       </c>
       <c r="H169" t="b">
         <v>0</v>
@@ -6069,16 +6069,16 @@
         <v>158</v>
       </c>
       <c r="D170">
-        <v>-1.65</v>
+        <v>-2.1</v>
       </c>
       <c r="E170">
-        <v>1.32</v>
+        <v>0.79</v>
       </c>
       <c r="F170">
-        <v>-0.1649999999999999</v>
+        <v>-0.655</v>
       </c>
       <c r="G170">
-        <v>-0.2050975203447408</v>
+        <v>-0.8580447054752178</v>
       </c>
       <c r="H170" t="b">
         <v>0</v>
@@ -6098,13 +6098,13 @@
         <v>-1.26</v>
       </c>
       <c r="E171">
-        <v>0.86</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F171">
-        <v>-0.2</v>
+        <v>-0.225</v>
       </c>
       <c r="G171">
-        <v>-0.3584067703835248</v>
+        <v>-0.4440651054637401</v>
       </c>
       <c r="H171" t="b">
         <v>0</v>
@@ -6121,16 +6121,16 @@
         <v>160</v>
       </c>
       <c r="D172">
-        <v>-0.6</v>
+        <v>-0.91</v>
       </c>
       <c r="E172">
-        <v>0.9</v>
+        <v>0.58</v>
       </c>
       <c r="F172">
-        <v>0.15</v>
+        <v>-0.165</v>
       </c>
       <c r="G172">
-        <v>0.4045921245971963</v>
+        <v>-0.4843887687210921</v>
       </c>
       <c r="H172" t="b">
         <v>0</v>
@@ -6150,13 +6150,13 @@
         <v>-0.74</v>
       </c>
       <c r="E173">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="F173">
-        <v>0.475</v>
+        <v>0.455</v>
       </c>
       <c r="G173">
-        <v>0.7827760081055122</v>
+        <v>0.7002810637805507</v>
       </c>
       <c r="H173" t="b">
         <v>0</v>
@@ -6173,16 +6173,16 @@
         <v>162</v>
       </c>
       <c r="D174">
-        <v>-1.97</v>
+        <v>-1.72</v>
       </c>
       <c r="E174">
-        <v>1.49</v>
+        <v>1.75</v>
       </c>
       <c r="F174">
-        <v>-0.24</v>
+        <v>0.01500000000000001</v>
       </c>
       <c r="G174">
-        <v>-0.2692180695810425</v>
+        <v>0.002685683714997803</v>
       </c>
       <c r="H174" t="b">
         <v>0</v>
@@ -6199,16 +6199,16 @@
         <v>163</v>
       </c>
       <c r="D175">
-        <v>-2.17</v>
+        <v>-2.54</v>
       </c>
       <c r="E175">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="F175">
-        <v>-0.385</v>
+        <v>-0.72</v>
       </c>
       <c r="G175">
-        <v>-0.4224141213686412</v>
+        <v>-0.7881177985509329</v>
       </c>
       <c r="H175" t="b">
         <v>0</v>
@@ -6225,16 +6225,16 @@
         <v>164</v>
       </c>
       <c r="D176">
-        <v>-1.07</v>
+        <v>-0.48</v>
       </c>
       <c r="E176">
-        <v>2.07</v>
+        <v>2.62</v>
       </c>
       <c r="F176">
-        <v>0.4999999999999999</v>
+        <v>1.07</v>
       </c>
       <c r="G176">
-        <v>0.6187806125861605</v>
+        <v>1.37234957555509</v>
       </c>
       <c r="H176" t="b">
         <v>0</v>
@@ -6251,16 +6251,16 @@
         <v>165</v>
       </c>
       <c r="D177">
-        <v>-1.47</v>
+        <v>-2.14</v>
       </c>
       <c r="E177">
-        <v>1.85</v>
+        <v>1.14</v>
       </c>
       <c r="F177">
-        <v>0.1900000000000001</v>
+        <v>-0.5000000000000001</v>
       </c>
       <c r="G177">
-        <v>0.2325339412266101</v>
+        <v>-0.6190738999151338</v>
       </c>
       <c r="H177" t="b">
         <v>0</v>
@@ -6277,16 +6277,16 @@
         <v>166</v>
       </c>
       <c r="D178">
-        <v>-1.79</v>
+        <v>-1.53</v>
       </c>
       <c r="E178">
-        <v>0.95</v>
+        <v>1.17</v>
       </c>
       <c r="F178">
-        <v>-0.42</v>
+        <v>-0.18</v>
       </c>
       <c r="G178">
-        <v>-0.6136479152766481</v>
+        <v>-0.2403096074244806</v>
       </c>
       <c r="H178" t="b">
         <v>0</v>
@@ -6303,16 +6303,16 @@
         <v>167</v>
       </c>
       <c r="D179">
-        <v>-1.48</v>
+        <v>-1.43</v>
       </c>
       <c r="E179">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="F179">
-        <v>-0.17</v>
+        <v>-0.12</v>
       </c>
       <c r="G179">
-        <v>-0.2622887714553207</v>
+        <v>-0.1791080567932683</v>
       </c>
       <c r="H179" t="b">
         <v>0</v>
@@ -6329,19 +6329,19 @@
         <v>168</v>
       </c>
       <c r="D180">
-        <v>-1.63</v>
+        <v>0.53</v>
       </c>
       <c r="E180">
-        <v>1.16</v>
+        <v>3.45</v>
       </c>
       <c r="F180">
-        <v>-0.235</v>
+        <v>1.99</v>
       </c>
       <c r="G180">
-        <v>-0.3250406824846792</v>
+        <v>2.659525438395558</v>
       </c>
       <c r="H180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6355,16 +6355,16 @@
         <v>169</v>
       </c>
       <c r="D181">
-        <v>-2.01</v>
+        <v>-2.02</v>
       </c>
       <c r="E181">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="F181">
-        <v>-0.2349999999999999</v>
+        <v>-0.235</v>
       </c>
       <c r="G181">
-        <v>-0.2444808763674002</v>
+        <v>-0.2344355313216283</v>
       </c>
       <c r="H181" t="b">
         <v>0</v>
@@ -6381,16 +6381,16 @@
         <v>170</v>
       </c>
       <c r="D182">
-        <v>-0.54</v>
+        <v>-0.61</v>
       </c>
       <c r="E182">
-        <v>0.49</v>
+        <v>0.41</v>
       </c>
       <c r="F182">
-        <v>-0.02500000000000002</v>
+        <v>-0.1</v>
       </c>
       <c r="G182">
-        <v>-0.1230427453810373</v>
+        <v>-0.3906322991484375</v>
       </c>
       <c r="H182" t="b">
         <v>0</v>
@@ -6407,16 +6407,16 @@
         <v>171</v>
       </c>
       <c r="D183">
-        <v>-0.35</v>
+        <v>-0.42</v>
       </c>
       <c r="E183">
-        <v>1.14</v>
+        <v>1.05</v>
       </c>
       <c r="F183">
-        <v>0.395</v>
+        <v>0.3150000000000001</v>
       </c>
       <c r="G183">
-        <v>1.061747398995011</v>
+        <v>0.8541936329917842</v>
       </c>
       <c r="H183" t="b">
         <v>0</v>
@@ -6433,16 +6433,16 @@
         <v>172</v>
       </c>
       <c r="D184">
-        <v>-1.37</v>
+        <v>-1.08</v>
       </c>
       <c r="E184">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F184">
-        <v>-0.3100000000000001</v>
+        <v>-0.04000000000000004</v>
       </c>
       <c r="G184">
-        <v>-0.5737412348385829</v>
+        <v>-0.06248802256814635</v>
       </c>
       <c r="H184" t="b">
         <v>0</v>
@@ -6459,16 +6459,16 @@
         <v>173</v>
       </c>
       <c r="D185">
-        <v>-1.23</v>
+        <v>-1.28</v>
       </c>
       <c r="E185">
-        <v>1.12</v>
+        <v>1.05</v>
       </c>
       <c r="F185">
-        <v>-0.05499999999999994</v>
+        <v>-0.115</v>
       </c>
       <c r="G185">
-        <v>-0.1000304176908901</v>
+        <v>-0.1761342974914554</v>
       </c>
       <c r="H185" t="b">
         <v>0</v>
@@ -6485,16 +6485,16 @@
         <v>174</v>
       </c>
       <c r="D186">
-        <v>-0.72</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="E186">
-        <v>1.06</v>
+        <v>0.85</v>
       </c>
       <c r="F186">
-        <v>0.17</v>
+        <v>-0.04499999999999998</v>
       </c>
       <c r="G186">
-        <v>0.3910154387397322</v>
+        <v>-0.1240705959022127</v>
       </c>
       <c r="H186" t="b">
         <v>0</v>
@@ -6511,16 +6511,16 @@
         <v>175</v>
       </c>
       <c r="D187">
-        <v>-0.9</v>
+        <v>-1.03</v>
       </c>
       <c r="E187">
-        <v>0.67</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F187">
-        <v>-0.115</v>
+        <v>-0.235</v>
       </c>
       <c r="G187">
-        <v>-0.2745503815123493</v>
+        <v>-0.6000745290864375</v>
       </c>
       <c r="H187" t="b">
         <v>0</v>
@@ -6537,16 +6537,16 @@
         <v>176</v>
       </c>
       <c r="D188">
-        <v>-0.57</v>
+        <v>-0.64</v>
       </c>
       <c r="E188">
-        <v>0.45</v>
+        <v>0.36</v>
       </c>
       <c r="F188">
-        <v>-0.05999999999999997</v>
+        <v>-0.14</v>
       </c>
       <c r="G188">
-        <v>-0.2385784117311882</v>
+        <v>-0.5209737672658821</v>
       </c>
       <c r="H188" t="b">
         <v>0</v>
@@ -6563,16 +6563,16 @@
         <v>177</v>
       </c>
       <c r="D189">
-        <v>-1.21</v>
+        <v>-0.82</v>
       </c>
       <c r="E189">
-        <v>1.14</v>
+        <v>1.46</v>
       </c>
       <c r="F189">
-        <v>-0.03500000000000003</v>
+        <v>0.32</v>
       </c>
       <c r="G189">
-        <v>-0.05567958378417123</v>
+        <v>0.5902472023197117</v>
       </c>
       <c r="H189" t="b">
         <v>0</v>
@@ -6589,16 +6589,16 @@
         <v>178</v>
       </c>
       <c r="D190">
-        <v>-1.34</v>
+        <v>-1.65</v>
       </c>
       <c r="E190">
-        <v>1.63</v>
+        <v>1.36</v>
       </c>
       <c r="F190">
-        <v>0.1449999999999999</v>
+        <v>-0.1449999999999999</v>
       </c>
       <c r="G190">
-        <v>0.1814059708211233</v>
+        <v>-0.1958809762824255</v>
       </c>
       <c r="H190" t="b">
         <v>0</v>
@@ -6615,16 +6615,16 @@
         <v>179</v>
       </c>
       <c r="D191">
-        <v>-1.36</v>
+        <v>-1.38</v>
       </c>
       <c r="E191">
-        <v>0.8</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F191">
-        <v>-0.28</v>
+        <v>-0.345</v>
       </c>
       <c r="G191">
-        <v>-0.5237497733370995</v>
+        <v>-0.6512640286509689</v>
       </c>
       <c r="H191" t="b">
         <v>0</v>
@@ -6641,16 +6641,16 @@
         <v>180</v>
       </c>
       <c r="D192">
-        <v>-0.9399999999999999</v>
+        <v>-0.43</v>
       </c>
       <c r="E192">
-        <v>0.59</v>
+        <v>1.05</v>
       </c>
       <c r="F192">
-        <v>-0.175</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="G192">
-        <v>-0.4606570178200369</v>
+        <v>0.8032877975573562</v>
       </c>
       <c r="H192" t="b">
         <v>0</v>
@@ -6667,16 +6667,16 @@
         <v>181</v>
       </c>
       <c r="D193">
-        <v>-1.16</v>
+        <v>-1.28</v>
       </c>
       <c r="E193">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="F193">
-        <v>0.05000000000000004</v>
+        <v>-0.08499999999999996</v>
       </c>
       <c r="G193">
-        <v>0.0883497407457962</v>
+        <v>-0.150452931528396</v>
       </c>
       <c r="H193" t="b">
         <v>0</v>
@@ -6693,16 +6693,16 @@
         <v>182</v>
       </c>
       <c r="D194">
-        <v>-1.6</v>
+        <v>-1.57</v>
       </c>
       <c r="E194">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="F194">
-        <v>0.11</v>
+        <v>0.1699999999999999</v>
       </c>
       <c r="G194">
-        <v>0.1270175629548598</v>
+        <v>0.1915383212800539</v>
       </c>
       <c r="H194" t="b">
         <v>0</v>
@@ -6719,16 +6719,16 @@
         <v>183</v>
       </c>
       <c r="D195">
-        <v>-1.72</v>
+        <v>-1.74</v>
       </c>
       <c r="E195">
         <v>1.82</v>
       </c>
       <c r="F195">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G195">
-        <v>0.07045652121007476</v>
+        <v>0.05989896857664394</v>
       </c>
       <c r="H195" t="b">
         <v>0</v>
@@ -6745,16 +6745,16 @@
         <v>184</v>
       </c>
       <c r="D196">
-        <v>-1.46</v>
+        <v>-1.57</v>
       </c>
       <c r="E196">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="F196">
-        <v>0.08999999999999997</v>
+        <v>-0.005000000000000004</v>
       </c>
       <c r="G196">
-        <v>0.09988742457290063</v>
+        <v>-0.006091358146903981</v>
       </c>
       <c r="H196" t="b">
         <v>0</v>
@@ -6771,16 +6771,16 @@
         <v>185</v>
       </c>
       <c r="D197">
-        <v>-2.14</v>
+        <v>-1.9</v>
       </c>
       <c r="E197">
-        <v>1.17</v>
+        <v>1.39</v>
       </c>
       <c r="F197">
-        <v>-0.4850000000000001</v>
+        <v>-0.255</v>
       </c>
       <c r="G197">
-        <v>-0.5576983995434877</v>
+        <v>-0.3139511520628686</v>
       </c>
       <c r="H197" t="b">
         <v>0</v>
@@ -6797,16 +6797,16 @@
         <v>186</v>
       </c>
       <c r="D198">
-        <v>-1.63</v>
+        <v>-1.71</v>
       </c>
       <c r="E198">
-        <v>1.09</v>
+        <v>0.97</v>
       </c>
       <c r="F198">
-        <v>-0.2699999999999999</v>
+        <v>-0.37</v>
       </c>
       <c r="G198">
-        <v>-0.3897732464746891</v>
+        <v>-0.5163900116019542</v>
       </c>
       <c r="H198" t="b">
         <v>0</v>
@@ -6823,16 +6823,16 @@
         <v>187</v>
       </c>
       <c r="D199">
-        <v>-1.55</v>
+        <v>-1.43</v>
       </c>
       <c r="E199">
-        <v>1.05</v>
+        <v>1.18</v>
       </c>
       <c r="F199">
-        <v>-0.25</v>
+        <v>-0.125</v>
       </c>
       <c r="G199">
-        <v>-0.377687458783303</v>
+        <v>-0.1622220417143451</v>
       </c>
       <c r="H199" t="b">
         <v>0</v>
@@ -6849,16 +6849,16 @@
         <v>188</v>
       </c>
       <c r="D200">
-        <v>-1.59</v>
+        <v>-1.44</v>
       </c>
       <c r="E200">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="F200">
-        <v>-0.1850000000000001</v>
+        <v>-0.03499999999999992</v>
       </c>
       <c r="G200">
-        <v>-0.2755667072933907</v>
+        <v>-0.05464424411258664</v>
       </c>
       <c r="H200" t="b">
         <v>0</v>
@@ -6875,16 +6875,16 @@
         <v>189</v>
       </c>
       <c r="D201">
-        <v>-1.95</v>
+        <v>-1.53</v>
       </c>
       <c r="E201">
-        <v>1.58</v>
+        <v>1.95</v>
       </c>
       <c r="F201">
-        <v>-0.1849999999999999</v>
+        <v>0.21</v>
       </c>
       <c r="G201">
-        <v>-0.2208304204321548</v>
+        <v>0.2142957979369436</v>
       </c>
       <c r="H201" t="b">
         <v>0</v>
@@ -6901,16 +6901,16 @@
         <v>190</v>
       </c>
       <c r="D202">
-        <v>-0.57</v>
+        <v>-0.51</v>
       </c>
       <c r="E202">
-        <v>0.45</v>
+        <v>0.49</v>
       </c>
       <c r="F202">
-        <v>-0.05999999999999997</v>
+        <v>-0.01000000000000001</v>
       </c>
       <c r="G202">
-        <v>-0.2389584443392349</v>
+        <v>-0.02458654243410886</v>
       </c>
       <c r="H202" t="b">
         <v>0</v>
@@ -6927,16 +6927,16 @@
         <v>191</v>
       </c>
       <c r="D203">
-        <v>-0.48</v>
+        <v>-0.63</v>
       </c>
       <c r="E203">
-        <v>1.01</v>
+        <v>0.86</v>
       </c>
       <c r="F203">
-        <v>0.265</v>
+        <v>0.115</v>
       </c>
       <c r="G203">
-        <v>0.7005547806277256</v>
+        <v>0.2583662303948719</v>
       </c>
       <c r="H203" t="b">
         <v>0</v>
@@ -6953,16 +6953,16 @@
         <v>192</v>
       </c>
       <c r="D204">
-        <v>-1.29</v>
+        <v>-1.43</v>
       </c>
       <c r="E204">
-        <v>0.8100000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="F204">
-        <v>-0.24</v>
+        <v>-0.39</v>
       </c>
       <c r="G204">
-        <v>-0.4474739831805371</v>
+        <v>-0.7299005820866151</v>
       </c>
       <c r="H204" t="b">
         <v>0</v>
@@ -6979,16 +6979,16 @@
         <v>193</v>
       </c>
       <c r="D205">
-        <v>-1.13</v>
+        <v>-1.11</v>
       </c>
       <c r="E205">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="F205">
-        <v>0.03000000000000003</v>
+        <v>0.04999999999999993</v>
       </c>
       <c r="G205">
-        <v>0.04768757822609403</v>
+        <v>0.09301460583894508</v>
       </c>
       <c r="H205" t="b">
         <v>0</v>
@@ -7005,16 +7005,16 @@
         <v>194</v>
       </c>
       <c r="D206">
-        <v>-0.72</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="E206">
-        <v>1.06</v>
+        <v>0.95</v>
       </c>
       <c r="F206">
-        <v>0.17</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G206">
-        <v>0.386534223259335</v>
+        <v>0.152594152691144</v>
       </c>
       <c r="H206" t="b">
         <v>0</v>
@@ -7031,16 +7031,16 @@
         <v>195</v>
       </c>
       <c r="D207">
-        <v>-0.78</v>
+        <v>-0.82</v>
       </c>
       <c r="E207">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="F207">
-        <v>0.01999999999999996</v>
+        <v>-0.01999999999999996</v>
       </c>
       <c r="G207">
-        <v>0.03952931234892784</v>
+        <v>-0.05672311439504257</v>
       </c>
       <c r="H207" t="b">
         <v>0</v>
@@ -7057,16 +7057,16 @@
         <v>196</v>
       </c>
       <c r="D208">
-        <v>-0.57</v>
+        <v>-0.64</v>
       </c>
       <c r="E208">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="F208">
-        <v>-0.05999999999999997</v>
+        <v>-0.145</v>
       </c>
       <c r="G208">
-        <v>-0.2305336575311586</v>
+        <v>-0.5809219526128093</v>
       </c>
       <c r="H208" t="b">
         <v>0</v>
@@ -7083,16 +7083,16 @@
         <v>197</v>
       </c>
       <c r="D209">
-        <v>-1.04</v>
+        <v>-0.93</v>
       </c>
       <c r="E209">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="F209">
-        <v>0.12</v>
+        <v>0.2249999999999999</v>
       </c>
       <c r="G209">
-        <v>0.2222594220969291</v>
+        <v>0.3990905726187705</v>
       </c>
       <c r="H209" t="b">
         <v>0</v>
@@ -7109,16 +7109,16 @@
         <v>198</v>
       </c>
       <c r="D210">
-        <v>-1.39</v>
+        <v>-1.93</v>
       </c>
       <c r="E210">
-        <v>1.61</v>
+        <v>0.98</v>
       </c>
       <c r="F210">
-        <v>0.1100000000000001</v>
+        <v>-0.475</v>
       </c>
       <c r="G210">
-        <v>0.1295099294469121</v>
+        <v>-0.6211068277605101</v>
       </c>
       <c r="H210" t="b">
         <v>0</v>
@@ -7135,16 +7135,16 @@
         <v>199</v>
       </c>
       <c r="D211">
-        <v>-1.09</v>
+        <v>-1.29</v>
       </c>
       <c r="E211">
-        <v>1.03</v>
+        <v>0.85</v>
       </c>
       <c r="F211">
-        <v>-0.03000000000000003</v>
+        <v>-0.22</v>
       </c>
       <c r="G211">
-        <v>-0.06968452774966823</v>
+        <v>-0.3736094070877758</v>
       </c>
       <c r="H211" t="b">
         <v>0</v>
@@ -7161,16 +7161,16 @@
         <v>200</v>
       </c>
       <c r="D212">
-        <v>-0.9399999999999999</v>
+        <v>-0.49</v>
       </c>
       <c r="E212">
-        <v>0.59</v>
+        <v>1.02</v>
       </c>
       <c r="F212">
-        <v>-0.175</v>
+        <v>0.265</v>
       </c>
       <c r="G212">
-        <v>-0.4632025228489426</v>
+        <v>0.6717041331699574</v>
       </c>
       <c r="H212" t="b">
         <v>0</v>
@@ -7187,16 +7187,16 @@
         <v>201</v>
       </c>
       <c r="D213">
-        <v>-1.49</v>
+        <v>-1.45</v>
       </c>
       <c r="E213">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F213">
-        <v>-0.29</v>
+        <v>-0.275</v>
       </c>
       <c r="G213">
-        <v>-0.4919297466155077</v>
+        <v>-0.4844325975045743</v>
       </c>
       <c r="H213" t="b">
         <v>0</v>
@@ -7213,16 +7213,16 @@
         <v>202</v>
       </c>
       <c r="D214">
-        <v>-1.53</v>
+        <v>-1.51</v>
       </c>
       <c r="E214">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="F214">
-        <v>0.17</v>
+        <v>0.1849999999999999</v>
       </c>
       <c r="G214">
-        <v>0.2012336797005771</v>
+        <v>0.1898804740403421</v>
       </c>
       <c r="H214" t="b">
         <v>0</v>
@@ -7239,16 +7239,16 @@
         <v>203</v>
       </c>
       <c r="D215">
-        <v>-1.71</v>
+        <v>-1.72</v>
       </c>
       <c r="E215">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="F215">
-        <v>0.05500000000000005</v>
+        <v>0.03500000000000003</v>
       </c>
       <c r="G215">
-        <v>0.07765157841801791</v>
+        <v>0.0487753350829205</v>
       </c>
       <c r="H215" t="b">
         <v>0</v>
@@ -7265,16 +7265,16 @@
         <v>204</v>
       </c>
       <c r="D216">
-        <v>-1.17</v>
+        <v>-1.32</v>
       </c>
       <c r="E216">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="F216">
-        <v>0.375</v>
+        <v>0.255</v>
       </c>
       <c r="G216">
-        <v>0.4724935273323784</v>
+        <v>0.3654469664945935</v>
       </c>
       <c r="H216" t="b">
         <v>0</v>
@@ -7291,16 +7291,16 @@
         <v>205</v>
       </c>
       <c r="D217">
-        <v>-2.21</v>
+        <v>-1.95</v>
       </c>
       <c r="E217">
-        <v>1.12</v>
+        <v>1.42</v>
       </c>
       <c r="F217">
-        <v>-0.5449999999999999</v>
+        <v>-0.265</v>
       </c>
       <c r="G217">
-        <v>-0.6478689598674903</v>
+        <v>-0.2910177198905032</v>
       </c>
       <c r="H217" t="b">
         <v>0</v>
@@ -7317,16 +7317,16 @@
         <v>206</v>
       </c>
       <c r="D218">
-        <v>-1.53</v>
+        <v>-1.65</v>
       </c>
       <c r="E218">
-        <v>1.18</v>
+        <v>1.06</v>
       </c>
       <c r="F218">
-        <v>-0.175</v>
+        <v>-0.2949999999999999</v>
       </c>
       <c r="G218">
-        <v>-0.2489849599960034</v>
+        <v>-0.4467175347229612</v>
       </c>
       <c r="H218" t="b">
         <v>0</v>
@@ -7343,16 +7343,16 @@
         <v>207</v>
       </c>
       <c r="D219">
-        <v>-1.8</v>
+        <v>-1.59</v>
       </c>
       <c r="E219">
-        <v>0.84</v>
+        <v>1.04</v>
       </c>
       <c r="F219">
-        <v>-0.48</v>
+        <v>-0.275</v>
       </c>
       <c r="G219">
-        <v>-0.6913529449550465</v>
+        <v>-0.4045543863597475</v>
       </c>
       <c r="H219" t="b">
         <v>0</v>
@@ -7369,16 +7369,16 @@
         <v>208</v>
       </c>
       <c r="D220">
-        <v>-1.73</v>
+        <v>-1.22</v>
       </c>
       <c r="E220">
-        <v>1.13</v>
+        <v>1.54</v>
       </c>
       <c r="F220">
-        <v>-0.3</v>
+        <v>0.16</v>
       </c>
       <c r="G220">
-        <v>-0.406065153620506</v>
+        <v>0.2549868882442797</v>
       </c>
       <c r="H220" t="b">
         <v>0</v>
@@ -7395,16 +7395,16 @@
         <v>209</v>
       </c>
       <c r="D221">
-        <v>-1.76</v>
+        <v>-1.04</v>
       </c>
       <c r="E221">
-        <v>1.73</v>
+        <v>2.4</v>
       </c>
       <c r="F221">
-        <v>-0.01500000000000001</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="G221">
-        <v>0.007785178682005759</v>
+        <v>0.789699805848227</v>
       </c>
       <c r="H221" t="b">
         <v>0</v>
@@ -7421,16 +7421,16 @@
         <v>210</v>
       </c>
       <c r="D222">
-        <v>-0.44</v>
+        <v>-0.27</v>
       </c>
       <c r="E222">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="F222">
-        <v>0.06499999999999997</v>
+        <v>0.23</v>
       </c>
       <c r="G222">
-        <v>0.2435775952117627</v>
+        <v>0.9102829219032426</v>
       </c>
       <c r="H222" t="b">
         <v>0</v>
@@ -7447,16 +7447,16 @@
         <v>211</v>
       </c>
       <c r="D223">
-        <v>-0.85</v>
+        <v>-0.93</v>
       </c>
       <c r="E223">
-        <v>0.63</v>
+        <v>0.55</v>
       </c>
       <c r="F223">
-        <v>-0.11</v>
+        <v>-0.19</v>
       </c>
       <c r="G223">
-        <v>-0.2674898812661347</v>
+        <v>-0.5312927033629996</v>
       </c>
       <c r="H223" t="b">
         <v>0</v>
@@ -7473,16 +7473,16 @@
         <v>212</v>
       </c>
       <c r="D224">
-        <v>-0.9</v>
+        <v>-1.06</v>
       </c>
       <c r="E224">
-        <v>1.2</v>
+        <v>1.03</v>
       </c>
       <c r="F224">
-        <v>0.15</v>
+        <v>-0.01500000000000001</v>
       </c>
       <c r="G224">
-        <v>0.2815157158551104</v>
+        <v>-0.009219537497102749</v>
       </c>
       <c r="H224" t="b">
         <v>0</v>
@@ -7499,16 +7499,16 @@
         <v>213</v>
       </c>
       <c r="D225">
-        <v>-0.37</v>
+        <v>-0.51</v>
       </c>
       <c r="E225">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="F225">
-        <v>0.79</v>
+        <v>0.655</v>
       </c>
       <c r="G225">
-        <v>1.343972543427193</v>
+        <v>1.097310230977193</v>
       </c>
       <c r="H225" t="b">
         <v>0</v>
@@ -7525,16 +7525,16 @@
         <v>214</v>
       </c>
       <c r="D226">
-        <v>-0.86</v>
+        <v>-0.85</v>
       </c>
       <c r="E226">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F226">
-        <v>0.03999999999999998</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G226">
-        <v>0.09736206853350234</v>
+        <v>0.09758174964656666</v>
       </c>
       <c r="H226" t="b">
         <v>0</v>
@@ -7551,16 +7551,16 @@
         <v>215</v>
       </c>
       <c r="D227">
-        <v>-0.71</v>
+        <v>-0.97</v>
       </c>
       <c r="E227">
-        <v>0.87</v>
+        <v>0.59</v>
       </c>
       <c r="F227">
-        <v>0.08000000000000002</v>
+        <v>-0.19</v>
       </c>
       <c r="G227">
-        <v>0.1925066494925918</v>
+        <v>-0.4726906951601776</v>
       </c>
       <c r="H227" t="b">
         <v>0</v>
@@ -7577,16 +7577,16 @@
         <v>216</v>
       </c>
       <c r="D228">
-        <v>-0.5600000000000001</v>
+        <v>-0.32</v>
       </c>
       <c r="E228">
-        <v>0.45</v>
+        <v>0.68</v>
       </c>
       <c r="F228">
-        <v>-0.05500000000000002</v>
+        <v>0.18</v>
       </c>
       <c r="G228">
-        <v>-0.2072875694010134</v>
+        <v>0.7033295293784763</v>
       </c>
       <c r="H228" t="b">
         <v>0</v>
@@ -7603,16 +7603,16 @@
         <v>217</v>
       </c>
       <c r="D229">
-        <v>-1.14</v>
+        <v>-1.38</v>
       </c>
       <c r="E229">
-        <v>1.18</v>
+        <v>0.91</v>
       </c>
       <c r="F229">
-        <v>0.02000000000000002</v>
+        <v>-0.2349999999999999</v>
       </c>
       <c r="G229">
-        <v>0.03336498725246641</v>
+        <v>-0.4386073801428944</v>
       </c>
       <c r="H229" t="b">
         <v>0</v>
@@ -7629,16 +7629,16 @@
         <v>218</v>
       </c>
       <c r="D230">
-        <v>-2.11</v>
+        <v>-1.76</v>
       </c>
       <c r="E230">
-        <v>0.9</v>
+        <v>1.16</v>
       </c>
       <c r="F230">
-        <v>-0.605</v>
+        <v>-0.3</v>
       </c>
       <c r="G230">
-        <v>-0.792577489769023</v>
+        <v>-0.3959817617490169</v>
       </c>
       <c r="H230" t="b">
         <v>0</v>
@@ -7658,13 +7658,13 @@
         <v>0.11</v>
       </c>
       <c r="E231">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="F231">
-        <v>1.165</v>
+        <v>1.175</v>
       </c>
       <c r="G231">
-        <v>2.202735063282831</v>
+        <v>2.172303363540757</v>
       </c>
       <c r="H231" t="b">
         <v>1</v>
@@ -7681,16 +7681,16 @@
         <v>220</v>
       </c>
       <c r="D232">
-        <v>-0.66</v>
+        <v>-0.71</v>
       </c>
       <c r="E232">
-        <v>0.87</v>
+        <v>0.79</v>
       </c>
       <c r="F232">
-        <v>0.105</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G232">
-        <v>0.2698123627185766</v>
+        <v>0.1455778333364593</v>
       </c>
       <c r="H232" t="b">
         <v>0</v>
@@ -7707,16 +7707,16 @@
         <v>221</v>
       </c>
       <c r="D233">
-        <v>-0.7</v>
+        <v>-0.87</v>
       </c>
       <c r="E233">
-        <v>1.69</v>
+        <v>1.51</v>
       </c>
       <c r="F233">
-        <v>0.495</v>
+        <v>0.32</v>
       </c>
       <c r="G233">
-        <v>0.8226881655792804</v>
+        <v>0.5396584467170876</v>
       </c>
       <c r="H233" t="b">
         <v>0</v>
@@ -7733,16 +7733,16 @@
         <v>222</v>
       </c>
       <c r="D234">
-        <v>-1.6</v>
+        <v>-1.7</v>
       </c>
       <c r="E234">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="F234">
-        <v>0.105</v>
+        <v>0.01500000000000001</v>
       </c>
       <c r="G234">
-        <v>0.1253369852757702</v>
+        <v>-0.008361822501148673</v>
       </c>
       <c r="H234" t="b">
         <v>0</v>
@@ -7759,16 +7759,16 @@
         <v>223</v>
       </c>
       <c r="D235">
-        <v>-2.08</v>
+        <v>-1.55</v>
       </c>
       <c r="E235">
-        <v>1.53</v>
+        <v>2.04</v>
       </c>
       <c r="F235">
-        <v>-0.275</v>
+        <v>0.245</v>
       </c>
       <c r="G235">
-        <v>-0.3052598727441037</v>
+        <v>0.2458879123766526</v>
       </c>
       <c r="H235" t="b">
         <v>0</v>
@@ -7785,16 +7785,16 @@
         <v>224</v>
       </c>
       <c r="D236">
-        <v>-1.41</v>
+        <v>-1.5</v>
       </c>
       <c r="E236">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="F236">
-        <v>0.165</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G236">
-        <v>0.2152347461695815</v>
+        <v>0.0778500225071253</v>
       </c>
       <c r="H236" t="b">
         <v>0</v>
@@ -7811,16 +7811,16 @@
         <v>225</v>
       </c>
       <c r="D237">
-        <v>-0.87</v>
+        <v>-1.53</v>
       </c>
       <c r="E237">
-        <v>2.42</v>
+        <v>1.73</v>
       </c>
       <c r="F237">
-        <v>0.7749999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G237">
-        <v>0.9275079567715181</v>
+        <v>0.1191132084051635</v>
       </c>
       <c r="H237" t="b">
         <v>0</v>
@@ -7837,16 +7837,16 @@
         <v>226</v>
       </c>
       <c r="D238">
-        <v>-0.71</v>
+        <v>-0.98</v>
       </c>
       <c r="E238">
-        <v>2</v>
+        <v>1.74</v>
       </c>
       <c r="F238">
-        <v>0.645</v>
+        <v>0.38</v>
       </c>
       <c r="G238">
-        <v>0.9393420562675234</v>
+        <v>0.5472270650187869</v>
       </c>
       <c r="H238" t="b">
         <v>0</v>
@@ -7863,16 +7863,16 @@
         <v>227</v>
       </c>
       <c r="D239">
-        <v>-1.93</v>
+        <v>-1.35</v>
       </c>
       <c r="E239">
-        <v>0.6899999999999999</v>
+        <v>1.35</v>
       </c>
       <c r="F239">
-        <v>-0.62</v>
+        <v>0</v>
       </c>
       <c r="G239">
-        <v>-0.934585159015887</v>
+        <v>-0.006553754070662948</v>
       </c>
       <c r="H239" t="b">
         <v>0</v>
@@ -7889,16 +7889,16 @@
         <v>228</v>
       </c>
       <c r="D240">
-        <v>-1.51</v>
+        <v>-1.52</v>
       </c>
       <c r="E240">
         <v>1.33</v>
       </c>
       <c r="F240">
-        <v>-0.08999999999999997</v>
+        <v>-0.09499999999999997</v>
       </c>
       <c r="G240">
-        <v>-0.1181875243450441</v>
+        <v>-0.1387459686483564</v>
       </c>
       <c r="H240" t="b">
         <v>0</v>
@@ -7915,16 +7915,16 @@
         <v>229</v>
       </c>
       <c r="D241">
-        <v>-2.13</v>
+        <v>-2.18</v>
       </c>
       <c r="E241">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="F241">
-        <v>-0.3799999999999999</v>
+        <v>-0.43</v>
       </c>
       <c r="G241">
-        <v>-0.4332490095006645</v>
+        <v>-0.535017202450936</v>
       </c>
       <c r="H241" t="b">
         <v>0</v>
@@ -7941,16 +7941,16 @@
         <v>230</v>
       </c>
       <c r="D242">
-        <v>-0.18</v>
+        <v>-0.33</v>
       </c>
       <c r="E242">
-        <v>0.84</v>
+        <v>0.7</v>
       </c>
       <c r="F242">
-        <v>0.33</v>
+        <v>0.185</v>
       </c>
       <c r="G242">
-        <v>1.266971412212363</v>
+        <v>0.7291254151574148</v>
       </c>
       <c r="H242" t="b">
         <v>0</v>
@@ -7967,16 +7967,16 @@
         <v>231</v>
       </c>
       <c r="D243">
-        <v>-0.95</v>
+        <v>-0.86</v>
       </c>
       <c r="E243">
-        <v>0.55</v>
+        <v>0.61</v>
       </c>
       <c r="F243">
-        <v>-0.2</v>
+        <v>-0.125</v>
       </c>
       <c r="G243">
-        <v>-0.5204950569822487</v>
+        <v>-0.3453848609916029</v>
       </c>
       <c r="H243" t="b">
         <v>0</v>
@@ -7993,16 +7993,16 @@
         <v>232</v>
       </c>
       <c r="D244">
-        <v>-0.64</v>
+        <v>-1.47</v>
       </c>
       <c r="E244">
-        <v>1.46</v>
+        <v>0.63</v>
       </c>
       <c r="F244">
-        <v>0.41</v>
+        <v>-0.42</v>
       </c>
       <c r="G244">
-        <v>0.7736825246434015</v>
+        <v>-0.7833804217700548</v>
       </c>
       <c r="H244" t="b">
         <v>0</v>
@@ -8019,16 +8019,16 @@
         <v>233</v>
       </c>
       <c r="D245">
-        <v>-1.33</v>
+        <v>-1.58</v>
       </c>
       <c r="E245">
-        <v>1.02</v>
+        <v>0.76</v>
       </c>
       <c r="F245">
-        <v>-0.155</v>
+        <v>-0.41</v>
       </c>
       <c r="G245">
-        <v>-0.2581607281295241</v>
+        <v>-0.7151773753981087</v>
       </c>
       <c r="H245" t="b">
         <v>0</v>
@@ -8045,16 +8045,16 @@
         <v>234</v>
       </c>
       <c r="D246">
-        <v>-2.08</v>
+        <v>-3.27</v>
       </c>
       <c r="E246">
-        <v>-0.3</v>
+        <v>-1.5</v>
       </c>
       <c r="F246">
-        <v>-1.19</v>
+        <v>-2.385</v>
       </c>
       <c r="G246">
-        <v>-2.648680639695992</v>
+        <v>-5.330312257621001</v>
       </c>
       <c r="H246" t="b">
         <v>1</v>
@@ -8071,16 +8071,16 @@
         <v>235</v>
       </c>
       <c r="D247">
-        <v>-1.59</v>
+        <v>0.12</v>
       </c>
       <c r="E247">
-        <v>-0.02</v>
+        <v>1.71</v>
       </c>
       <c r="F247">
-        <v>-0.805</v>
+        <v>0.915</v>
       </c>
       <c r="G247">
-        <v>-2.011412218991742</v>
+        <v>2.269129762284627</v>
       </c>
       <c r="H247" t="b">
         <v>1</v>
@@ -8097,16 +8097,16 @@
         <v>236</v>
       </c>
       <c r="D248">
-        <v>-0.23</v>
+        <v>-0.76</v>
       </c>
       <c r="E248">
-        <v>0.79</v>
+        <v>0.25</v>
       </c>
       <c r="F248">
-        <v>0.28</v>
+        <v>-0.255</v>
       </c>
       <c r="G248">
-        <v>1.089131726522778</v>
+        <v>-0.9724815868204607</v>
       </c>
       <c r="H248" t="b">
         <v>0</v>
@@ -8123,16 +8123,16 @@
         <v>237</v>
       </c>
       <c r="D249">
-        <v>-0.9399999999999999</v>
+        <v>-1.96</v>
       </c>
       <c r="E249">
-        <v>1.41</v>
+        <v>0.33</v>
       </c>
       <c r="F249">
-        <v>0.235</v>
+        <v>-0.8149999999999999</v>
       </c>
       <c r="G249">
-        <v>0.3954338751798736</v>
+        <v>-1.419259880802647</v>
       </c>
       <c r="H249" t="b">
         <v>0</v>
@@ -8149,16 +8149,16 @@
         <v>238</v>
       </c>
       <c r="D250">
-        <v>-1.2</v>
+        <v>-0.63</v>
       </c>
       <c r="E250">
-        <v>1.77</v>
+        <v>2.3</v>
       </c>
       <c r="F250">
-        <v>0.285</v>
+        <v>0.835</v>
       </c>
       <c r="G250">
-        <v>0.3961866837950533</v>
+        <v>1.103567839507388</v>
       </c>
       <c r="H250" t="b">
         <v>0</v>
@@ -8175,16 +8175,16 @@
         <v>239</v>
       </c>
       <c r="D251">
-        <v>-0.8100000000000001</v>
+        <v>-1.88</v>
       </c>
       <c r="E251">
-        <v>1.33</v>
+        <v>0.22</v>
       </c>
       <c r="F251">
-        <v>0.26</v>
+        <v>-0.83</v>
       </c>
       <c r="G251">
-        <v>0.479651250623857</v>
+        <v>-1.614745661266662</v>
       </c>
       <c r="H251" t="b">
         <v>0</v>
@@ -8201,16 +8201,16 @@
         <v>240</v>
       </c>
       <c r="D252">
-        <v>-2.49</v>
+        <v>-8.390000000000001</v>
       </c>
       <c r="E252">
-        <v>-0.97</v>
+        <v>-6.9</v>
       </c>
       <c r="F252">
-        <v>-1.73</v>
+        <v>-7.645</v>
       </c>
       <c r="G252">
-        <v>-4.480155920195205</v>
+        <v>-20.20294237818716</v>
       </c>
       <c r="H252" t="b">
         <v>1</v>
@@ -8227,16 +8227,16 @@
         <v>241</v>
       </c>
       <c r="D253">
-        <v>-1.52</v>
+        <v>-0.35</v>
       </c>
       <c r="E253">
-        <v>0.89</v>
+        <v>2.01</v>
       </c>
       <c r="F253">
-        <v>-0.315</v>
+        <v>0.8299999999999998</v>
       </c>
       <c r="G253">
-        <v>-0.5173871237416031</v>
+        <v>1.364721382694644</v>
       </c>
       <c r="H253" t="b">
         <v>0</v>
@@ -8253,16 +8253,16 @@
         <v>242</v>
       </c>
       <c r="D254">
-        <v>-2.29</v>
+        <v>-2.19</v>
       </c>
       <c r="E254">
-        <v>1.16</v>
+        <v>1.24</v>
       </c>
       <c r="F254">
-        <v>-0.5650000000000001</v>
+        <v>-0.475</v>
       </c>
       <c r="G254">
-        <v>-0.6525786064592335</v>
+        <v>-0.5210785242200643</v>
       </c>
       <c r="H254" t="b">
         <v>0</v>
@@ -8279,16 +8279,16 @@
         <v>243</v>
       </c>
       <c r="D255">
-        <v>-1.12</v>
+        <v>-1.84</v>
       </c>
       <c r="E255">
-        <v>2.43</v>
+        <v>1.76</v>
       </c>
       <c r="F255">
-        <v>0.655</v>
+        <v>-0.04000000000000004</v>
       </c>
       <c r="G255">
-        <v>0.7143012944545548</v>
+        <v>-0.0510074713044794</v>
       </c>
       <c r="H255" t="b">
         <v>0</v>
@@ -8305,16 +8305,16 @@
         <v>244</v>
       </c>
       <c r="D256">
-        <v>-1.26</v>
+        <v>-2.9</v>
       </c>
       <c r="E256">
-        <v>1.86</v>
+        <v>0.2</v>
       </c>
       <c r="F256">
-        <v>0.3</v>
+        <v>-1.35</v>
       </c>
       <c r="G256">
-        <v>0.393972612184618</v>
+        <v>-1.707811804227467</v>
       </c>
       <c r="H256" t="b">
         <v>0</v>
@@ -8331,16 +8331,16 @@
         <v>245</v>
       </c>
       <c r="D257">
-        <v>-2.3</v>
+        <v>-2.65</v>
       </c>
       <c r="E257">
-        <v>1.05</v>
+        <v>0.68</v>
       </c>
       <c r="F257">
-        <v>-0.6249999999999999</v>
+        <v>-0.9849999999999999</v>
       </c>
       <c r="G257">
-        <v>-0.7587829851323109</v>
+        <v>-1.16191745113467</v>
       </c>
       <c r="H257" t="b">
         <v>0</v>
@@ -8357,16 +8357,16 @@
         <v>246</v>
       </c>
       <c r="D258">
-        <v>-1.16</v>
+        <v>-0.9</v>
       </c>
       <c r="E258">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="F258">
-        <v>0.2000000000000001</v>
+        <v>0.455</v>
       </c>
       <c r="G258">
-        <v>0.2956144730541798</v>
+        <v>0.6374926261931468</v>
       </c>
       <c r="H258" t="b">
         <v>0</v>
@@ -8383,16 +8383,16 @@
         <v>247</v>
       </c>
       <c r="D259">
-        <v>-0.3</v>
+        <v>-1.79</v>
       </c>
       <c r="E259">
-        <v>2.33</v>
+        <v>0.87</v>
       </c>
       <c r="F259">
-        <v>1.015</v>
+        <v>-0.46</v>
       </c>
       <c r="G259">
-        <v>1.536779081258684</v>
+        <v>-0.6577120907954808</v>
       </c>
       <c r="H259" t="b">
         <v>0</v>
@@ -8409,16 +8409,16 @@
         <v>248</v>
       </c>
       <c r="D260">
-        <v>-1.19</v>
+        <v>-2.4</v>
       </c>
       <c r="E260">
-        <v>1.65</v>
+        <v>0.4</v>
       </c>
       <c r="F260">
-        <v>0.23</v>
+        <v>-1</v>
       </c>
       <c r="G260">
-        <v>0.3213732569794509</v>
+        <v>-1.42778868051883</v>
       </c>
       <c r="H260" t="b">
         <v>0</v>
@@ -8435,16 +8435,16 @@
         <v>249</v>
       </c>
       <c r="D261">
-        <v>-1.64</v>
+        <v>-2.38</v>
       </c>
       <c r="E261">
-        <v>1.93</v>
+        <v>1.16</v>
       </c>
       <c r="F261">
-        <v>0.145</v>
+        <v>-0.61</v>
       </c>
       <c r="G261">
-        <v>0.1459529417289749</v>
+        <v>-0.6909013606495624</v>
       </c>
       <c r="H261" t="b">
         <v>0</v>
@@ -8461,16 +8461,16 @@
         <v>250</v>
       </c>
       <c r="D262">
-        <v>-0.41</v>
+        <v>-0.61</v>
       </c>
       <c r="E262">
-        <v>0.61</v>
+        <v>0.39</v>
       </c>
       <c r="F262">
-        <v>0.1</v>
+        <v>-0.11</v>
       </c>
       <c r="G262">
-        <v>0.3515119260697406</v>
+        <v>-0.4140656091811205</v>
       </c>
       <c r="H262" t="b">
         <v>0</v>
@@ -8487,16 +8487,16 @@
         <v>251</v>
       </c>
       <c r="D263">
-        <v>-0.99</v>
+        <v>-0.84</v>
       </c>
       <c r="E263">
-        <v>0.51</v>
+        <v>0.62</v>
       </c>
       <c r="F263">
-        <v>-0.24</v>
+        <v>-0.11</v>
       </c>
       <c r="G263">
-        <v>-0.6479422649135058</v>
+        <v>-0.2628910734041891</v>
       </c>
       <c r="H263" t="b">
         <v>0</v>
@@ -8513,16 +8513,16 @@
         <v>252</v>
       </c>
       <c r="D264">
-        <v>-1.12</v>
+        <v>-1.18</v>
       </c>
       <c r="E264">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="F264">
-        <v>-0.07000000000000006</v>
+        <v>-0.135</v>
       </c>
       <c r="G264">
-        <v>-0.1572365160826013</v>
+        <v>-0.238975758250527</v>
       </c>
       <c r="H264" t="b">
         <v>0</v>
@@ -8539,16 +8539,16 @@
         <v>253</v>
       </c>
       <c r="D265">
-        <v>-1.31</v>
+        <v>-1.08</v>
       </c>
       <c r="E265">
-        <v>1.02</v>
+        <v>1.25</v>
       </c>
       <c r="F265">
-        <v>-0.145</v>
+        <v>0.08499999999999996</v>
       </c>
       <c r="G265">
-        <v>-0.2482795736652538</v>
+        <v>0.1498455269506685</v>
       </c>
       <c r="H265" t="b">
         <v>0</v>
@@ -8565,16 +8565,16 @@
         <v>254</v>
       </c>
       <c r="D266">
-        <v>-0.59</v>
+        <v>-0.67</v>
       </c>
       <c r="E266">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="F266">
-        <v>0.295</v>
+        <v>0.22</v>
       </c>
       <c r="G266">
-        <v>0.6736110380063498</v>
+        <v>0.5225272225852602</v>
       </c>
       <c r="H266" t="b">
         <v>0</v>
@@ -8591,16 +8591,16 @@
         <v>255</v>
       </c>
       <c r="D267">
-        <v>-0.73</v>
+        <v>-0.96</v>
       </c>
       <c r="E267">
-        <v>0.87</v>
+        <v>0.6</v>
       </c>
       <c r="F267">
-        <v>0.07000000000000001</v>
+        <v>-0.18</v>
       </c>
       <c r="G267">
-        <v>0.1909137443475278</v>
+        <v>-0.4529741185356654</v>
       </c>
       <c r="H267" t="b">
         <v>0</v>
@@ -8617,16 +8617,16 @@
         <v>256</v>
       </c>
       <c r="D268">
-        <v>-0.58</v>
+        <v>-0.57</v>
       </c>
       <c r="E268">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="F268">
-        <v>-0.06999999999999998</v>
+        <v>-0.07499999999999998</v>
       </c>
       <c r="G268">
-        <v>-0.2654343713527945</v>
+        <v>-0.3210545216111156</v>
       </c>
       <c r="H268" t="b">
         <v>0</v>
@@ -8643,16 +8643,16 @@
         <v>257</v>
       </c>
       <c r="D269">
-        <v>-1.43</v>
+        <v>-1.26</v>
       </c>
       <c r="E269">
-        <v>0.92</v>
+        <v>1.05</v>
       </c>
       <c r="F269">
-        <v>-0.2549999999999999</v>
+        <v>-0.105</v>
       </c>
       <c r="G269">
-        <v>-0.470739318257792</v>
+        <v>-0.1829639789775099</v>
       </c>
       <c r="H269" t="b">
         <v>0</v>
@@ -8669,16 +8669,16 @@
         <v>258</v>
       </c>
       <c r="D270">
-        <v>-1.41</v>
+        <v>-1.44</v>
       </c>
       <c r="E270">
-        <v>1.6</v>
+        <v>1.46</v>
       </c>
       <c r="F270">
-        <v>0.09500000000000008</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G270">
-        <v>0.1320788819977735</v>
+        <v>0.006951037242387283</v>
       </c>
       <c r="H270" t="b">
         <v>0</v>
@@ -8695,16 +8695,16 @@
         <v>259</v>
       </c>
       <c r="D271">
-        <v>-0.87</v>
+        <v>-1.14</v>
       </c>
       <c r="E271">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="F271">
-        <v>0.19</v>
+        <v>-0.06999999999999995</v>
       </c>
       <c r="G271">
-        <v>0.3530641192904186</v>
+        <v>-0.1303466735601604</v>
       </c>
       <c r="H271" t="b">
         <v>0</v>
@@ -8721,16 +8721,16 @@
         <v>260</v>
       </c>
       <c r="D272">
-        <v>-0.75</v>
+        <v>-0.18</v>
       </c>
       <c r="E272">
-        <v>0.76</v>
+        <v>1.31</v>
       </c>
       <c r="F272">
-        <v>0.005000000000000004</v>
+        <v>0.5650000000000001</v>
       </c>
       <c r="G272">
-        <v>0.0181019578517622</v>
+        <v>1.492161167895504</v>
       </c>
       <c r="H272" t="b">
         <v>0</v>
@@ -8747,16 +8747,16 @@
         <v>261</v>
       </c>
       <c r="D273">
-        <v>-1.22</v>
+        <v>-1.7</v>
       </c>
       <c r="E273">
-        <v>1.19</v>
+        <v>0.71</v>
       </c>
       <c r="F273">
-        <v>-0.01500000000000001</v>
+        <v>-0.495</v>
       </c>
       <c r="G273">
-        <v>2.060287164830663E-05</v>
+        <v>-0.8049008295315742</v>
       </c>
       <c r="H273" t="b">
         <v>0</v>
@@ -8773,16 +8773,16 @@
         <v>262</v>
       </c>
       <c r="D274">
-        <v>-1.71</v>
+        <v>-1.72</v>
       </c>
       <c r="E274">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="F274">
-        <v>0.02500000000000002</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="G274">
-        <v>0.01738738107671738</v>
+        <v>0.01948127130425794</v>
       </c>
       <c r="H274" t="b">
         <v>0</v>
@@ -8799,16 +8799,16 @@
         <v>263</v>
       </c>
       <c r="D275">
-        <v>-1.52</v>
+        <v>-1.53</v>
       </c>
       <c r="E275">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="F275">
-        <v>0.2549999999999999</v>
+        <v>0.23</v>
       </c>
       <c r="G275">
-        <v>0.2877546456055333</v>
+        <v>0.2432689423541344</v>
       </c>
       <c r="H275" t="b">
         <v>0</v>
@@ -8825,16 +8825,16 @@
         <v>264</v>
       </c>
       <c r="D276">
-        <v>-1.52</v>
+        <v>-1.58</v>
       </c>
       <c r="E276">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="F276">
-        <v>0.06499999999999995</v>
+        <v>-0.06500000000000006</v>
       </c>
       <c r="G276">
-        <v>0.09367675590940573</v>
+        <v>-0.1010746409990753</v>
       </c>
       <c r="H276" t="b">
         <v>0</v>
@@ -8851,16 +8851,16 @@
         <v>265</v>
       </c>
       <c r="D277">
-        <v>-1.72</v>
+        <v>-1.73</v>
       </c>
       <c r="E277">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="F277">
-        <v>-0.04999999999999993</v>
+        <v>-0.09499999999999997</v>
       </c>
       <c r="G277">
-        <v>-0.05937152950441029</v>
+        <v>-0.1163711197770391</v>
       </c>
       <c r="H277" t="b">
         <v>0</v>
@@ -8877,16 +8877,16 @@
         <v>266</v>
       </c>
       <c r="D278">
-        <v>-1.48</v>
+        <v>-1.44</v>
       </c>
       <c r="E278">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="F278">
-        <v>-0.125</v>
+        <v>-0.09499999999999997</v>
       </c>
       <c r="G278">
-        <v>-0.1643248699092673</v>
+        <v>-0.1387570483069603</v>
       </c>
       <c r="H278" t="b">
         <v>0</v>
@@ -8903,16 +8903,16 @@
         <v>267</v>
       </c>
       <c r="D279">
-        <v>-1.17</v>
+        <v>-1.33</v>
       </c>
       <c r="E279">
-        <v>1.45</v>
+        <v>1.29</v>
       </c>
       <c r="F279">
-        <v>0.14</v>
+        <v>-0.02000000000000002</v>
       </c>
       <c r="G279">
-        <v>0.218582649580129</v>
+        <v>-0.02926658679680898</v>
       </c>
       <c r="H279" t="b">
         <v>0</v>
@@ -8929,16 +8929,16 @@
         <v>268</v>
       </c>
       <c r="D280">
-        <v>-1.52</v>
+        <v>-1.37</v>
       </c>
       <c r="E280">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="F280">
-        <v>-0.11</v>
+        <v>0.0149999999999999</v>
       </c>
       <c r="G280">
-        <v>-0.1405800528395073</v>
+        <v>0.03828144266878189</v>
       </c>
       <c r="H280" t="b">
         <v>0</v>
@@ -8955,16 +8955,16 @@
         <v>269</v>
       </c>
       <c r="D281">
-        <v>-1.42</v>
+        <v>-1.51</v>
       </c>
       <c r="E281">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="F281">
-        <v>0.3200000000000001</v>
+        <v>0.235</v>
       </c>
       <c r="G281">
-        <v>0.3615475881525768</v>
+        <v>0.2526615733312423</v>
       </c>
       <c r="H281" t="b">
         <v>0</v>
@@ -8981,16 +8981,16 @@
         <v>270</v>
       </c>
       <c r="D282">
-        <v>-0.59</v>
+        <v>-0.53</v>
       </c>
       <c r="E282">
-        <v>0.43</v>
+        <v>0.48</v>
       </c>
       <c r="F282">
-        <v>-0.07999999999999999</v>
+        <v>-0.02500000000000002</v>
       </c>
       <c r="G282">
-        <v>-0.2838810731387031</v>
+        <v>-0.1307199178870532</v>
       </c>
       <c r="H282" t="b">
         <v>0</v>
@@ -9007,16 +9007,16 @@
         <v>271</v>
       </c>
       <c r="D283">
-        <v>-0.64</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="E283">
-        <v>0.84</v>
+        <v>0.78</v>
       </c>
       <c r="F283">
-        <v>0.09999999999999998</v>
+        <v>0.04500000000000004</v>
       </c>
       <c r="G283">
-        <v>0.2781491952896727</v>
+        <v>0.1166094160137073</v>
       </c>
       <c r="H283" t="b">
         <v>0</v>
@@ -9033,16 +9033,16 @@
         <v>272</v>
       </c>
       <c r="D284">
-        <v>-1.14</v>
+        <v>-1.09</v>
       </c>
       <c r="E284">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F284">
-        <v>-0.07999999999999996</v>
+        <v>-0.06500000000000006</v>
       </c>
       <c r="G284">
-        <v>-0.1544956188253317</v>
+        <v>-0.09874021107451382</v>
       </c>
       <c r="H284" t="b">
         <v>0</v>
@@ -9059,16 +9059,16 @@
         <v>273</v>
       </c>
       <c r="D285">
-        <v>-1.11</v>
+        <v>-1.13</v>
       </c>
       <c r="E285">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="F285">
-        <v>0.05999999999999994</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G285">
-        <v>0.09254933532581287</v>
+        <v>0.03237837752721794</v>
       </c>
       <c r="H285" t="b">
         <v>0</v>
@@ -9085,16 +9085,16 @@
         <v>274</v>
       </c>
       <c r="D286">
-        <v>-0.9399999999999999</v>
+        <v>-0.97</v>
       </c>
       <c r="E286">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F286">
-        <v>-0.03999999999999998</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="G286">
-        <v>-0.08924301068202893</v>
+        <v>-0.1869104007905311</v>
       </c>
       <c r="H286" t="b">
         <v>0</v>
@@ -9111,16 +9111,16 @@
         <v>275</v>
       </c>
       <c r="D287">
-        <v>-0.84</v>
+        <v>-0.87</v>
       </c>
       <c r="E287">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F287">
-        <v>-0.04499999999999998</v>
+        <v>-0.08000000000000002</v>
       </c>
       <c r="G287">
-        <v>-0.1134678206383709</v>
+        <v>-0.2179077976345385</v>
       </c>
       <c r="H287" t="b">
         <v>0</v>
@@ -9140,13 +9140,13 @@
         <v>-0.59</v>
       </c>
       <c r="E288">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="F288">
-        <v>-0.08499999999999999</v>
+        <v>-0.09999999999999998</v>
       </c>
       <c r="G288">
-        <v>-0.3451935131381113</v>
+        <v>-0.3853980987474361</v>
       </c>
       <c r="H288" t="b">
         <v>0</v>
@@ -9163,16 +9163,16 @@
         <v>277</v>
       </c>
       <c r="D289">
-        <v>-1.28</v>
+        <v>-1.22</v>
       </c>
       <c r="E289">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="F289">
-        <v>-0.11</v>
+        <v>-0.06999999999999995</v>
       </c>
       <c r="G289">
-        <v>-0.2000237066054253</v>
+        <v>-0.09508910151484462</v>
       </c>
       <c r="H289" t="b">
         <v>0</v>
@@ -9189,16 +9189,16 @@
         <v>278</v>
       </c>
       <c r="D290">
-        <v>-1.52</v>
+        <v>-1.44</v>
       </c>
       <c r="E290">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="F290">
-        <v>-0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G290">
-        <v>-0.02572120756200944</v>
+        <v>0.0725046232567222</v>
       </c>
       <c r="H290" t="b">
         <v>0</v>
@@ -9215,16 +9215,16 @@
         <v>279</v>
       </c>
       <c r="D291">
-        <v>-1.19</v>
+        <v>-1.26</v>
       </c>
       <c r="E291">
-        <v>0.92</v>
+        <v>0.82</v>
       </c>
       <c r="F291">
-        <v>-0.135</v>
+        <v>-0.22</v>
       </c>
       <c r="G291">
-        <v>-0.2501710205415801</v>
+        <v>-0.4366779009474164</v>
       </c>
       <c r="H291" t="b">
         <v>0</v>
@@ -9241,16 +9241,16 @@
         <v>280</v>
       </c>
       <c r="D292">
-        <v>-0.9</v>
+        <v>-0.55</v>
       </c>
       <c r="E292">
-        <v>0.61</v>
+        <v>0.95</v>
       </c>
       <c r="F292">
-        <v>-0.145</v>
+        <v>0.2</v>
       </c>
       <c r="G292">
-        <v>-0.3786746465415631</v>
+        <v>0.4860944391952932</v>
       </c>
       <c r="H292" t="b">
         <v>0</v>
@@ -9267,16 +9267,16 @@
         <v>281</v>
       </c>
       <c r="D293">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="E293">
-        <v>1.18</v>
+        <v>0.89</v>
       </c>
       <c r="F293">
-        <v>-0.03500000000000003</v>
+        <v>-0.305</v>
       </c>
       <c r="G293">
-        <v>-0.06401682568826667</v>
+        <v>-0.4985662586083969</v>
       </c>
       <c r="H293" t="b">
         <v>0</v>
@@ -9293,16 +9293,16 @@
         <v>282</v>
       </c>
       <c r="D294">
-        <v>-1.61</v>
+        <v>-1.45</v>
       </c>
       <c r="E294">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="F294">
-        <v>0.105</v>
+        <v>0.225</v>
       </c>
       <c r="G294">
-        <v>0.1310388670754296</v>
+        <v>0.2940158342358705</v>
       </c>
       <c r="H294" t="b">
         <v>0</v>
@@ -9319,16 +9319,16 @@
         <v>283</v>
       </c>
       <c r="D295">
-        <v>-1.71</v>
+        <v>-1.63</v>
       </c>
       <c r="E295">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="F295">
-        <v>0.08499999999999996</v>
+        <v>0.16</v>
       </c>
       <c r="G295">
-        <v>0.07940852212365175</v>
+        <v>0.1832109426566678</v>
       </c>
       <c r="H295" t="b">
         <v>0</v>
@@ -9345,16 +9345,16 @@
         <v>284</v>
       </c>
       <c r="D296">
-        <v>-1.57</v>
+        <v>-1.59</v>
       </c>
       <c r="E296">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="F296">
-        <v>-0.01000000000000001</v>
+        <v>-0.05000000000000004</v>
       </c>
       <c r="G296">
-        <v>-0.008962633129166165</v>
+        <v>-0.07474653772152891</v>
       </c>
       <c r="H296" t="b">
         <v>0</v>
@@ -9371,16 +9371,16 @@
         <v>285</v>
       </c>
       <c r="D297">
-        <v>-1.71</v>
+        <v>-1.6</v>
       </c>
       <c r="E297">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="F297">
-        <v>-0.02500000000000002</v>
+        <v>0.07499999999999996</v>
       </c>
       <c r="G297">
-        <v>-0.04407497956046848</v>
+        <v>0.06912590541350033</v>
       </c>
       <c r="H297" t="b">
         <v>0</v>
@@ -9397,16 +9397,16 @@
         <v>286</v>
       </c>
       <c r="D298">
-        <v>-1.61</v>
+        <v>-1.53</v>
       </c>
       <c r="E298">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="F298">
-        <v>-0.265</v>
+        <v>-0.175</v>
       </c>
       <c r="G298">
-        <v>-0.3797421286579779</v>
+        <v>-0.2143314154277969</v>
       </c>
       <c r="H298" t="b">
         <v>0</v>
@@ -9423,16 +9423,16 @@
         <v>287</v>
       </c>
       <c r="D299">
-        <v>-1.43</v>
+        <v>-1.34</v>
       </c>
       <c r="E299">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="F299">
-        <v>-0.09999999999999998</v>
+        <v>-0.03500000000000003</v>
       </c>
       <c r="G299">
-        <v>-0.1664814408344483</v>
+        <v>-0.05629088453375202</v>
       </c>
       <c r="H299" t="b">
         <v>0</v>
@@ -9449,16 +9449,16 @@
         <v>288</v>
       </c>
       <c r="D300">
-        <v>-1.55</v>
+        <v>-1.44</v>
       </c>
       <c r="E300">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="F300">
-        <v>-0.115</v>
+        <v>-0.04499999999999993</v>
       </c>
       <c r="G300">
-        <v>-0.1537971774912618</v>
+        <v>-0.03885371402646672</v>
       </c>
       <c r="H300" t="b">
         <v>0</v>
@@ -9475,16 +9475,16 @@
         <v>289</v>
       </c>
       <c r="D301">
-        <v>-1.65</v>
+        <v>-1.51</v>
       </c>
       <c r="E301">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="F301">
-        <v>0.13</v>
+        <v>0.225</v>
       </c>
       <c r="G301">
-        <v>0.1374973842148338</v>
+        <v>0.2411351833747947</v>
       </c>
       <c r="H301" t="b">
         <v>0</v>
@@ -9501,16 +9501,16 @@
         <v>290</v>
       </c>
       <c r="D302">
-        <v>-0.53</v>
+        <v>-0.59</v>
       </c>
       <c r="E302">
-        <v>0.49</v>
+        <v>0.42</v>
       </c>
       <c r="F302">
-        <v>-0.02000000000000002</v>
+        <v>-0.08499999999999999</v>
       </c>
       <c r="G302">
-        <v>-0.07688894395126702</v>
+        <v>-0.3525264951278704</v>
       </c>
       <c r="H302" t="b">
         <v>0</v>
@@ -9527,16 +9527,16 @@
         <v>291</v>
       </c>
       <c r="D303">
-        <v>-0.67</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="E303">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="F303">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G303">
-        <v>0.2510894157562322</v>
+        <v>0.1124079807201466</v>
       </c>
       <c r="H303" t="b">
         <v>0</v>
@@ -9553,16 +9553,16 @@
         <v>292</v>
       </c>
       <c r="D304">
-        <v>-1.23</v>
+        <v>-1.07</v>
       </c>
       <c r="E304">
-        <v>0.86</v>
+        <v>1.02</v>
       </c>
       <c r="F304">
-        <v>-0.185</v>
+        <v>-0.02500000000000002</v>
       </c>
       <c r="G304">
-        <v>-0.3611457442204476</v>
+        <v>-0.03302689593738892</v>
       </c>
       <c r="H304" t="b">
         <v>0</v>
@@ -9579,16 +9579,16 @@
         <v>293</v>
       </c>
       <c r="D305">
-        <v>-1.15</v>
+        <v>-1.25</v>
       </c>
       <c r="E305">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="F305">
-        <v>0.03000000000000003</v>
+        <v>-0.06000000000000005</v>
       </c>
       <c r="G305">
-        <v>0.04883083416353179</v>
+        <v>-0.1237090777052264</v>
       </c>
       <c r="H305" t="b">
         <v>0</v>
@@ -9605,16 +9605,16 @@
         <v>294</v>
       </c>
       <c r="D306">
-        <v>-0.77</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="E306">
-        <v>1.02</v>
+        <v>0.98</v>
       </c>
       <c r="F306">
-        <v>0.125</v>
+        <v>0.08499999999999996</v>
       </c>
       <c r="G306">
-        <v>0.287564115220021</v>
+        <v>0.1975097984228223</v>
       </c>
       <c r="H306" t="b">
         <v>0</v>
@@ -9631,16 +9631,16 @@
         <v>295</v>
       </c>
       <c r="D307">
-        <v>-0.89</v>
+        <v>-0.93</v>
       </c>
       <c r="E307">
-        <v>0.71</v>
+        <v>0.62</v>
       </c>
       <c r="F307">
-        <v>-0.09000000000000002</v>
+        <v>-0.155</v>
       </c>
       <c r="G307">
-        <v>-0.2307025433185607</v>
+        <v>-0.3945553162846447</v>
       </c>
       <c r="H307" t="b">
         <v>0</v>
@@ -9657,16 +9657,16 @@
         <v>296</v>
       </c>
       <c r="D308">
-        <v>-0.54</v>
+        <v>-0.58</v>
       </c>
       <c r="E308">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="F308">
-        <v>-0.03000000000000003</v>
+        <v>-0.08999999999999997</v>
       </c>
       <c r="G308">
-        <v>-0.1127743807972856</v>
+        <v>-0.3443456149390552</v>
       </c>
       <c r="H308" t="b">
         <v>0</v>
@@ -9686,13 +9686,13 @@
         <v>-1.21</v>
       </c>
       <c r="E309">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="F309">
-        <v>-0.04000000000000004</v>
+        <v>-0.04999999999999993</v>
       </c>
       <c r="G309">
-        <v>-0.05396174579296203</v>
+        <v>-0.1054401816642067</v>
       </c>
       <c r="H309" t="b">
         <v>0</v>
@@ -9709,16 +9709,16 @@
         <v>298</v>
       </c>
       <c r="D310">
-        <v>-1.4</v>
+        <v>-1.5</v>
       </c>
       <c r="E310">
-        <v>1.63</v>
+        <v>1.45</v>
       </c>
       <c r="F310">
-        <v>0.115</v>
+        <v>-0.02500000000000002</v>
       </c>
       <c r="G310">
-        <v>0.1657717670698998</v>
+        <v>-0.01857750205944018</v>
       </c>
       <c r="H310" t="b">
         <v>0</v>
@@ -9735,16 +9735,16 @@
         <v>299</v>
       </c>
       <c r="D311">
-        <v>-1.27</v>
+        <v>-1.32</v>
       </c>
       <c r="E311">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="F311">
-        <v>-0.21</v>
+        <v>-0.265</v>
       </c>
       <c r="G311">
-        <v>-0.3960530309411698</v>
+        <v>-0.4815939118471258</v>
       </c>
       <c r="H311" t="b">
         <v>0</v>
@@ -9761,16 +9761,16 @@
         <v>300</v>
       </c>
       <c r="D312">
-        <v>-0.8100000000000001</v>
+        <v>-0.76</v>
       </c>
       <c r="E312">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="F312">
-        <v>-0.05500000000000005</v>
+        <v>-0.01000000000000001</v>
       </c>
       <c r="G312">
-        <v>-0.141771603661644</v>
+        <v>-0.0486262734456862</v>
       </c>
       <c r="H312" t="b">
         <v>0</v>
@@ -9787,16 +9787,16 @@
         <v>301</v>
       </c>
       <c r="D313">
-        <v>-1.12</v>
+        <v>-1.28</v>
       </c>
       <c r="E313">
-        <v>1.29</v>
+        <v>1.08</v>
       </c>
       <c r="F313">
-        <v>0.08499999999999996</v>
+        <v>-0.09999999999999998</v>
       </c>
       <c r="G313">
-        <v>0.1323806621359929</v>
+        <v>-0.1590080255363713</v>
       </c>
       <c r="H313" t="b">
         <v>0</v>
@@ -9813,16 +9813,16 @@
         <v>302</v>
       </c>
       <c r="D314">
-        <v>-1.68</v>
+        <v>-1.74</v>
       </c>
       <c r="E314">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="F314">
-        <v>0.06500000000000006</v>
+        <v>-0.01500000000000001</v>
       </c>
       <c r="G314">
-        <v>0.08515786966108188</v>
+        <v>0.009089476317905626</v>
       </c>
       <c r="H314" t="b">
         <v>0</v>
@@ -9839,16 +9839,16 @@
         <v>303</v>
       </c>
       <c r="D315">
-        <v>-1.62</v>
+        <v>-1.66</v>
       </c>
       <c r="E315">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="F315">
-        <v>0.1699999999999999</v>
+        <v>0.125</v>
       </c>
       <c r="G315">
-        <v>0.1591109255726989</v>
+        <v>0.1338265706660418</v>
       </c>
       <c r="H315" t="b">
         <v>0</v>
@@ -9865,16 +9865,16 @@
         <v>304</v>
       </c>
       <c r="D316">
-        <v>-1.59</v>
+        <v>-1.56</v>
       </c>
       <c r="E316">
         <v>1.55</v>
       </c>
       <c r="F316">
-        <v>-0.02000000000000002</v>
+        <v>-0.005000000000000004</v>
       </c>
       <c r="G316">
-        <v>-0.03003605984276425</v>
+        <v>-0.003777046396980097</v>
       </c>
       <c r="H316" t="b">
         <v>0</v>
@@ -9891,16 +9891,16 @@
         <v>305</v>
       </c>
       <c r="D317">
-        <v>-1.73</v>
+        <v>-1.68</v>
       </c>
       <c r="E317">
         <v>1.61</v>
       </c>
       <c r="F317">
-        <v>-0.05999999999999994</v>
+        <v>-0.03499999999999992</v>
       </c>
       <c r="G317">
-        <v>-0.08404832223316266</v>
+        <v>-0.04721251029981999</v>
       </c>
       <c r="H317" t="b">
         <v>0</v>
@@ -9917,16 +9917,16 @@
         <v>306</v>
       </c>
       <c r="D318">
-        <v>-1.65</v>
+        <v>-1.44</v>
       </c>
       <c r="E318">
-        <v>1.05</v>
+        <v>1.21</v>
       </c>
       <c r="F318">
-        <v>-0.2999999999999999</v>
+        <v>-0.115</v>
       </c>
       <c r="G318">
-        <v>-0.4324132430824645</v>
+        <v>-0.1652921140461674</v>
       </c>
       <c r="H318" t="b">
         <v>0</v>
@@ -9943,16 +9943,16 @@
         <v>307</v>
       </c>
       <c r="D319">
-        <v>-1.33</v>
+        <v>-1.3</v>
       </c>
       <c r="E319">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="F319">
-        <v>-0.02500000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G319">
-        <v>-0.01163456036405353</v>
+        <v>0.02696567649256404</v>
       </c>
       <c r="H319" t="b">
         <v>0</v>
@@ -9969,16 +9969,16 @@
         <v>308</v>
       </c>
       <c r="D320">
-        <v>-1.46</v>
+        <v>-1.38</v>
       </c>
       <c r="E320">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="F320">
-        <v>-0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G320">
-        <v>-0.04770268687156748</v>
+        <v>0.07745950206782869</v>
       </c>
       <c r="H320" t="b">
         <v>0</v>
@@ -9995,16 +9995,16 @@
         <v>309</v>
       </c>
       <c r="D321">
-        <v>-1.72</v>
+        <v>-1.56</v>
       </c>
       <c r="E321">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="F321">
-        <v>0.04500000000000004</v>
+        <v>0.1849999999999999</v>
       </c>
       <c r="G321">
-        <v>0.04237811541626451</v>
+        <v>0.222568057184195</v>
       </c>
       <c r="H321" t="b">
         <v>0</v>
@@ -10021,16 +10021,16 @@
         <v>310</v>
       </c>
       <c r="D322">
-        <v>-0.45</v>
+        <v>-0.52</v>
       </c>
       <c r="E322">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="F322">
-        <v>0.05999999999999997</v>
+        <v>-0.01000000000000001</v>
       </c>
       <c r="G322">
-        <v>0.2444629638497489</v>
+        <v>-0.0002710918745111805</v>
       </c>
       <c r="H322" t="b">
         <v>0</v>
@@ -10047,16 +10047,16 @@
         <v>311</v>
       </c>
       <c r="D323">
-        <v>-0.66</v>
+        <v>-0.79</v>
       </c>
       <c r="E323">
-        <v>0.83</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F323">
-        <v>0.08499999999999996</v>
+        <v>-0.05000000000000004</v>
       </c>
       <c r="G323">
-        <v>0.1998904301767971</v>
+        <v>-0.15222946022002</v>
       </c>
       <c r="H323" t="b">
         <v>0</v>
@@ -10073,16 +10073,16 @@
         <v>312</v>
       </c>
       <c r="D324">
-        <v>-1.27</v>
+        <v>-1.13</v>
       </c>
       <c r="E324">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="F324">
-        <v>-0.22</v>
+        <v>-0.1149999999999999</v>
       </c>
       <c r="G324">
-        <v>-0.41376588332472</v>
+        <v>-0.2144064368145298</v>
       </c>
       <c r="H324" t="b">
         <v>0</v>
@@ -10099,16 +10099,16 @@
         <v>313</v>
       </c>
       <c r="D325">
-        <v>-1.23</v>
+        <v>-1.21</v>
       </c>
       <c r="E325">
         <v>1.1</v>
       </c>
       <c r="F325">
-        <v>-0.06499999999999995</v>
+        <v>-0.05499999999999994</v>
       </c>
       <c r="G325">
-        <v>-0.1137202597176473</v>
+        <v>-0.0806253443329413</v>
       </c>
       <c r="H325" t="b">
         <v>0</v>
@@ -10125,16 +10125,16 @@
         <v>314</v>
       </c>
       <c r="D326">
-        <v>-0.76</v>
+        <v>-0.91</v>
       </c>
       <c r="E326">
-        <v>1.04</v>
+        <v>0.86</v>
       </c>
       <c r="F326">
-        <v>0.14</v>
+        <v>-0.02500000000000002</v>
       </c>
       <c r="G326">
-        <v>0.3175076299088774</v>
+        <v>-0.05834871478964373</v>
       </c>
       <c r="H326" t="b">
         <v>0</v>
@@ -10151,16 +10151,16 @@
         <v>315</v>
       </c>
       <c r="D327">
-        <v>-0.97</v>
+        <v>-0.92</v>
       </c>
       <c r="E327">
-        <v>0.59</v>
+        <v>0.68</v>
       </c>
       <c r="F327">
-        <v>-0.19</v>
+        <v>-0.12</v>
       </c>
       <c r="G327">
-        <v>-0.4839554501618015</v>
+        <v>-0.3101425394823207</v>
       </c>
       <c r="H327" t="b">
         <v>0</v>
@@ -10177,16 +10177,16 @@
         <v>316</v>
       </c>
       <c r="D328">
-        <v>-0.59</v>
+        <v>-0.65</v>
       </c>
       <c r="E328">
-        <v>0.42</v>
+        <v>0.34</v>
       </c>
       <c r="F328">
-        <v>-0.08499999999999999</v>
+        <v>-0.155</v>
       </c>
       <c r="G328">
-        <v>-0.3166525501244034</v>
+        <v>-0.6248024713228553</v>
       </c>
       <c r="H328" t="b">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>317</v>
       </c>
       <c r="D329">
-        <v>-1.21</v>
+        <v>-1.12</v>
       </c>
       <c r="E329">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="F329">
-        <v>-0.04499999999999993</v>
+        <v>0.0149999999999999</v>
       </c>
       <c r="G329">
-        <v>-0.06514640214432184</v>
+        <v>0.03505369731601277</v>
       </c>
       <c r="H329" t="b">
         <v>0</v>
@@ -10229,16 +10229,16 @@
         <v>318</v>
       </c>
       <c r="D330">
-        <v>-1.44</v>
+        <v>-1.37</v>
       </c>
       <c r="E330">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="F330">
-        <v>0.05500000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G330">
-        <v>0.07100268106177794</v>
+        <v>0.1264635089530244</v>
       </c>
       <c r="H330" t="b">
         <v>0</v>
@@ -10255,16 +10255,16 @@
         <v>319</v>
       </c>
       <c r="D331">
-        <v>-1.17</v>
+        <v>-1.1</v>
       </c>
       <c r="E331">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="F331">
-        <v>-0.105</v>
+        <v>-0.05500000000000005</v>
       </c>
       <c r="G331">
-        <v>-0.1923362328031087</v>
+        <v>-0.096732698145375</v>
       </c>
       <c r="H331" t="b">
         <v>0</v>
@@ -10281,16 +10281,16 @@
         <v>320</v>
       </c>
       <c r="D332">
-        <v>-0.84</v>
+        <v>-0.68</v>
       </c>
       <c r="E332">
-        <v>0.68</v>
+        <v>0.78</v>
       </c>
       <c r="F332">
-        <v>-0.07999999999999996</v>
+        <v>0.04999999999999999</v>
       </c>
       <c r="G332">
-        <v>-0.196415607210708</v>
+        <v>0.1284979759781744</v>
       </c>
       <c r="H332" t="b">
         <v>0</v>
@@ -10307,16 +10307,16 @@
         <v>321</v>
       </c>
       <c r="D333">
-        <v>-1.23</v>
+        <v>-1.43</v>
       </c>
       <c r="E333">
-        <v>1.17</v>
+        <v>0.96</v>
       </c>
       <c r="F333">
-        <v>-0.03000000000000003</v>
+        <v>-0.235</v>
       </c>
       <c r="G333">
-        <v>-0.03321641929210996</v>
+        <v>-0.3920254880348806</v>
       </c>
       <c r="H333" t="b">
         <v>0</v>
@@ -10333,16 +10333,16 @@
         <v>322</v>
       </c>
       <c r="D334">
-        <v>-1.62</v>
+        <v>-1.73</v>
       </c>
       <c r="E334">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="F334">
-        <v>0.09999999999999998</v>
+        <v>-0.02500000000000002</v>
       </c>
       <c r="G334">
-        <v>0.1223653921429987</v>
+        <v>-0.002331825649477956</v>
       </c>
       <c r="H334" t="b">
         <v>0</v>
@@ -10359,16 +10359,16 @@
         <v>323</v>
       </c>
       <c r="D335">
-        <v>-1.59</v>
+        <v>-1.67</v>
       </c>
       <c r="E335">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="F335">
-        <v>0.1649999999999999</v>
+        <v>0.09500000000000008</v>
       </c>
       <c r="G335">
-        <v>0.1835023635293405</v>
+        <v>0.1272212770544307</v>
       </c>
       <c r="H335" t="b">
         <v>0</v>
@@ -10385,16 +10385,16 @@
         <v>324</v>
       </c>
       <c r="D336">
-        <v>-1.14</v>
+        <v>-1.54</v>
       </c>
       <c r="E336">
-        <v>1.98</v>
+        <v>1.58</v>
       </c>
       <c r="F336">
-        <v>0.42</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G336">
-        <v>0.5264673672199559</v>
+        <v>0.04452959433864784</v>
       </c>
       <c r="H336" t="b">
         <v>0</v>
@@ -10411,16 +10411,16 @@
         <v>325</v>
       </c>
       <c r="D337">
-        <v>-1.84</v>
+        <v>-1.86</v>
       </c>
       <c r="E337">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="F337">
-        <v>-0.18</v>
+        <v>-0.17</v>
       </c>
       <c r="G337">
-        <v>-0.2144237350490024</v>
+        <v>-0.1774525806984595</v>
       </c>
       <c r="H337" t="b">
         <v>0</v>
@@ -10437,16 +10437,16 @@
         <v>326</v>
       </c>
       <c r="D338">
-        <v>-1.42</v>
+        <v>-1.41</v>
       </c>
       <c r="E338">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="F338">
-        <v>-0.06499999999999995</v>
+        <v>-0.06999999999999995</v>
       </c>
       <c r="G338">
-        <v>-0.08146176575617729</v>
+        <v>-0.1063949169948303</v>
       </c>
       <c r="H338" t="b">
         <v>0</v>
@@ -10463,16 +10463,16 @@
         <v>327</v>
       </c>
       <c r="D339">
-        <v>-1.32</v>
+        <v>-1.44</v>
       </c>
       <c r="E339">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="F339">
-        <v>0.005000000000000004</v>
+        <v>-0.12</v>
       </c>
       <c r="G339">
-        <v>0.01617288131749164</v>
+        <v>-0.1776576357553394</v>
       </c>
       <c r="H339" t="b">
         <v>0</v>
@@ -10489,16 +10489,16 @@
         <v>328</v>
       </c>
       <c r="D340">
-        <v>-1.37</v>
+        <v>-1.4</v>
       </c>
       <c r="E340">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="F340">
-        <v>0.04499999999999993</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G340">
-        <v>0.06013202150877252</v>
+        <v>-0.006992076262658856</v>
       </c>
       <c r="H340" t="b">
         <v>0</v>
@@ -10515,16 +10515,16 @@
         <v>329</v>
       </c>
       <c r="D341">
-        <v>-1.63</v>
+        <v>-1.57</v>
       </c>
       <c r="E341">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="F341">
-        <v>0.125</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="G341">
-        <v>0.1397718525598535</v>
+        <v>0.2121181541217249</v>
       </c>
       <c r="H341" t="b">
         <v>0</v>
@@ -10541,16 +10541,16 @@
         <v>330</v>
       </c>
       <c r="D342">
-        <v>-0.55</v>
+        <v>-0.51</v>
       </c>
       <c r="E342">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="F342">
-        <v>-0.04000000000000004</v>
+        <v>-0.005000000000000004</v>
       </c>
       <c r="G342">
-        <v>-0.1621107730172453</v>
+        <v>-0.05783052687810138</v>
       </c>
       <c r="H342" t="b">
         <v>0</v>
@@ -10567,16 +10567,16 @@
         <v>331</v>
       </c>
       <c r="D343">
-        <v>-0.91</v>
+        <v>-0.74</v>
       </c>
       <c r="E343">
-        <v>0.6</v>
+        <v>0.71</v>
       </c>
       <c r="F343">
-        <v>-0.155</v>
+        <v>-0.01500000000000001</v>
       </c>
       <c r="G343">
-        <v>-0.3884383640533773</v>
+        <v>-0.01964351095232687</v>
       </c>
       <c r="H343" t="b">
         <v>0</v>
@@ -10593,16 +10593,16 @@
         <v>332</v>
       </c>
       <c r="D344">
-        <v>-1.08</v>
+        <v>-1.01</v>
       </c>
       <c r="E344">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="F344">
-        <v>-0.02500000000000002</v>
+        <v>0.03500000000000003</v>
       </c>
       <c r="G344">
-        <v>-0.0401218163534298</v>
+        <v>0.06950983848822738</v>
       </c>
       <c r="H344" t="b">
         <v>0</v>
@@ -10619,16 +10619,16 @@
         <v>333</v>
       </c>
       <c r="D345">
-        <v>-1.02</v>
+        <v>-1.13</v>
       </c>
       <c r="E345">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="F345">
-        <v>0.155</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G345">
-        <v>0.2459449358597283</v>
+        <v>0.04863890104398641</v>
       </c>
       <c r="H345" t="b">
         <v>0</v>
@@ -10645,16 +10645,16 @@
         <v>334</v>
       </c>
       <c r="D346">
-        <v>-0.82</v>
+        <v>-0.92</v>
       </c>
       <c r="E346">
-        <v>0.96</v>
+        <v>0.87</v>
       </c>
       <c r="F346">
-        <v>0.07000000000000001</v>
+        <v>-0.02500000000000002</v>
       </c>
       <c r="G346">
-        <v>0.1757186509440589</v>
+        <v>-0.06025794580790497</v>
       </c>
       <c r="H346" t="b">
         <v>0</v>
@@ -10671,16 +10671,16 @@
         <v>335</v>
       </c>
       <c r="D347">
-        <v>-0.71</v>
+        <v>-0.68</v>
       </c>
       <c r="E347">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="F347">
-        <v>0.08000000000000002</v>
+        <v>0.08499999999999996</v>
       </c>
       <c r="G347">
-        <v>0.2275889181876046</v>
+        <v>0.2244444212305221</v>
       </c>
       <c r="H347" t="b">
         <v>0</v>
@@ -10697,16 +10697,16 @@
         <v>336</v>
       </c>
       <c r="D348">
-        <v>-0.49</v>
+        <v>-0.51</v>
       </c>
       <c r="E348">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
       <c r="F348">
-        <v>0.01500000000000001</v>
+        <v>-0.01500000000000001</v>
       </c>
       <c r="G348">
-        <v>0.04692487386845103</v>
+        <v>-0.03550427699068599</v>
       </c>
       <c r="H348" t="b">
         <v>0</v>
@@ -10723,16 +10723,16 @@
         <v>337</v>
       </c>
       <c r="D349">
-        <v>-1.15</v>
+        <v>-1.19</v>
       </c>
       <c r="E349">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
       <c r="F349">
-        <v>0.02000000000000002</v>
+        <v>-0.02500000000000002</v>
       </c>
       <c r="G349">
-        <v>0.03228548703319339</v>
+        <v>-0.04960857524142676</v>
       </c>
       <c r="H349" t="b">
         <v>0</v>
@@ -10749,16 +10749,16 @@
         <v>338</v>
       </c>
       <c r="D350">
-        <v>-1.55</v>
+        <v>-1.38</v>
       </c>
       <c r="E350">
-        <v>1.43</v>
+        <v>1.58</v>
       </c>
       <c r="F350">
-        <v>-0.06000000000000005</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="G350">
-        <v>-0.09243540622181144</v>
+        <v>0.1046270786442786</v>
       </c>
       <c r="H350" t="b">
         <v>0</v>
@@ -10775,16 +10775,16 @@
         <v>339</v>
       </c>
       <c r="D351">
-        <v>-1.17</v>
+        <v>-1.18</v>
       </c>
       <c r="E351">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F351">
-        <v>-0.11</v>
+        <v>-0.09499999999999997</v>
       </c>
       <c r="G351">
-        <v>-0.2127752890991371</v>
+        <v>-0.1638012026211073</v>
       </c>
       <c r="H351" t="b">
         <v>0</v>
@@ -10801,16 +10801,16 @@
         <v>340</v>
       </c>
       <c r="D352">
-        <v>-0.82</v>
+        <v>-0.74</v>
       </c>
       <c r="E352">
         <v>0.71</v>
       </c>
       <c r="F352">
-        <v>-0.05499999999999999</v>
+        <v>-0.01500000000000001</v>
       </c>
       <c r="G352">
-        <v>-0.1615215238726488</v>
+        <v>-0.002948898524666031</v>
       </c>
       <c r="H352" t="b">
         <v>0</v>
@@ -10827,16 +10827,16 @@
         <v>341</v>
       </c>
       <c r="D353">
-        <v>-1.28</v>
+        <v>-1.19</v>
       </c>
       <c r="E353">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="F353">
-        <v>-0.08499999999999996</v>
+        <v>-0.01500000000000001</v>
       </c>
       <c r="G353">
-        <v>-0.175663975912664</v>
+        <v>-0.04740480175876653</v>
       </c>
       <c r="H353" t="b">
         <v>0</v>
@@ -10853,16 +10853,16 @@
         <v>342</v>
       </c>
       <c r="D354">
-        <v>-1.76</v>
+        <v>-1.75</v>
       </c>
       <c r="E354">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="F354">
-        <v>-0.05500000000000005</v>
+        <v>-0.07999999999999996</v>
       </c>
       <c r="G354">
-        <v>-0.07309327092885116</v>
+        <v>-0.08566691136581683</v>
       </c>
       <c r="H354" t="b">
         <v>0</v>
@@ -10879,16 +10879,16 @@
         <v>343</v>
       </c>
       <c r="D355">
-        <v>-1.46</v>
+        <v>-1.78</v>
       </c>
       <c r="E355">
-        <v>2.14</v>
+        <v>1.78</v>
       </c>
       <c r="F355">
-        <v>0.3400000000000001</v>
+        <v>0</v>
       </c>
       <c r="G355">
-        <v>0.3657502666534049</v>
+        <v>-0.002104759694345467</v>
       </c>
       <c r="H355" t="b">
         <v>0</v>
@@ -10905,16 +10905,16 @@
         <v>344</v>
       </c>
       <c r="D356">
-        <v>-1.77</v>
+        <v>-1.39</v>
       </c>
       <c r="E356">
-        <v>1.34</v>
+        <v>1.66</v>
       </c>
       <c r="F356">
-        <v>-0.215</v>
+        <v>0.135</v>
       </c>
       <c r="G356">
-        <v>-0.2634086435240148</v>
+        <v>0.2088862052003514</v>
       </c>
       <c r="H356" t="b">
         <v>0</v>
@@ -10931,16 +10931,16 @@
         <v>345</v>
       </c>
       <c r="D357">
-        <v>-1.51</v>
+        <v>-1.85</v>
       </c>
       <c r="E357">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="F357">
-        <v>0.145</v>
+        <v>-0.175</v>
       </c>
       <c r="G357">
-        <v>0.1733543429089568</v>
+        <v>-0.2031834238623595</v>
       </c>
       <c r="H357" t="b">
         <v>0</v>
@@ -10957,16 +10957,16 @@
         <v>346</v>
       </c>
       <c r="D358">
-        <v>-1.32</v>
+        <v>-1.47</v>
       </c>
       <c r="E358">
-        <v>1.37</v>
+        <v>1.19</v>
       </c>
       <c r="F358">
-        <v>0.02500000000000002</v>
+        <v>-0.14</v>
       </c>
       <c r="G358">
-        <v>0.02784499613132604</v>
+        <v>-0.2328197765000803</v>
       </c>
       <c r="H358" t="b">
         <v>0</v>
@@ -10983,16 +10983,16 @@
         <v>347</v>
       </c>
       <c r="D359">
-        <v>-1.28</v>
+        <v>-1.29</v>
       </c>
       <c r="E359">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="F359">
-        <v>0.04000000000000004</v>
+        <v>-0.01500000000000001</v>
       </c>
       <c r="G359">
-        <v>0.04906559885724087</v>
+        <v>-0.05087414059688262</v>
       </c>
       <c r="H359" t="b">
         <v>0</v>
@@ -11012,13 +11012,13 @@
         <v>-1.41</v>
       </c>
       <c r="E360">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="F360">
-        <v>0.005000000000000004</v>
+        <v>-0.03499999999999992</v>
       </c>
       <c r="G360">
-        <v>0.003351562318028094</v>
+        <v>-0.07188186758884584</v>
       </c>
       <c r="H360" t="b">
         <v>0</v>
@@ -11035,16 +11035,16 @@
         <v>349</v>
       </c>
       <c r="D361">
-        <v>-1.57</v>
+        <v>-1.87</v>
       </c>
       <c r="E361">
-        <v>1.92</v>
+        <v>1.62</v>
       </c>
       <c r="F361">
-        <v>0.1749999999999999</v>
+        <v>-0.125</v>
       </c>
       <c r="G361">
-        <v>0.2041264869401919</v>
+        <v>-0.1555489524601577</v>
       </c>
       <c r="H361" t="b">
         <v>0</v>
@@ -11061,16 +11061,16 @@
         <v>350</v>
       </c>
       <c r="D362">
-        <v>-0.54</v>
+        <v>-0.45</v>
       </c>
       <c r="E362">
-        <v>0.49</v>
+        <v>0.55</v>
       </c>
       <c r="F362">
-        <v>-0.02500000000000002</v>
+        <v>0.05000000000000002</v>
       </c>
       <c r="G362">
-        <v>-0.08857488165998827</v>
+        <v>0.1939888999134207</v>
       </c>
       <c r="H362" t="b">
         <v>0</v>
@@ -11087,16 +11087,16 @@
         <v>351</v>
       </c>
       <c r="D363">
-        <v>-1.1</v>
+        <v>-0.78</v>
       </c>
       <c r="E363">
-        <v>0.39</v>
+        <v>0.68</v>
       </c>
       <c r="F363">
-        <v>-0.355</v>
+        <v>-0.04999999999999999</v>
       </c>
       <c r="G363">
-        <v>-0.9431683114129885</v>
+        <v>-0.1228471645855541</v>
       </c>
       <c r="H363" t="b">
         <v>0</v>
@@ -11113,16 +11113,16 @@
         <v>352</v>
       </c>
       <c r="D364">
-        <v>-1.19</v>
+        <v>-1.27</v>
       </c>
       <c r="E364">
-        <v>0.93</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F364">
-        <v>-0.1299999999999999</v>
+        <v>-0.23</v>
       </c>
       <c r="G364">
-        <v>-0.2172684663959632</v>
+        <v>-0.4002598747380663</v>
       </c>
       <c r="H364" t="b">
         <v>0</v>
@@ -11139,16 +11139,16 @@
         <v>353</v>
       </c>
       <c r="D365">
-        <v>-1.14</v>
+        <v>-1.35</v>
       </c>
       <c r="E365">
-        <v>1.2</v>
+        <v>0.97</v>
       </c>
       <c r="F365">
-        <v>0.03000000000000003</v>
+        <v>-0.1900000000000001</v>
       </c>
       <c r="G365">
-        <v>0.04301588683043647</v>
+        <v>-0.3278717299307971</v>
       </c>
       <c r="H365" t="b">
         <v>0</v>
@@ -11165,16 +11165,16 @@
         <v>354</v>
       </c>
       <c r="D366">
-        <v>-0.84</v>
+        <v>-0.73</v>
       </c>
       <c r="E366">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="F366">
-        <v>0.04500000000000004</v>
+        <v>0.135</v>
       </c>
       <c r="G366">
-        <v>0.08800060886344387</v>
+        <v>0.2814121306519156</v>
       </c>
       <c r="H366" t="b">
         <v>0</v>
@@ -11191,16 +11191,16 @@
         <v>355</v>
       </c>
       <c r="D367">
-        <v>-0.66</v>
+        <v>-0.7</v>
       </c>
       <c r="E367">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="F367">
-        <v>0.135</v>
+        <v>0.09000000000000002</v>
       </c>
       <c r="G367">
-        <v>0.3524917018793333</v>
+        <v>0.2084058309414069</v>
       </c>
       <c r="H367" t="b">
         <v>0</v>
@@ -11217,16 +11217,16 @@
         <v>356</v>
       </c>
       <c r="D368">
-        <v>-0.52</v>
+        <v>-0.47</v>
       </c>
       <c r="E368">
         <v>0.5</v>
       </c>
       <c r="F368">
-        <v>-0.01000000000000001</v>
+        <v>0.01500000000000001</v>
       </c>
       <c r="G368">
-        <v>-0.02568839607064749</v>
+        <v>0.05750785726351398</v>
       </c>
       <c r="H368" t="b">
         <v>0</v>
@@ -11243,16 +11243,16 @@
         <v>357</v>
       </c>
       <c r="D369">
-        <v>-1.19</v>
+        <v>-1.16</v>
       </c>
       <c r="E369">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="F369">
-        <v>-0.01500000000000001</v>
+        <v>-0.01000000000000001</v>
       </c>
       <c r="G369">
-        <v>-0.01314210308132876</v>
+        <v>0.03171572003527764</v>
       </c>
       <c r="H369" t="b">
         <v>0</v>
@@ -11269,16 +11269,16 @@
         <v>358</v>
       </c>
       <c r="D370">
-        <v>-1.82</v>
+        <v>-1.49</v>
       </c>
       <c r="E370">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="F370">
-        <v>-0.3250000000000001</v>
+        <v>-0.03000000000000003</v>
       </c>
       <c r="G370">
-        <v>-0.4033970468077515</v>
+        <v>-0.06011145634471889</v>
       </c>
       <c r="H370" t="b">
         <v>0</v>
@@ -11295,16 +11295,16 @@
         <v>359</v>
       </c>
       <c r="D371">
-        <v>-1.11</v>
+        <v>-1.05</v>
       </c>
       <c r="E371">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="F371">
-        <v>-0.03000000000000003</v>
+        <v>-0.01000000000000001</v>
       </c>
       <c r="G371">
-        <v>-0.06146010841913788</v>
+        <v>0.004867194595050246</v>
       </c>
       <c r="H371" t="b">
         <v>0</v>
@@ -11324,13 +11324,13 @@
         <v>-0.84</v>
       </c>
       <c r="E372">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="F372">
-        <v>-0.07500000000000001</v>
+        <v>-0.09499999999999997</v>
       </c>
       <c r="G372">
-        <v>-0.1798962703212537</v>
+        <v>-0.2236292643288035</v>
       </c>
       <c r="H372" t="b">
         <v>0</v>
@@ -11347,16 +11347,16 @@
         <v>361</v>
       </c>
       <c r="D373">
-        <v>-1.33</v>
+        <v>-1.2</v>
       </c>
       <c r="E373">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="F373">
-        <v>-0.125</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="G373">
-        <v>-0.2116713723887178</v>
+        <v>0.00759374722978332</v>
       </c>
       <c r="H373" t="b">
         <v>0</v>
@@ -11373,16 +11373,16 @@
         <v>362</v>
       </c>
       <c r="D374">
-        <v>-1.69</v>
+        <v>-1.7</v>
       </c>
       <c r="E374">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="F374">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="G374">
-        <v>0.03342778562195179</v>
+        <v>-0.04071344821712929</v>
       </c>
       <c r="H374" t="b">
         <v>0</v>
@@ -11399,16 +11399,16 @@
         <v>363</v>
       </c>
       <c r="D375">
-        <v>-1.87</v>
+        <v>-1.76</v>
       </c>
       <c r="E375">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="F375">
-        <v>-0.08500000000000008</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G375">
-        <v>-0.0686429323216966</v>
+        <v>0.0722338470838596</v>
       </c>
       <c r="H375" t="b">
         <v>0</v>
@@ -11425,16 +11425,16 @@
         <v>364</v>
       </c>
       <c r="D376">
-        <v>-1.66</v>
+        <v>-1.68</v>
       </c>
       <c r="E376">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="F376">
-        <v>-0.07999999999999996</v>
+        <v>-0.1599999999999999</v>
       </c>
       <c r="G376">
-        <v>-0.1047485494365126</v>
+        <v>-0.1852875114447629</v>
       </c>
       <c r="H376" t="b">
         <v>0</v>
@@ -11451,16 +11451,16 @@
         <v>365</v>
       </c>
       <c r="D377">
-        <v>-1.7</v>
+        <v>-1.95</v>
       </c>
       <c r="E377">
-        <v>1.63</v>
+        <v>1.37</v>
       </c>
       <c r="F377">
-        <v>-0.03500000000000003</v>
+        <v>-0.2899999999999999</v>
       </c>
       <c r="G377">
-        <v>-0.03688662531494308</v>
+        <v>-0.3299404917046622</v>
       </c>
       <c r="H377" t="b">
         <v>0</v>
@@ -11477,16 +11477,16 @@
         <v>366</v>
       </c>
       <c r="D378">
-        <v>-1.53</v>
+        <v>-1.82</v>
       </c>
       <c r="E378">
-        <v>1.18</v>
+        <v>0.86</v>
       </c>
       <c r="F378">
-        <v>-0.175</v>
+        <v>-0.48</v>
       </c>
       <c r="G378">
-        <v>-0.2348094055645751</v>
+        <v>-0.7167629882453769</v>
       </c>
       <c r="H378" t="b">
         <v>0</v>
@@ -11503,16 +11503,16 @@
         <v>367</v>
       </c>
       <c r="D379">
-        <v>-1.21</v>
+        <v>-1.23</v>
       </c>
       <c r="E379">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="F379">
-        <v>0.11</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G379">
-        <v>0.1622087092290709</v>
+        <v>0.1397685266358146</v>
       </c>
       <c r="H379" t="b">
         <v>0</v>
@@ -11529,16 +11529,16 @@
         <v>368</v>
       </c>
       <c r="D380">
-        <v>-1.21</v>
+        <v>-1.34</v>
       </c>
       <c r="E380">
-        <v>1.65</v>
+        <v>1.47</v>
       </c>
       <c r="F380">
-        <v>0.22</v>
+        <v>0.06499999999999995</v>
       </c>
       <c r="G380">
-        <v>0.2921407823976693</v>
+        <v>0.09525271379655174</v>
       </c>
       <c r="H380" t="b">
         <v>0</v>
@@ -11555,16 +11555,16 @@
         <v>369</v>
       </c>
       <c r="D381">
-        <v>-1.68</v>
+        <v>-1.79</v>
       </c>
       <c r="E381">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="F381">
-        <v>0.07000000000000006</v>
+        <v>-0.05500000000000005</v>
       </c>
       <c r="G381">
-        <v>0.08594080539265017</v>
+        <v>-0.06895405509380061</v>
       </c>
       <c r="H381" t="b">
         <v>0</v>
@@ -11581,16 +11581,16 @@
         <v>370</v>
       </c>
       <c r="D382">
-        <v>-0.49</v>
+        <v>-0.52</v>
       </c>
       <c r="E382">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
       <c r="F382">
-        <v>0.01500000000000001</v>
+        <v>-0.02000000000000002</v>
       </c>
       <c r="G382">
-        <v>0.08188383486676083</v>
+        <v>-0.06129104962352214</v>
       </c>
       <c r="H382" t="b">
         <v>0</v>
@@ -11607,16 +11607,16 @@
         <v>371</v>
       </c>
       <c r="D383">
-        <v>-0.75</v>
+        <v>-0.67</v>
       </c>
       <c r="E383">
-        <v>0.73</v>
+        <v>0.79</v>
       </c>
       <c r="F383">
-        <v>-0.01000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="G383">
-        <v>-0.02612678334042099</v>
+        <v>0.1485699121048013</v>
       </c>
       <c r="H383" t="b">
         <v>0</v>
@@ -11633,16 +11633,16 @@
         <v>372</v>
       </c>
       <c r="D384">
-        <v>-0.85</v>
+        <v>-0.63</v>
       </c>
       <c r="E384">
-        <v>1.24</v>
+        <v>1.4</v>
       </c>
       <c r="F384">
-        <v>0.195</v>
+        <v>0.385</v>
       </c>
       <c r="G384">
-        <v>0.3677472086787602</v>
+        <v>0.7706582255261919</v>
       </c>
       <c r="H384" t="b">
         <v>0</v>
@@ -11659,16 +11659,16 @@
         <v>373</v>
       </c>
       <c r="D385">
-        <v>-1.31</v>
+        <v>-1.22</v>
       </c>
       <c r="E385">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="F385">
-        <v>-0.13</v>
+        <v>-0.04000000000000004</v>
       </c>
       <c r="G385">
-        <v>-0.2020953569717734</v>
+        <v>-0.05773331844949114</v>
       </c>
       <c r="H385" t="b">
         <v>0</v>
@@ -11685,16 +11685,16 @@
         <v>374</v>
       </c>
       <c r="D386">
-        <v>-0.99</v>
+        <v>-0.83</v>
       </c>
       <c r="E386">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="F386">
-        <v>-0.09499999999999997</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G386">
-        <v>-0.2055917571798926</v>
+        <v>0.1082175767289866</v>
       </c>
       <c r="H386" t="b">
         <v>0</v>
@@ -11711,16 +11711,16 @@
         <v>375</v>
       </c>
       <c r="D387">
-        <v>-0.88</v>
+        <v>-0.84</v>
       </c>
       <c r="E387">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="F387">
-        <v>-0.08500000000000002</v>
+        <v>-0.04499999999999998</v>
       </c>
       <c r="G387">
-        <v>-0.2090382527243205</v>
+        <v>-0.09019448874710888</v>
       </c>
       <c r="H387" t="b">
         <v>0</v>
@@ -11737,16 +11737,16 @@
         <v>376</v>
       </c>
       <c r="D388">
-        <v>-0.54</v>
+        <v>-0.53</v>
       </c>
       <c r="E388">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="F388">
-        <v>-0.03500000000000003</v>
+        <v>-0.01500000000000001</v>
       </c>
       <c r="G388">
-        <v>-0.1462963040714726</v>
+        <v>-0.04613068607435102</v>
       </c>
       <c r="H388" t="b">
         <v>0</v>
@@ -11766,13 +11766,13 @@
         <v>-1.16</v>
       </c>
       <c r="E389">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="F389">
-        <v>0.01500000000000001</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="G389">
-        <v>0.02681604318295739</v>
+        <v>0.004095292402125674</v>
       </c>
       <c r="H389" t="b">
         <v>0</v>
@@ -11789,16 +11789,16 @@
         <v>378</v>
       </c>
       <c r="D390">
-        <v>-1.18</v>
+        <v>-1.37</v>
       </c>
       <c r="E390">
-        <v>1.81</v>
+        <v>1.61</v>
       </c>
       <c r="F390">
-        <v>0.3150000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="G390">
-        <v>0.4281485560156877</v>
+        <v>0.119368326294673</v>
       </c>
       <c r="H390" t="b">
         <v>0</v>
@@ -11815,16 +11815,16 @@
         <v>379</v>
       </c>
       <c r="D391">
-        <v>-1.18</v>
+        <v>-1.12</v>
       </c>
       <c r="E391">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F391">
-        <v>-0.115</v>
+        <v>-0.07500000000000007</v>
       </c>
       <c r="G391">
-        <v>-0.1919846235008875</v>
+        <v>-0.1780686355759633</v>
       </c>
       <c r="H391" t="b">
         <v>0</v>
@@ -11841,16 +11841,16 @@
         <v>380</v>
       </c>
       <c r="D392">
-        <v>-0.79</v>
+        <v>-0.78</v>
       </c>
       <c r="E392">
         <v>0.71</v>
       </c>
       <c r="F392">
-        <v>-0.04000000000000004</v>
+        <v>-0.03500000000000003</v>
       </c>
       <c r="G392">
-        <v>-0.1040662214662236</v>
+        <v>-0.09575346729021676</v>
       </c>
       <c r="H392" t="b">
         <v>0</v>
@@ -11867,16 +11867,16 @@
         <v>381</v>
       </c>
       <c r="D393">
-        <v>-0.87</v>
+        <v>-1.21</v>
       </c>
       <c r="E393">
-        <v>1.55</v>
+        <v>1.15</v>
       </c>
       <c r="F393">
-        <v>0.34</v>
+        <v>-0.03000000000000003</v>
       </c>
       <c r="G393">
-        <v>0.5675688268246821</v>
+        <v>-0.03383413318298432</v>
       </c>
       <c r="H393" t="b">
         <v>0</v>
@@ -11893,16 +11893,16 @@
         <v>382</v>
       </c>
       <c r="D394">
-        <v>-1.89</v>
+        <v>-2.07</v>
       </c>
       <c r="E394">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="F394">
-        <v>-0.1849999999999999</v>
+        <v>-0.335</v>
       </c>
       <c r="G394">
-        <v>-0.2127136422842162</v>
+        <v>-0.3719156323136949</v>
       </c>
       <c r="H394" t="b">
         <v>0</v>
@@ -11919,16 +11919,16 @@
         <v>383</v>
       </c>
       <c r="D395">
-        <v>-1.76</v>
+        <v>-1.72</v>
       </c>
       <c r="E395">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="F395">
-        <v>0.02500000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G395">
-        <v>0.01254270010179681</v>
+        <v>0.05368696258601922</v>
       </c>
       <c r="H395" t="b">
         <v>0</v>
@@ -11945,16 +11945,16 @@
         <v>384</v>
       </c>
       <c r="D396">
-        <v>-1.69</v>
+        <v>-1.88</v>
       </c>
       <c r="E396">
-        <v>1.46</v>
+        <v>1.24</v>
       </c>
       <c r="F396">
-        <v>-0.115</v>
+        <v>-0.32</v>
       </c>
       <c r="G396">
-        <v>-0.1477815021437649</v>
+        <v>-0.3909617652666155</v>
       </c>
       <c r="H396" t="b">
         <v>0</v>
@@ -11971,16 +11971,16 @@
         <v>385</v>
       </c>
       <c r="D397">
-        <v>-2.08</v>
+        <v>-1.99</v>
       </c>
       <c r="E397">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="F397">
-        <v>-0.39</v>
+        <v>-0.33</v>
       </c>
       <c r="G397">
-        <v>-0.4761718737549045</v>
+        <v>-0.4005172024363322</v>
       </c>
       <c r="H397" t="b">
         <v>0</v>
@@ -11997,16 +11997,16 @@
         <v>386</v>
       </c>
       <c r="D398">
-        <v>-1.5</v>
+        <v>-1.47</v>
       </c>
       <c r="E398">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="F398">
-        <v>-0.145</v>
+        <v>-0.12</v>
       </c>
       <c r="G398">
-        <v>-0.2010755434691648</v>
+        <v>-0.1634389503459774</v>
       </c>
       <c r="H398" t="b">
         <v>0</v>
@@ -12023,16 +12023,16 @@
         <v>387</v>
       </c>
       <c r="D399">
-        <v>-1.41</v>
+        <v>-1.53</v>
       </c>
       <c r="E399">
-        <v>1.21</v>
+        <v>1.12</v>
       </c>
       <c r="F399">
-        <v>-0.09999999999999998</v>
+        <v>-0.205</v>
       </c>
       <c r="G399">
-        <v>-0.1618870878505396</v>
+        <v>-0.3187629343884484</v>
       </c>
       <c r="H399" t="b">
         <v>0</v>
@@ -12049,16 +12049,16 @@
         <v>388</v>
       </c>
       <c r="D400">
-        <v>-1.42</v>
+        <v>-1.33</v>
       </c>
       <c r="E400">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="F400">
-        <v>0.01000000000000001</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G400">
-        <v>0.01496558039063125</v>
+        <v>0.1376749676940988</v>
       </c>
       <c r="H400" t="b">
         <v>0</v>
@@ -12075,16 +12075,16 @@
         <v>389</v>
       </c>
       <c r="D401">
-        <v>-1.84</v>
+        <v>-1.6</v>
       </c>
       <c r="E401">
-        <v>1.71</v>
+        <v>1.87</v>
       </c>
       <c r="F401">
-        <v>-0.06500000000000006</v>
+        <v>0.135</v>
       </c>
       <c r="G401">
-        <v>-0.08078022033909421</v>
+        <v>0.1394307221714055</v>
       </c>
       <c r="H401" t="b">
         <v>0</v>
@@ -12101,16 +12101,16 @@
         <v>390</v>
       </c>
       <c r="D402">
-        <v>-0.73</v>
+        <v>-0.72</v>
       </c>
       <c r="E402">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
       <c r="F402">
-        <v>-0.22</v>
+        <v>-0.205</v>
       </c>
       <c r="G402">
-        <v>-0.8588149599198776</v>
+        <v>-0.7797475339889488</v>
       </c>
       <c r="H402" t="b">
         <v>0</v>
@@ -12127,16 +12127,16 @@
         <v>391</v>
       </c>
       <c r="D403">
-        <v>-1.21</v>
+        <v>-0.63</v>
       </c>
       <c r="E403">
-        <v>0.3</v>
+        <v>0.86</v>
       </c>
       <c r="F403">
-        <v>-0.455</v>
+        <v>0.115</v>
       </c>
       <c r="G403">
-        <v>-1.189913323737219</v>
+        <v>0.3326844193503555</v>
       </c>
       <c r="H403" t="b">
         <v>0</v>
@@ -12153,16 +12153,16 @@
         <v>392</v>
       </c>
       <c r="D404">
-        <v>-1.15</v>
+        <v>-1.29</v>
       </c>
       <c r="E404">
-        <v>0.95</v>
+        <v>0.77</v>
       </c>
       <c r="F404">
-        <v>-0.09999999999999998</v>
+        <v>-0.26</v>
       </c>
       <c r="G404">
-        <v>-0.1781737764411277</v>
+        <v>-0.5026325606437834</v>
       </c>
       <c r="H404" t="b">
         <v>0</v>
@@ -12179,16 +12179,16 @@
         <v>393</v>
       </c>
       <c r="D405">
-        <v>-0.75</v>
+        <v>-0.89</v>
       </c>
       <c r="E405">
-        <v>1.57</v>
+        <v>1.41</v>
       </c>
       <c r="F405">
-        <v>0.41</v>
+        <v>0.26</v>
       </c>
       <c r="G405">
-        <v>0.6955634414249772</v>
+        <v>0.4317283753580271</v>
       </c>
       <c r="H405" t="b">
         <v>0</v>
@@ -12205,16 +12205,16 @@
         <v>394</v>
       </c>
       <c r="D406">
-        <v>-0.99</v>
+        <v>-0.98</v>
       </c>
       <c r="E406">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="F406">
         <v>-0.09499999999999997</v>
       </c>
       <c r="G406">
-        <v>-0.2089755358132861</v>
+        <v>-0.2266292942215348</v>
       </c>
       <c r="H406" t="b">
         <v>0</v>
@@ -12234,13 +12234,13 @@
         <v>-0.73</v>
       </c>
       <c r="E407">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F407">
-        <v>0.07000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G407">
-        <v>0.1553237016903845</v>
+        <v>0.07331045540846848</v>
       </c>
       <c r="H407" t="b">
         <v>0</v>
@@ -12257,16 +12257,16 @@
         <v>396</v>
       </c>
       <c r="D408">
-        <v>-0.76</v>
+        <v>-0.97</v>
       </c>
       <c r="E408">
-        <v>0.25</v>
+        <v>0.04</v>
       </c>
       <c r="F408">
-        <v>-0.255</v>
+        <v>-0.465</v>
       </c>
       <c r="G408">
-        <v>-1.002359694817233</v>
+        <v>-1.785463287969704</v>
       </c>
       <c r="H408" t="b">
         <v>0</v>
@@ -12283,16 +12283,16 @@
         <v>397</v>
       </c>
       <c r="D409">
-        <v>-1.47</v>
+        <v>-1.62</v>
       </c>
       <c r="E409">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="F409">
-        <v>-0.295</v>
+        <v>-0.475</v>
       </c>
       <c r="G409">
-        <v>-0.5004108049728218</v>
+        <v>-0.840159548043015</v>
       </c>
       <c r="H409" t="b">
         <v>0</v>
@@ -12309,16 +12309,16 @@
         <v>398</v>
       </c>
       <c r="D410">
-        <v>-1.55</v>
+        <v>-1.2</v>
       </c>
       <c r="E410">
-        <v>1.44</v>
+        <v>1.79</v>
       </c>
       <c r="F410">
-        <v>-0.05500000000000005</v>
+        <v>0.295</v>
       </c>
       <c r="G410">
-        <v>-0.07034799061952365</v>
+        <v>0.3914167266287332</v>
       </c>
       <c r="H410" t="b">
         <v>0</v>
@@ -12338,13 +12338,13 @@
         <v>-1.23</v>
       </c>
       <c r="E411">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="F411">
-        <v>-0.17</v>
+        <v>-0.195</v>
       </c>
       <c r="G411">
-        <v>-0.3181301247996034</v>
+        <v>-0.3837518671208766</v>
       </c>
       <c r="H411" t="b">
         <v>0</v>
@@ -12361,16 +12361,16 @@
         <v>400</v>
       </c>
       <c r="D412">
-        <v>-0.88</v>
+        <v>-0.91</v>
       </c>
       <c r="E412">
-        <v>0.64</v>
+        <v>0.61</v>
       </c>
       <c r="F412">
-        <v>-0.12</v>
+        <v>-0.15</v>
       </c>
       <c r="G412">
-        <v>-0.3248178510620474</v>
+        <v>-0.3812788995738547</v>
       </c>
       <c r="H412" t="b">
         <v>0</v>
@@ -12387,16 +12387,16 @@
         <v>401</v>
       </c>
       <c r="D413">
-        <v>-1.39</v>
+        <v>-1.47</v>
       </c>
       <c r="E413">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="F413">
-        <v>-0.21</v>
+        <v>-0.28</v>
       </c>
       <c r="G413">
-        <v>-0.3575095742901083</v>
+        <v>-0.5102518784505803</v>
       </c>
       <c r="H413" t="b">
         <v>0</v>
@@ -12413,16 +12413,16 @@
         <v>402</v>
       </c>
       <c r="D414">
-        <v>-2.07</v>
+        <v>-2.1</v>
       </c>
       <c r="E414">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="F414">
-        <v>-0.3649999999999999</v>
+        <v>-0.385</v>
       </c>
       <c r="G414">
-        <v>-0.4453341936995681</v>
+        <v>-0.4448038697001022</v>
       </c>
       <c r="H414" t="b">
         <v>0</v>
@@ -12439,16 +12439,16 @@
         <v>403</v>
       </c>
       <c r="D415">
-        <v>-1.33</v>
+        <v>-1.88</v>
       </c>
       <c r="E415">
-        <v>2.24</v>
+        <v>1.73</v>
       </c>
       <c r="F415">
-        <v>0.4550000000000001</v>
+        <v>-0.07499999999999996</v>
       </c>
       <c r="G415">
-        <v>0.5059159240326422</v>
+        <v>-0.06485462270090474</v>
       </c>
       <c r="H415" t="b">
         <v>0</v>
@@ -12465,16 +12465,16 @@
         <v>404</v>
       </c>
       <c r="D416">
-        <v>-1.7</v>
+        <v>-1.76</v>
       </c>
       <c r="E416">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="F416">
-        <v>-0.12</v>
+        <v>-0.21</v>
       </c>
       <c r="G416">
-        <v>-0.1569349548336065</v>
+        <v>-0.2810801989809776</v>
       </c>
       <c r="H416" t="b">
         <v>0</v>
@@ -12491,16 +12491,16 @@
         <v>405</v>
       </c>
       <c r="D417">
-        <v>-1.31</v>
+        <v>-1.38</v>
       </c>
       <c r="E417">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="F417">
-        <v>0.355</v>
+        <v>0.28</v>
       </c>
       <c r="G417">
-        <v>0.4375229540690646</v>
+        <v>0.322523587848678</v>
       </c>
       <c r="H417" t="b">
         <v>0</v>
@@ -12517,16 +12517,16 @@
         <v>406</v>
       </c>
       <c r="D418">
-        <v>-1.3</v>
+        <v>-1.64</v>
       </c>
       <c r="E418">
-        <v>1.44</v>
+        <v>1.05</v>
       </c>
       <c r="F418">
-        <v>0.06999999999999995</v>
+        <v>-0.2949999999999999</v>
       </c>
       <c r="G418">
-        <v>0.1062931469582231</v>
+        <v>-0.4370351343597316</v>
       </c>
       <c r="H418" t="b">
         <v>0</v>
@@ -12543,16 +12543,16 @@
         <v>407</v>
       </c>
       <c r="D419">
-        <v>-1.6</v>
+        <v>-1.71</v>
       </c>
       <c r="E419">
-        <v>1.04</v>
+        <v>0.9</v>
       </c>
       <c r="F419">
-        <v>-0.28</v>
+        <v>-0.405</v>
       </c>
       <c r="G419">
-        <v>-0.4301074831051864</v>
+        <v>-0.5625474971917246</v>
       </c>
       <c r="H419" t="b">
         <v>0</v>
@@ -12569,19 +12569,19 @@
         <v>408</v>
       </c>
       <c r="D420">
-        <v>-0.86</v>
+        <v>-3.2</v>
       </c>
       <c r="E420">
-        <v>1.98</v>
+        <v>-0.35</v>
       </c>
       <c r="F420">
-        <v>0.5600000000000001</v>
+        <v>-1.775</v>
       </c>
       <c r="G420">
-        <v>0.7798552216166779</v>
+        <v>-2.472753054228827</v>
       </c>
       <c r="H420" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -12595,16 +12595,16 @@
         <v>409</v>
       </c>
       <c r="D421">
-        <v>-1.6</v>
+        <v>-1.5</v>
       </c>
       <c r="E421">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="F421">
-        <v>0.1449999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="G421">
-        <v>0.1518064819219371</v>
+        <v>0.2594954526537973</v>
       </c>
       <c r="H421" t="b">
         <v>0</v>
@@ -12621,16 +12621,16 @@
         <v>410</v>
       </c>
       <c r="D422">
-        <v>-0.6</v>
+        <v>-0.52</v>
       </c>
       <c r="E422">
-        <v>0.43</v>
+        <v>0.48</v>
       </c>
       <c r="F422">
-        <v>-0.08499999999999999</v>
+        <v>-0.02000000000000002</v>
       </c>
       <c r="G422">
-        <v>-0.3025149788192945</v>
+        <v>-0.1021276623525774</v>
       </c>
       <c r="H422" t="b">
         <v>0</v>
@@ -12647,16 +12647,16 @@
         <v>411</v>
       </c>
       <c r="D423">
-        <v>-0.57</v>
+        <v>-0.6</v>
       </c>
       <c r="E423">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="F423">
-        <v>0.175</v>
+        <v>0.125</v>
       </c>
       <c r="G423">
-        <v>0.4639414040285768</v>
+        <v>0.3410781980937033</v>
       </c>
       <c r="H423" t="b">
         <v>0</v>
@@ -12673,16 +12673,16 @@
         <v>412</v>
       </c>
       <c r="D424">
-        <v>-0.97</v>
+        <v>-1</v>
       </c>
       <c r="E424">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="F424">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G424">
-        <v>0.1470513489478661</v>
+        <v>0.1322712200430053</v>
       </c>
       <c r="H424" t="b">
         <v>0</v>
@@ -12699,16 +12699,16 @@
         <v>413</v>
       </c>
       <c r="D425">
-        <v>-0.96</v>
+        <v>-1.08</v>
       </c>
       <c r="E425">
-        <v>1.38</v>
+        <v>1.26</v>
       </c>
       <c r="F425">
-        <v>0.21</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G425">
-        <v>0.3428890719031331</v>
+        <v>0.1555245261657442</v>
       </c>
       <c r="H425" t="b">
         <v>0</v>
@@ -12725,16 +12725,16 @@
         <v>414</v>
       </c>
       <c r="D426">
-        <v>-0.76</v>
+        <v>-0.88</v>
       </c>
       <c r="E426">
-        <v>1.04</v>
+        <v>0.87</v>
       </c>
       <c r="F426">
-        <v>0.14</v>
+        <v>-0.005000000000000004</v>
       </c>
       <c r="G426">
-        <v>0.2975206425255296</v>
+        <v>0.03512845945178022</v>
       </c>
       <c r="H426" t="b">
         <v>0</v>
@@ -12751,16 +12751,16 @@
         <v>415</v>
       </c>
       <c r="D427">
-        <v>-0.75</v>
+        <v>-0.77</v>
       </c>
       <c r="E427">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F427">
-        <v>0.03999999999999998</v>
+        <v>0.01500000000000001</v>
       </c>
       <c r="G427">
-        <v>0.1065150450342547</v>
+        <v>0.0349227612004082</v>
       </c>
       <c r="H427" t="b">
         <v>0</v>
@@ -12777,16 +12777,16 @@
         <v>416</v>
       </c>
       <c r="D428">
-        <v>-0.5</v>
+        <v>-0.53</v>
       </c>
       <c r="E428">
-        <v>0.53</v>
+        <v>0.46</v>
       </c>
       <c r="F428">
-        <v>0.01500000000000001</v>
+        <v>-0.035</v>
       </c>
       <c r="G428">
-        <v>0.07499776313892394</v>
+        <v>-0.1437971095184912</v>
       </c>
       <c r="H428" t="b">
         <v>0</v>
@@ -12803,16 +12803,16 @@
         <v>417</v>
       </c>
       <c r="D429">
-        <v>-1.06</v>
+        <v>-1</v>
       </c>
       <c r="E429">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="F429">
-        <v>0.09999999999999998</v>
+        <v>0.15</v>
       </c>
       <c r="G429">
-        <v>0.1853856806215437</v>
+        <v>0.2668217717422716</v>
       </c>
       <c r="H429" t="b">
         <v>0</v>
@@ -12829,16 +12829,16 @@
         <v>418</v>
       </c>
       <c r="D430">
-        <v>-1.62</v>
+        <v>-1.59</v>
       </c>
       <c r="E430">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="F430">
-        <v>-0.1200000000000001</v>
+        <v>-0.11</v>
       </c>
       <c r="G430">
-        <v>-0.1464368493146908</v>
+        <v>-0.1481047860925239</v>
       </c>
       <c r="H430" t="b">
         <v>0</v>
@@ -12855,16 +12855,16 @@
         <v>419</v>
       </c>
       <c r="D431">
-        <v>-1.04</v>
+        <v>-1.03</v>
       </c>
       <c r="E431">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="F431">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G431">
-        <v>0.02135416835707799</v>
+        <v>0.04271974825788423</v>
       </c>
       <c r="H431" t="b">
         <v>0</v>
@@ -12881,16 +12881,16 @@
         <v>420</v>
       </c>
       <c r="D432">
-        <v>-0.6899999999999999</v>
+        <v>-0.6</v>
       </c>
       <c r="E432">
-        <v>0.8100000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="F432">
-        <v>0.06000000000000005</v>
+        <v>0.14</v>
       </c>
       <c r="G432">
-        <v>0.1489244988927955</v>
+        <v>0.3599738417992273</v>
       </c>
       <c r="H432" t="b">
         <v>0</v>
@@ -12907,16 +12907,16 @@
         <v>421</v>
       </c>
       <c r="D433">
-        <v>-1.27</v>
+        <v>-1.13</v>
       </c>
       <c r="E433">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="F433">
-        <v>-0.07499999999999996</v>
+        <v>0.04500000000000004</v>
       </c>
       <c r="G433">
-        <v>-0.1197685683487691</v>
+        <v>0.09223021574914129</v>
       </c>
       <c r="H433" t="b">
         <v>0</v>
@@ -12933,16 +12933,16 @@
         <v>422</v>
       </c>
       <c r="D434">
-        <v>-1.61</v>
+        <v>-1.56</v>
       </c>
       <c r="E434">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="F434">
-        <v>0.11</v>
+        <v>0.125</v>
       </c>
       <c r="G434">
-        <v>0.1217280386217728</v>
+        <v>0.1457647879519378</v>
       </c>
       <c r="H434" t="b">
         <v>0</v>
@@ -12959,16 +12959,16 @@
         <v>423</v>
       </c>
       <c r="D435">
-        <v>-1.73</v>
+        <v>-1.69</v>
       </c>
       <c r="E435">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="F435">
-        <v>0.06500000000000006</v>
+        <v>0.12</v>
       </c>
       <c r="G435">
-        <v>0.05532616953673768</v>
+        <v>0.1170477833348682</v>
       </c>
       <c r="H435" t="b">
         <v>0</v>
@@ -12985,16 +12985,16 @@
         <v>424</v>
       </c>
       <c r="D436">
-        <v>-1.64</v>
+        <v>-1.5</v>
       </c>
       <c r="E436">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="F436">
-        <v>-0.08499999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G436">
-        <v>-0.09828825005747187</v>
+        <v>0.01820352640677791</v>
       </c>
       <c r="H436" t="b">
         <v>0</v>
@@ -13014,13 +13014,13 @@
         <v>-1.6</v>
       </c>
       <c r="E437">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="F437">
-        <v>0.05499999999999994</v>
+        <v>0.07499999999999996</v>
       </c>
       <c r="G437">
-        <v>0.08804917295718158</v>
+        <v>0.07577497131830724</v>
       </c>
       <c r="H437" t="b">
         <v>0</v>
@@ -13040,13 +13040,13 @@
         <v>-1.37</v>
       </c>
       <c r="E438">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="F438">
-        <v>-0.01000000000000001</v>
+        <v>-0.03000000000000003</v>
       </c>
       <c r="G438">
-        <v>-0.01995028875545357</v>
+        <v>-0.03790258386411201</v>
       </c>
       <c r="H438" t="b">
         <v>0</v>
@@ -13063,16 +13063,16 @@
         <v>427</v>
       </c>
       <c r="D439">
-        <v>-1.35</v>
+        <v>-1.32</v>
       </c>
       <c r="E439">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="F439">
-        <v>-0.02500000000000002</v>
+        <v>-0.005000000000000004</v>
       </c>
       <c r="G439">
-        <v>-0.04415244207439833</v>
+        <v>-0.0163207505803642</v>
       </c>
       <c r="H439" t="b">
         <v>0</v>
@@ -13089,16 +13089,16 @@
         <v>428</v>
       </c>
       <c r="D440">
-        <v>-1.41</v>
+        <v>-1.19</v>
       </c>
       <c r="E440">
-        <v>1.43</v>
+        <v>1.61</v>
       </c>
       <c r="F440">
-        <v>0.01000000000000001</v>
+        <v>0.2100000000000001</v>
       </c>
       <c r="G440">
-        <v>0.02109142347495028</v>
+        <v>0.3002409565166722</v>
       </c>
       <c r="H440" t="b">
         <v>0</v>
@@ -13115,16 +13115,16 @@
         <v>429</v>
       </c>
       <c r="D441">
-        <v>-1.75</v>
+        <v>-2.08</v>
       </c>
       <c r="E441">
-        <v>1.79</v>
+        <v>1.39</v>
       </c>
       <c r="F441">
-        <v>0.02000000000000002</v>
+        <v>-0.3450000000000001</v>
       </c>
       <c r="G441">
-        <v>0.02335512256553687</v>
+        <v>-0.4120487619476857</v>
       </c>
       <c r="H441" t="b">
         <v>0</v>

--- a/literature_data/creswell_2020_GM/bayesian_regression_summary_lowest_taxonomy.xlsx
+++ b/literature_data/creswell_2020_GM/bayesian_regression_summary_lowest_taxonomy.xlsx
@@ -1704,13 +1704,13 @@
         <v>-0.13</v>
       </c>
       <c r="E2">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="F2">
-        <v>0.135</v>
+        <v>0.14</v>
       </c>
       <c r="G2">
-        <v>1.030486600622594</v>
+        <v>1.007841616553013</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0.09</v>
       </c>
       <c r="G3">
-        <v>0.6796128468406706</v>
+        <v>0.6623583268146016</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -1753,16 +1753,16 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>-0.24</v>
+        <v>-0.25</v>
       </c>
       <c r="E4">
         <v>0.3</v>
       </c>
       <c r="F4">
-        <v>0.03</v>
+        <v>0.02499999999999999</v>
       </c>
       <c r="G4">
-        <v>0.2009852996275485</v>
+        <v>0.1912962851161902</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -1782,13 +1782,13 @@
         <v>-0.21</v>
       </c>
       <c r="E5">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="F5">
-        <v>0.05500000000000001</v>
+        <v>0.06000000000000001</v>
       </c>
       <c r="G5">
-        <v>0.4175107302087251</v>
+        <v>0.425817359873963</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -1805,16 +1805,16 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>-0.55</v>
+        <v>-0.54</v>
       </c>
       <c r="E6">
         <v>-0.01</v>
       </c>
       <c r="F6">
-        <v>-0.28</v>
+        <v>-0.275</v>
       </c>
       <c r="G6">
-        <v>-2.060213555867199</v>
+        <v>-2.046499024809486</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
@@ -1840,7 +1840,7 @@
         <v>-0.05500000000000001</v>
       </c>
       <c r="G7">
-        <v>-0.3934126234250763</v>
+        <v>-0.4078382058771751</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -1857,16 +1857,16 @@
         <v>16</v>
       </c>
       <c r="D8">
-        <v>-0.14</v>
+        <v>-0.13</v>
       </c>
       <c r="E8">
         <v>0.39</v>
       </c>
       <c r="F8">
-        <v>0.125</v>
+        <v>0.13</v>
       </c>
       <c r="G8">
-        <v>0.9581298864095185</v>
+        <v>0.9801653419885404</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -1883,16 +1883,16 @@
         <v>17</v>
       </c>
       <c r="D9">
-        <v>-0.27</v>
+        <v>-0.26</v>
       </c>
       <c r="E9">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="F9">
-        <v>-0.005000000000000004</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="G9">
-        <v>0.02954903619006858</v>
+        <v>0.03344358488653335</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -1912,13 +1912,13 @@
         <v>-0.25</v>
       </c>
       <c r="E10">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="F10">
-        <v>0.01500000000000001</v>
+        <v>0.01999999999999999</v>
       </c>
       <c r="G10">
-        <v>0.1376777616669246</v>
+        <v>0.1574638544547454</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -1938,13 +1938,13 @@
         <v>-0.28</v>
       </c>
       <c r="E11">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="F11">
-        <v>-0.02000000000000002</v>
+        <v>-0.01500000000000001</v>
       </c>
       <c r="G11">
-        <v>-0.1226191740845431</v>
+        <v>-0.1362604386696786</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0.45</v>
       </c>
       <c r="G12">
-        <v>3.276386027975271</v>
+        <v>3.271727353549587</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.007640136684839723</v>
+        <v>-0.02203483830423357</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>22</v>
       </c>
       <c r="D14">
-        <v>-0.26</v>
+        <v>-0.25</v>
       </c>
       <c r="E14">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="F14">
-        <v>0.005000000000000004</v>
+        <v>0.01500000000000001</v>
       </c>
       <c r="G14">
-        <v>0.06678787561274145</v>
+        <v>0.1001112658977266</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -2048,7 +2048,7 @@
         <v>0.02499999999999999</v>
       </c>
       <c r="G15">
-        <v>0.1540595616614352</v>
+        <v>0.1584951218191659</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -2074,7 +2074,7 @@
         <v>0.01500000000000001</v>
       </c>
       <c r="G16">
-        <v>0.08478971966810965</v>
+        <v>0.08931380552772658</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -2091,16 +2091,16 @@
         <v>25</v>
       </c>
       <c r="D17">
-        <v>-0.27</v>
+        <v>-0.28</v>
       </c>
       <c r="E17">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="F17">
         <v>-0.01000000000000001</v>
       </c>
       <c r="G17">
-        <v>-0.09184720056029684</v>
+        <v>-0.07827063544913378</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -2117,16 +2117,16 @@
         <v>26</v>
       </c>
       <c r="D18">
-        <v>-0.25</v>
+        <v>-0.26</v>
       </c>
       <c r="E18">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="F18">
         <v>0.01000000000000001</v>
       </c>
       <c r="G18">
-        <v>0.05461471416017676</v>
+        <v>0.05883518226334512</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -2152,7 +2152,7 @@
         <v>-0.045</v>
       </c>
       <c r="G19">
-        <v>-0.3647555716298231</v>
+        <v>-0.3434543511331659</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -2169,16 +2169,16 @@
         <v>28</v>
       </c>
       <c r="D20">
-        <v>-0.14</v>
+        <v>-0.15</v>
       </c>
       <c r="E20">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="F20">
-        <v>0.125</v>
+        <v>0.115</v>
       </c>
       <c r="G20">
-        <v>0.9231242706205623</v>
+        <v>0.8963771366638302</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -2204,7 +2204,7 @@
         <v>-0.05500000000000001</v>
       </c>
       <c r="G21">
-        <v>-0.4048822518157514</v>
+        <v>-0.4037083577598807</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>-0.025</v>
       </c>
       <c r="G22">
-        <v>-1.899978375558076</v>
+        <v>-1.862002305453189</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0.004999999999999999</v>
       </c>
       <c r="G23">
-        <v>0.353252704953859</v>
+        <v>0.3335386595254428</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -2282,7 +2282,7 @@
         <v>0.015</v>
       </c>
       <c r="G24">
-        <v>1.17502836793703</v>
+        <v>1.151667873869699</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
@@ -2308,7 +2308,7 @@
         <v>-0.004999999999999999</v>
       </c>
       <c r="G25">
-        <v>-0.1802443028089068</v>
+        <v>-0.1770268668476726</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -2328,13 +2328,13 @@
         <v>0.01</v>
       </c>
       <c r="E26">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F26">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G26">
-        <v>2.55920878703623</v>
+        <v>2.616083610820898</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
@@ -2360,7 +2360,7 @@
         <v>0.015</v>
       </c>
       <c r="G27">
-        <v>1.178137675259311</v>
+        <v>1.142284856346184</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>16</v>
       </c>
       <c r="D28">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="E28">
         <v>-0.01</v>
       </c>
       <c r="F28">
-        <v>-0.03</v>
+        <v>-0.035</v>
       </c>
       <c r="G28">
-        <v>-2.597840818578521</v>
+        <v>-2.553259555165301</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
@@ -2412,7 +2412,7 @@
         <v>0.004999999999999999</v>
       </c>
       <c r="G29">
-        <v>0.4870016310891322</v>
+        <v>0.4797122477511867</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
@@ -2438,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>-0.0132694674200133</v>
+        <v>0.003369316050955435</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -2464,7 +2464,7 @@
         <v>-0.015</v>
       </c>
       <c r="G31">
-        <v>-0.9559304021143924</v>
+        <v>-0.9657686598515772</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>-0.035</v>
       </c>
       <c r="G32">
-        <v>-3.071723104341963</v>
+        <v>-3.069801028701256</v>
       </c>
       <c r="H32" t="b">
         <v>1</v>
@@ -2516,7 +2516,7 @@
         <v>0.015</v>
       </c>
       <c r="G33">
-        <v>1.107042576317148</v>
+        <v>1.105770565843088</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0.004999999999999999</v>
       </c>
       <c r="G34">
-        <v>0.3359719243758618</v>
+        <v>0.335678355932896</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -2568,7 +2568,7 @@
         <v>0.004999999999999999</v>
       </c>
       <c r="G35">
-        <v>0.5320558957331605</v>
+        <v>0.5246367881917956</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -2594,7 +2594,7 @@
         <v>0.009999999999999998</v>
       </c>
       <c r="G36">
-        <v>0.764306821568848</v>
+        <v>0.7508048734743189</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0.004999999999999999</v>
       </c>
       <c r="G37">
-        <v>0.1699432933472357</v>
+        <v>0.1802123526687191</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -2646,7 +2646,7 @@
         <v>-0.004999999999999999</v>
       </c>
       <c r="G38">
-        <v>-0.1963703971943443</v>
+        <v>-0.1879463559039626</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -2672,7 +2672,7 @@
         <v>0.015</v>
       </c>
       <c r="G39">
-        <v>1.064274060308182</v>
+        <v>1.084357499178962</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -2689,16 +2689,16 @@
         <v>28</v>
       </c>
       <c r="D40">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="E40">
         <v>0.03</v>
       </c>
       <c r="F40">
-        <v>0.004999999999999999</v>
+        <v>0.009999999999999998</v>
       </c>
       <c r="G40">
-        <v>0.7309003480093753</v>
+        <v>0.7482234031411341</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0.004999999999999999</v>
       </c>
       <c r="G41">
-        <v>0.07120912094118703</v>
+        <v>0.07060269223970898</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -2741,16 +2741,16 @@
         <v>30</v>
       </c>
       <c r="D42">
-        <v>-0.63</v>
+        <v>-0.61</v>
       </c>
       <c r="E42">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="F42">
-        <v>-0.12</v>
+        <v>-0.105</v>
       </c>
       <c r="G42">
-        <v>-0.457794488195524</v>
+        <v>-0.4471789789954703</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -2767,16 +2767,16 @@
         <v>31</v>
       </c>
       <c r="D43">
-        <v>-1.1</v>
+        <v>-1.09</v>
       </c>
       <c r="E43">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="F43">
-        <v>-0.3700000000000001</v>
+        <v>-0.36</v>
       </c>
       <c r="G43">
-        <v>-0.9839483687465732</v>
+        <v>-0.9670106328046599</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -2793,16 +2793,16 @@
         <v>32</v>
       </c>
       <c r="D44">
-        <v>-0.5</v>
+        <v>-0.51</v>
       </c>
       <c r="E44">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="F44">
-        <v>0.5600000000000001</v>
+        <v>0.535</v>
       </c>
       <c r="G44">
-        <v>1.017060908674125</v>
+        <v>1.027383416245501</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -2819,16 +2819,16 @@
         <v>33</v>
       </c>
       <c r="D45">
-        <v>-1.65</v>
+        <v>-1.66</v>
       </c>
       <c r="E45">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="F45">
         <v>-0.4949999999999999</v>
       </c>
       <c r="G45">
-        <v>-0.8337726471455846</v>
+        <v>-0.8444301205927344</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -2848,13 +2848,13 @@
         <v>-1.19</v>
       </c>
       <c r="E46">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="F46">
-        <v>-0.31</v>
+        <v>-0.305</v>
       </c>
       <c r="G46">
-        <v>-0.6971355767142354</v>
+        <v>-0.6705934221090554</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
@@ -2871,16 +2871,16 @@
         <v>35</v>
       </c>
       <c r="D47">
-        <v>-1.2</v>
+        <v>-1.22</v>
       </c>
       <c r="E47">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="F47">
-        <v>-0.415</v>
+        <v>-0.42</v>
       </c>
       <c r="G47">
-        <v>-1.067472386907237</v>
+        <v>-1.044138830260565</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
@@ -2900,13 +2900,13 @@
         <v>-0.59</v>
       </c>
       <c r="E48">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="F48">
-        <v>-0.07999999999999999</v>
+        <v>-0.09</v>
       </c>
       <c r="G48">
-        <v>-0.3008533066066953</v>
+        <v>-0.3191743420070784</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -2923,16 +2923,16 @@
         <v>37</v>
       </c>
       <c r="D49">
-        <v>-1.42</v>
+        <v>-1.45</v>
       </c>
       <c r="E49">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="F49">
-        <v>-0.28</v>
+        <v>-0.285</v>
       </c>
       <c r="G49">
-        <v>-0.4900905893714392</v>
+        <v>-0.456865274101975</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -2949,16 +2949,16 @@
         <v>38</v>
       </c>
       <c r="D50">
-        <v>-1.63</v>
+        <v>-1.57</v>
       </c>
       <c r="E50">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="F50">
-        <v>-0.1299999999999999</v>
+        <v>-0.09500000000000008</v>
       </c>
       <c r="G50">
-        <v>-0.1555860156538876</v>
+        <v>-0.1511950802231187</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -2975,16 +2975,16 @@
         <v>39</v>
       </c>
       <c r="D51">
-        <v>-0.78</v>
+        <v>-0.77</v>
       </c>
       <c r="E51">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="F51">
-        <v>0.265</v>
+        <v>0.28</v>
       </c>
       <c r="G51">
-        <v>0.5030304178601392</v>
+        <v>0.5168462739363828</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -3001,16 +3001,16 @@
         <v>40</v>
       </c>
       <c r="D52">
-        <v>-0.24</v>
+        <v>-0.22</v>
       </c>
       <c r="E52">
         <v>1.27</v>
       </c>
       <c r="F52">
-        <v>0.515</v>
+        <v>0.525</v>
       </c>
       <c r="G52">
-        <v>1.354361048064745</v>
+        <v>1.368885715489563</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -3027,16 +3027,16 @@
         <v>41</v>
       </c>
       <c r="D53">
-        <v>-1.28</v>
+        <v>-1.25</v>
       </c>
       <c r="E53">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="F53">
-        <v>-0.07500000000000007</v>
+        <v>-0.06499999999999995</v>
       </c>
       <c r="G53">
-        <v>-0.1075336848647311</v>
+        <v>-0.1213722344132333</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -3053,16 +3053,16 @@
         <v>42</v>
       </c>
       <c r="D54">
-        <v>-1.89</v>
+        <v>-1.88</v>
       </c>
       <c r="E54">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="F54">
-        <v>-0.1699999999999999</v>
+        <v>-0.1799999999999999</v>
       </c>
       <c r="G54">
-        <v>-0.1962632405921466</v>
+        <v>-0.2120814480402726</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>43</v>
       </c>
       <c r="D55">
-        <v>-1.3</v>
+        <v>-1.26</v>
       </c>
       <c r="E55">
-        <v>2.29</v>
+        <v>2.28</v>
       </c>
       <c r="F55">
-        <v>0.495</v>
+        <v>0.5099999999999999</v>
       </c>
       <c r="G55">
-        <v>0.5486172700910598</v>
+        <v>0.5495243852851414</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
@@ -3105,16 +3105,16 @@
         <v>44</v>
       </c>
       <c r="D56">
-        <v>-2.48</v>
+        <v>-2.44</v>
       </c>
       <c r="E56">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="F56">
-        <v>-0.925</v>
+        <v>-0.915</v>
       </c>
       <c r="G56">
-        <v>-1.172295430578949</v>
+        <v>-1.188674132372716</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -3131,16 +3131,16 @@
         <v>45</v>
       </c>
       <c r="D57">
-        <v>-0.71</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="E57">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="F57">
         <v>0.9650000000000001</v>
       </c>
       <c r="G57">
-        <v>1.131691103083953</v>
+        <v>1.141877933498411</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -3157,16 +3157,16 @@
         <v>46</v>
       </c>
       <c r="D58">
-        <v>-0.87</v>
+        <v>-0.86</v>
       </c>
       <c r="E58">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="F58">
-        <v>0.485</v>
+        <v>0.4950000000000001</v>
       </c>
       <c r="G58">
-        <v>0.7092948323509707</v>
+        <v>0.7078990159233203</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -3183,16 +3183,16 @@
         <v>47</v>
       </c>
       <c r="D59">
-        <v>-0.42</v>
+        <v>-0.46</v>
       </c>
       <c r="E59">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="F59">
-        <v>0.9000000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="G59">
-        <v>1.302909397418824</v>
+        <v>1.287786703319569</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -3209,16 +3209,16 @@
         <v>48</v>
       </c>
       <c r="D60">
-        <v>-1.64</v>
+        <v>-1.66</v>
       </c>
       <c r="E60">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="F60">
-        <v>-0.22</v>
+        <v>-0.245</v>
       </c>
       <c r="G60">
-        <v>-0.3446872264603673</v>
+        <v>-0.3462888555885711</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -3235,16 +3235,16 @@
         <v>49</v>
       </c>
       <c r="D61">
-        <v>-1.65</v>
+        <v>-1.68</v>
       </c>
       <c r="E61">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="F61">
-        <v>0.08500000000000008</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G61">
-        <v>0.06522457033961442</v>
+        <v>0.05034301786598246</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -3270,7 +3270,7 @@
         <v>-0.24</v>
       </c>
       <c r="G62">
-        <v>-0.916546576066457</v>
+        <v>-0.9239778279887146</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -3290,13 +3290,13 @@
         <v>-1.46</v>
       </c>
       <c r="E63">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F63">
-        <v>-0.725</v>
+        <v>-0.72</v>
       </c>
       <c r="G63">
-        <v>-1.995088539884614</v>
+        <v>-1.9867303005251</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
@@ -3313,16 +3313,16 @@
         <v>52</v>
       </c>
       <c r="D64">
-        <v>-0.99</v>
+        <v>-1.01</v>
       </c>
       <c r="E64">
         <v>1.1</v>
       </c>
       <c r="F64">
-        <v>0.05500000000000005</v>
+        <v>0.04500000000000004</v>
       </c>
       <c r="G64">
-        <v>0.06893974416125258</v>
+        <v>0.06559793058870558</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
@@ -3339,16 +3339,16 @@
         <v>53</v>
       </c>
       <c r="D65">
-        <v>-1.07</v>
+        <v>-1.02</v>
       </c>
       <c r="E65">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="F65">
-        <v>0.105</v>
+        <v>0.135</v>
       </c>
       <c r="G65">
-        <v>0.2215456022565171</v>
+        <v>0.2215706069526703</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
@@ -3365,16 +3365,16 @@
         <v>54</v>
       </c>
       <c r="D66">
-        <v>-1.23</v>
+        <v>-1.22</v>
       </c>
       <c r="E66">
-        <v>0.54</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F66">
-        <v>-0.345</v>
+        <v>-0.33</v>
       </c>
       <c r="G66">
-        <v>-0.7632054646983274</v>
+        <v>-0.7440406736056997</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
@@ -3394,13 +3394,13 @@
         <v>-0.39</v>
       </c>
       <c r="E67">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="F67">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="G67">
-        <v>0.9853517538143561</v>
+        <v>0.9847529990561451</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -3417,16 +3417,16 @@
         <v>56</v>
       </c>
       <c r="D68">
-        <v>-0.43</v>
+        <v>-0.44</v>
       </c>
       <c r="E68">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="F68">
         <v>0.06999999999999998</v>
       </c>
       <c r="G68">
-        <v>0.253304716990338</v>
+        <v>0.2689973264347747</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
@@ -3443,16 +3443,16 @@
         <v>57</v>
       </c>
       <c r="D69">
-        <v>-1.58</v>
+        <v>-1.55</v>
       </c>
       <c r="E69">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="F69">
-        <v>-0.42</v>
+        <v>-0.385</v>
       </c>
       <c r="G69">
-        <v>-0.6626078962698155</v>
+        <v>-0.6432933920353997</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>58</v>
       </c>
       <c r="D70">
-        <v>-0.54</v>
+        <v>-0.53</v>
       </c>
       <c r="E70">
-        <v>2.44</v>
+        <v>2.43</v>
       </c>
       <c r="F70">
-        <v>0.95</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="G70">
-        <v>1.267153359132787</v>
+        <v>1.262293095754954</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -3495,16 +3495,16 @@
         <v>59</v>
       </c>
       <c r="D71">
-        <v>-1.35</v>
+        <v>-1.36</v>
       </c>
       <c r="E71">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="F71">
-        <v>-0.305</v>
+        <v>-0.3</v>
       </c>
       <c r="G71">
-        <v>-0.5582788237150391</v>
+        <v>-0.5474991798041152</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
@@ -3530,7 +3530,7 @@
         <v>-0.065</v>
       </c>
       <c r="G72">
-        <v>-0.1932095825361209</v>
+        <v>-0.1893710839793739</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -3547,16 +3547,16 @@
         <v>61</v>
       </c>
       <c r="D73">
-        <v>-1.69</v>
+        <v>-1.66</v>
       </c>
       <c r="E73">
-        <v>0.76</v>
+        <v>0.71</v>
       </c>
       <c r="F73">
-        <v>-0.465</v>
+        <v>-0.475</v>
       </c>
       <c r="G73">
-        <v>-0.7818619073709704</v>
+        <v>-0.7811800988799061</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -3573,16 +3573,16 @@
         <v>62</v>
       </c>
       <c r="D74">
-        <v>-1.85</v>
+        <v>-1.83</v>
       </c>
       <c r="E74">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="F74">
-        <v>-0.135</v>
+        <v>-0.115</v>
       </c>
       <c r="G74">
-        <v>-0.1450280347030306</v>
+        <v>-0.1376864980787867</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -3599,16 +3599,16 @@
         <v>63</v>
       </c>
       <c r="D75">
-        <v>-1.42</v>
+        <v>-1.48</v>
       </c>
       <c r="E75">
         <v>2.15</v>
       </c>
       <c r="F75">
-        <v>0.365</v>
+        <v>0.335</v>
       </c>
       <c r="G75">
-        <v>0.3852187100524468</v>
+        <v>0.3788480049388824</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -3625,16 +3625,16 @@
         <v>64</v>
       </c>
       <c r="D76">
-        <v>-1.11</v>
+        <v>-1.08</v>
       </c>
       <c r="E76">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="F76">
-        <v>0.4199999999999999</v>
+        <v>0.4649999999999999</v>
       </c>
       <c r="G76">
-        <v>0.578238897458071</v>
+        <v>0.5916099253973995</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
@@ -3654,13 +3654,13 @@
         <v>-0.99</v>
       </c>
       <c r="E77">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="F77">
-        <v>0.6549999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="G77">
-        <v>0.8019620100010397</v>
+        <v>0.7952533409470397</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -3677,16 +3677,16 @@
         <v>66</v>
       </c>
       <c r="D78">
-        <v>-0.32</v>
+        <v>-0.34</v>
       </c>
       <c r="E78">
-        <v>2.39</v>
+        <v>2.4</v>
       </c>
       <c r="F78">
-        <v>1.035</v>
+        <v>1.03</v>
       </c>
       <c r="G78">
-        <v>1.496769410803499</v>
+        <v>1.495468890004694</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
@@ -3703,16 +3703,16 @@
         <v>67</v>
       </c>
       <c r="D79">
-        <v>-1.22</v>
+        <v>-1.18</v>
       </c>
       <c r="E79">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="F79">
-        <v>0.08999999999999997</v>
+        <v>0.14</v>
       </c>
       <c r="G79">
-        <v>0.1656476776437366</v>
+        <v>0.1747570830049376</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -3729,16 +3729,16 @@
         <v>68</v>
       </c>
       <c r="D80">
-        <v>-2.27</v>
+        <v>-2.31</v>
       </c>
       <c r="E80">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="F80">
-        <v>-0.88</v>
+        <v>-0.885</v>
       </c>
       <c r="G80">
-        <v>-1.236353959329072</v>
+        <v>-1.229309667074134</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
@@ -3755,16 +3755,16 @@
         <v>69</v>
       </c>
       <c r="D81">
-        <v>-2.69</v>
+        <v>-2.6</v>
       </c>
       <c r="E81">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="F81">
-        <v>-0.8799999999999999</v>
+        <v>-0.845</v>
       </c>
       <c r="G81">
-        <v>-0.950949413428646</v>
+        <v>-0.9682768245759161</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -3781,16 +3781,16 @@
         <v>70</v>
       </c>
       <c r="D82">
-        <v>-0.65</v>
+        <v>-0.66</v>
       </c>
       <c r="E82">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="F82">
         <v>-0.15</v>
       </c>
       <c r="G82">
-        <v>-0.6095724964475534</v>
+        <v>-0.6069330685215197</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -3810,13 +3810,13 @@
         <v>-0.55</v>
       </c>
       <c r="E83">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F83">
-        <v>0.175</v>
+        <v>0.19</v>
       </c>
       <c r="G83">
-        <v>0.4905923458974762</v>
+        <v>0.4688446400759194</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0.48</v>
       </c>
       <c r="G84">
-        <v>0.9012012236849251</v>
+        <v>0.9039643696001077</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -3859,16 +3859,16 @@
         <v>73</v>
       </c>
       <c r="D85">
-        <v>-0.8</v>
+        <v>-0.84</v>
       </c>
       <c r="E85">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="F85">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="G85">
-        <v>0.5749123199653273</v>
+        <v>0.5729691004771068</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -3894,7 +3894,7 @@
         <v>0.11</v>
       </c>
       <c r="G86">
-        <v>0.2451124659769737</v>
+        <v>0.2342030666054126</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -3914,13 +3914,13 @@
         <v>-1.23</v>
       </c>
       <c r="E87">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="F87">
-        <v>-0.445</v>
+        <v>-0.435</v>
       </c>
       <c r="G87">
-        <v>-1.08709612491355</v>
+        <v>-1.06659797741651</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -3937,19 +3937,19 @@
         <v>76</v>
       </c>
       <c r="D88">
-        <v>-1.02</v>
+        <v>-1</v>
       </c>
       <c r="E88">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="F88">
-        <v>-0.515</v>
+        <v>-0.5</v>
       </c>
       <c r="G88">
-        <v>-1.980047813191644</v>
+        <v>-1.99613283814224</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3963,16 +3963,16 @@
         <v>77</v>
       </c>
       <c r="D89">
-        <v>-1.25</v>
+        <v>-1.26</v>
       </c>
       <c r="E89">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="F89">
-        <v>-0.08999999999999997</v>
+        <v>-0.115</v>
       </c>
       <c r="G89">
-        <v>-0.1675769501059721</v>
+        <v>-0.1649349458109571</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>-0.475</v>
       </c>
       <c r="G90">
-        <v>-0.639996205658544</v>
+        <v>-0.6312315947698445</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -4015,16 +4015,16 @@
         <v>79</v>
       </c>
       <c r="D91">
-        <v>-1.49</v>
+        <v>-1.54</v>
       </c>
       <c r="E91">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="F91">
-        <v>-0.445</v>
+        <v>-0.46</v>
       </c>
       <c r="G91">
-        <v>-0.858801329129755</v>
+        <v>-0.84838913870368</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -4041,16 +4041,16 @@
         <v>80</v>
       </c>
       <c r="D92">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E92">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="F92">
-        <v>0.8250000000000001</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G92">
-        <v>2.164907535866379</v>
+        <v>2.139535457451752</v>
       </c>
       <c r="H92" t="b">
         <v>1</v>
@@ -4067,16 +4067,16 @@
         <v>81</v>
       </c>
       <c r="D93">
-        <v>-1.43</v>
+        <v>-1.45</v>
       </c>
       <c r="E93">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F93">
-        <v>-0.24</v>
+        <v>-0.265</v>
       </c>
       <c r="G93">
-        <v>-0.4202382249375256</v>
+        <v>-0.4188821856242883</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
@@ -4093,16 +4093,16 @@
         <v>82</v>
       </c>
       <c r="D94">
-        <v>-1.12</v>
+        <v>-1.17</v>
       </c>
       <c r="E94">
-        <v>2.21</v>
+        <v>2.25</v>
       </c>
       <c r="F94">
-        <v>0.5449999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="G94">
-        <v>0.6422336082207714</v>
+        <v>0.6158665776684221</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -4119,16 +4119,16 @@
         <v>83</v>
       </c>
       <c r="D95">
-        <v>-1.72</v>
+        <v>-1.73</v>
       </c>
       <c r="E95">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="F95">
-        <v>0.07500000000000007</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G95">
-        <v>0.06709952625018251</v>
+        <v>0.06938458040874411</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -4145,16 +4145,16 @@
         <v>84</v>
       </c>
       <c r="D96">
-        <v>-1.72</v>
+        <v>-1.76</v>
       </c>
       <c r="E96">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="F96">
-        <v>-0.155</v>
+        <v>-0.195</v>
       </c>
       <c r="G96">
-        <v>-0.2180468701089911</v>
+        <v>-0.2264496490370049</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -4171,16 +4171,16 @@
         <v>85</v>
       </c>
       <c r="D97">
-        <v>-1.6</v>
+        <v>-1.56</v>
       </c>
       <c r="E97">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="F97">
-        <v>0.05999999999999994</v>
+        <v>0.11</v>
       </c>
       <c r="G97">
-        <v>0.0991667871138702</v>
+        <v>0.1039039936353834</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
@@ -4197,16 +4197,16 @@
         <v>86</v>
       </c>
       <c r="D98">
-        <v>-1.75</v>
+        <v>-1.68</v>
       </c>
       <c r="E98">
-        <v>0.98</v>
+        <v>1.01</v>
       </c>
       <c r="F98">
-        <v>-0.385</v>
+        <v>-0.335</v>
       </c>
       <c r="G98">
-        <v>-0.5257376890354087</v>
+        <v>-0.4936891430465831</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -4226,13 +4226,13 @@
         <v>-1.61</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="F99">
-        <v>-0.305</v>
+        <v>-0.3150000000000001</v>
       </c>
       <c r="G99">
-        <v>-0.469429451443881</v>
+        <v>-0.4805983825380926</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -4252,13 +4252,13 @@
         <v>-1.89</v>
       </c>
       <c r="E100">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="F100">
-        <v>-0.4999999999999999</v>
+        <v>-0.4899999999999999</v>
       </c>
       <c r="G100">
-        <v>-0.6932615921835319</v>
+        <v>-0.6995707174028225</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -4278,13 +4278,13 @@
         <v>-1.32</v>
       </c>
       <c r="E101">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="F101">
-        <v>0.4500000000000001</v>
+        <v>0.4600000000000001</v>
       </c>
       <c r="G101">
-        <v>0.496575513822079</v>
+        <v>0.5003567569401092</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
@@ -4301,16 +4301,16 @@
         <v>90</v>
       </c>
       <c r="D102">
-        <v>-0.79</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="E102">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="F102">
-        <v>-0.295</v>
+        <v>-0.3100000000000001</v>
       </c>
       <c r="G102">
-        <v>-1.180953903487792</v>
+        <v>-1.179052348844695</v>
       </c>
       <c r="H102" t="b">
         <v>0</v>
@@ -4327,16 +4327,16 @@
         <v>91</v>
       </c>
       <c r="D103">
-        <v>-0.52</v>
+        <v>-0.55</v>
       </c>
       <c r="E103">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F103">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="G103">
-        <v>0.5324117753925958</v>
+        <v>0.5040578197790523</v>
       </c>
       <c r="H103" t="b">
         <v>0</v>
@@ -4353,16 +4353,16 @@
         <v>92</v>
       </c>
       <c r="D104">
-        <v>-0.89</v>
+        <v>-0.92</v>
       </c>
       <c r="E104">
         <v>1.19</v>
       </c>
       <c r="F104">
-        <v>0.15</v>
+        <v>0.135</v>
       </c>
       <c r="G104">
-        <v>0.2475444138644685</v>
+        <v>0.2219823230673675</v>
       </c>
       <c r="H104" t="b">
         <v>0</v>
@@ -4379,16 +4379,16 @@
         <v>93</v>
       </c>
       <c r="D105">
-        <v>-1.19</v>
+        <v>-1.23</v>
       </c>
       <c r="E105">
         <v>1.13</v>
       </c>
       <c r="F105">
-        <v>-0.03000000000000003</v>
+        <v>-0.05000000000000004</v>
       </c>
       <c r="G105">
-        <v>-0.06663704554870398</v>
+        <v>-0.07789284000040268</v>
       </c>
       <c r="H105" t="b">
         <v>0</v>
@@ -4405,16 +4405,16 @@
         <v>94</v>
       </c>
       <c r="D106">
-        <v>-0.8100000000000001</v>
+        <v>-0.83</v>
       </c>
       <c r="E106">
         <v>0.95</v>
       </c>
       <c r="F106">
-        <v>0.06999999999999995</v>
+        <v>0.06</v>
       </c>
       <c r="G106">
-        <v>0.1261222453099606</v>
+        <v>0.1213084280041831</v>
       </c>
       <c r="H106" t="b">
         <v>0</v>
@@ -4431,16 +4431,16 @@
         <v>95</v>
       </c>
       <c r="D107">
-        <v>-0.89</v>
+        <v>-0.93</v>
       </c>
       <c r="E107">
         <v>0.63</v>
       </c>
       <c r="F107">
-        <v>-0.13</v>
+        <v>-0.15</v>
       </c>
       <c r="G107">
-        <v>-0.3770494209379578</v>
+        <v>-0.3654319355779244</v>
       </c>
       <c r="H107" t="b">
         <v>0</v>
@@ -4460,13 +4460,13 @@
         <v>-0.6</v>
       </c>
       <c r="E108">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="F108">
-        <v>-0.105</v>
+        <v>-0.095</v>
       </c>
       <c r="G108">
-        <v>-0.400445759333956</v>
+        <v>-0.3904836763819956</v>
       </c>
       <c r="H108" t="b">
         <v>0</v>
@@ -4483,16 +4483,16 @@
         <v>97</v>
       </c>
       <c r="D109">
-        <v>-1.01</v>
+        <v>-1.02</v>
       </c>
       <c r="E109">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="F109">
-        <v>0.145</v>
+        <v>0.135</v>
       </c>
       <c r="G109">
-        <v>0.2367320118176044</v>
+        <v>0.2353922601148076</v>
       </c>
       <c r="H109" t="b">
         <v>0</v>
@@ -4509,16 +4509,16 @@
         <v>98</v>
       </c>
       <c r="D110">
-        <v>-1.59</v>
+        <v>-1.56</v>
       </c>
       <c r="E110">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="F110">
         <v>-0.06500000000000006</v>
       </c>
       <c r="G110">
-        <v>-0.08649373365585658</v>
+        <v>-0.08945950937841113</v>
       </c>
       <c r="H110" t="b">
         <v>0</v>
@@ -4535,16 +4535,16 @@
         <v>99</v>
       </c>
       <c r="D111">
-        <v>-1.45</v>
+        <v>-1.47</v>
       </c>
       <c r="E111">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="F111">
-        <v>-0.4</v>
+        <v>-0.415</v>
       </c>
       <c r="G111">
-        <v>-0.7846464786651718</v>
+        <v>-0.790776406239479</v>
       </c>
       <c r="H111" t="b">
         <v>0</v>
@@ -4570,7 +4570,7 @@
         <v>0.18</v>
       </c>
       <c r="G112">
-        <v>0.4925680947722281</v>
+        <v>0.4863492070442781</v>
       </c>
       <c r="H112" t="b">
         <v>0</v>
@@ -4587,16 +4587,16 @@
         <v>101</v>
       </c>
       <c r="D113">
-        <v>-1.94</v>
+        <v>-1.92</v>
       </c>
       <c r="E113">
         <v>0.45</v>
       </c>
       <c r="F113">
-        <v>-0.745</v>
+        <v>-0.735</v>
       </c>
       <c r="G113">
-        <v>-1.233725323051217</v>
+        <v>-1.260660198086364</v>
       </c>
       <c r="H113" t="b">
         <v>0</v>
@@ -4613,16 +4613,16 @@
         <v>102</v>
       </c>
       <c r="D114">
-        <v>-1.41</v>
+        <v>-1.39</v>
       </c>
       <c r="E114">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="F114">
-        <v>0.305</v>
+        <v>0.3099999999999999</v>
       </c>
       <c r="G114">
-        <v>0.364344481797831</v>
+        <v>0.371647947383478</v>
       </c>
       <c r="H114" t="b">
         <v>0</v>
@@ -4639,16 +4639,16 @@
         <v>103</v>
       </c>
       <c r="D115">
-        <v>-1.55</v>
+        <v>-1.56</v>
       </c>
       <c r="E115">
         <v>1.99</v>
       </c>
       <c r="F115">
-        <v>0.22</v>
+        <v>0.215</v>
       </c>
       <c r="G115">
-        <v>0.240040486039222</v>
+        <v>0.249545648162651</v>
       </c>
       <c r="H115" t="b">
         <v>0</v>
@@ -4665,16 +4665,16 @@
         <v>104</v>
       </c>
       <c r="D116">
-        <v>-1.58</v>
+        <v>-1.57</v>
       </c>
       <c r="E116">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="F116">
-        <v>-0.03500000000000003</v>
+        <v>-0.01000000000000001</v>
       </c>
       <c r="G116">
-        <v>-0.02619789271373197</v>
+        <v>-0.02096186049288673</v>
       </c>
       <c r="H116" t="b">
         <v>0</v>
@@ -4691,16 +4691,16 @@
         <v>105</v>
       </c>
       <c r="D117">
-        <v>-1.08</v>
+        <v>-1.06</v>
       </c>
       <c r="E117">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="F117">
-        <v>0.5649999999999999</v>
+        <v>0.605</v>
       </c>
       <c r="G117">
-        <v>0.7142359846501454</v>
+        <v>0.7078600308693702</v>
       </c>
       <c r="H117" t="b">
         <v>0</v>
@@ -4717,16 +4717,16 @@
         <v>106</v>
       </c>
       <c r="D118">
-        <v>-1.12</v>
+        <v>-1.1</v>
       </c>
       <c r="E118">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="F118">
-        <v>0.235</v>
+        <v>0.25</v>
       </c>
       <c r="G118">
-        <v>0.3594168400072911</v>
+        <v>0.3721494302663233</v>
       </c>
       <c r="H118" t="b">
         <v>0</v>
@@ -4743,16 +4743,16 @@
         <v>107</v>
       </c>
       <c r="D119">
-        <v>-1.11</v>
+        <v>-1.08</v>
       </c>
       <c r="E119">
         <v>1.52</v>
       </c>
       <c r="F119">
-        <v>0.205</v>
+        <v>0.22</v>
       </c>
       <c r="G119">
-        <v>0.3025175203927927</v>
+        <v>0.3118399499616339</v>
       </c>
       <c r="H119" t="b">
         <v>0</v>
@@ -4769,16 +4769,16 @@
         <v>108</v>
       </c>
       <c r="D120">
-        <v>-1.48</v>
+        <v>-1.53</v>
       </c>
       <c r="E120">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="F120">
-        <v>-0.06999999999999995</v>
+        <v>-0.09999999999999998</v>
       </c>
       <c r="G120">
-        <v>-0.1476914558182822</v>
+        <v>-0.1521038886019926</v>
       </c>
       <c r="H120" t="b">
         <v>0</v>
@@ -4795,16 +4795,16 @@
         <v>109</v>
       </c>
       <c r="D121">
-        <v>-1.97</v>
+        <v>-2</v>
       </c>
       <c r="E121">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="F121">
         <v>-0.245</v>
       </c>
       <c r="G121">
-        <v>-0.2603044730246427</v>
+        <v>-0.2644146865550747</v>
       </c>
       <c r="H121" t="b">
         <v>0</v>
@@ -4824,13 +4824,13 @@
         <v>-0.33</v>
       </c>
       <c r="E122">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="F122">
-        <v>0.165</v>
+        <v>0.17</v>
       </c>
       <c r="G122">
-        <v>0.6929527546177368</v>
+        <v>0.6729529590918496</v>
       </c>
       <c r="H122" t="b">
         <v>0</v>
@@ -4850,13 +4850,13 @@
         <v>-0.46</v>
       </c>
       <c r="E123">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F123">
-        <v>0.28</v>
+        <v>0.275</v>
       </c>
       <c r="G123">
-        <v>0.7534990348215709</v>
+        <v>0.7448479322596057</v>
       </c>
       <c r="H123" t="b">
         <v>0</v>
@@ -4873,16 +4873,16 @@
         <v>112</v>
       </c>
       <c r="D124">
-        <v>-1.18</v>
+        <v>-1.21</v>
       </c>
       <c r="E124">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="F124">
-        <v>-0.135</v>
+        <v>-0.16</v>
       </c>
       <c r="G124">
-        <v>-0.2691222833876307</v>
+        <v>-0.2881296362821955</v>
       </c>
       <c r="H124" t="b">
         <v>0</v>
@@ -4899,16 +4899,16 @@
         <v>113</v>
       </c>
       <c r="D125">
-        <v>-1.1</v>
+        <v>-1.12</v>
       </c>
       <c r="E125">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="F125">
-        <v>0.04999999999999993</v>
+        <v>0.02499999999999991</v>
       </c>
       <c r="G125">
-        <v>0.06410808665059076</v>
+        <v>0.04272511372840159</v>
       </c>
       <c r="H125" t="b">
         <v>0</v>
@@ -4925,16 +4925,16 @@
         <v>114</v>
       </c>
       <c r="D126">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="E126">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="F126">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="G126">
-        <v>2.667265579827636</v>
+        <v>2.706595504953359</v>
       </c>
       <c r="H126" t="b">
         <v>1</v>
@@ -4951,16 +4951,16 @@
         <v>115</v>
       </c>
       <c r="D127">
-        <v>-0.83</v>
+        <v>-0.85</v>
       </c>
       <c r="E127">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="F127">
         <v>-0.065</v>
       </c>
       <c r="G127">
-        <v>-0.16376316536895</v>
+        <v>-0.1759544640564383</v>
       </c>
       <c r="H127" t="b">
         <v>0</v>
@@ -4977,16 +4977,16 @@
         <v>116</v>
       </c>
       <c r="D128">
-        <v>-0.62</v>
+        <v>-0.63</v>
       </c>
       <c r="E128">
         <v>0.37</v>
       </c>
       <c r="F128">
-        <v>-0.125</v>
+        <v>-0.13</v>
       </c>
       <c r="G128">
-        <v>-0.5017782986971545</v>
+        <v>-0.5374120125320883</v>
       </c>
       <c r="H128" t="b">
         <v>0</v>
@@ -5003,16 +5003,16 @@
         <v>117</v>
       </c>
       <c r="D129">
-        <v>-0.8</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="E129">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="F129">
-        <v>0.335</v>
+        <v>0.35</v>
       </c>
       <c r="G129">
-        <v>0.5813601448084681</v>
+        <v>0.5766210443810659</v>
       </c>
       <c r="H129" t="b">
         <v>0</v>
@@ -5029,16 +5029,16 @@
         <v>118</v>
       </c>
       <c r="D130">
-        <v>-1.78</v>
+        <v>-1.83</v>
       </c>
       <c r="E130">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="F130">
-        <v>-0.3150000000000001</v>
+        <v>-0.3350000000000001</v>
       </c>
       <c r="G130">
-        <v>-0.4353440012878815</v>
+        <v>-0.4428168351907575</v>
       </c>
       <c r="H130" t="b">
         <v>0</v>
@@ -5055,16 +5055,16 @@
         <v>119</v>
       </c>
       <c r="D131">
-        <v>-0.8</v>
+        <v>-0.82</v>
       </c>
       <c r="E131">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="F131">
-        <v>0.245</v>
+        <v>0.23</v>
       </c>
       <c r="G131">
-        <v>0.4398946449186349</v>
+        <v>0.4203573750799948</v>
       </c>
       <c r="H131" t="b">
         <v>0</v>
@@ -5081,16 +5081,16 @@
         <v>120</v>
       </c>
       <c r="D132">
-        <v>2.39</v>
+        <v>2.38</v>
       </c>
       <c r="E132">
         <v>3.89</v>
       </c>
       <c r="F132">
-        <v>3.14</v>
+        <v>3.135</v>
       </c>
       <c r="G132">
-        <v>8.223125125469339</v>
+        <v>8.252108519261345</v>
       </c>
       <c r="H132" t="b">
         <v>1</v>
@@ -5107,16 +5107,16 @@
         <v>121</v>
       </c>
       <c r="D133">
-        <v>-1.63</v>
+        <v>-1.66</v>
       </c>
       <c r="E133">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="F133">
-        <v>-0.4249999999999999</v>
+        <v>-0.455</v>
       </c>
       <c r="G133">
-        <v>-0.7546780695631284</v>
+        <v>-0.7627642657637522</v>
       </c>
       <c r="H133" t="b">
         <v>0</v>
@@ -5133,16 +5133,16 @@
         <v>122</v>
       </c>
       <c r="D134">
-        <v>-1.51</v>
+        <v>-1.49</v>
       </c>
       <c r="E134">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="F134">
-        <v>0.2</v>
+        <v>0.215</v>
       </c>
       <c r="G134">
-        <v>0.2368460251696748</v>
+        <v>0.2461554580293713</v>
       </c>
       <c r="H134" t="b">
         <v>0</v>
@@ -5159,16 +5159,16 @@
         <v>123</v>
       </c>
       <c r="D135">
-        <v>-2.04</v>
+        <v>-2</v>
       </c>
       <c r="E135">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="F135">
-        <v>-0.27</v>
+        <v>-0.235</v>
       </c>
       <c r="G135">
-        <v>-0.2695190082724661</v>
+        <v>-0.270830885507348</v>
       </c>
       <c r="H135" t="b">
         <v>0</v>
@@ -5188,13 +5188,13 @@
         <v>-1.14</v>
       </c>
       <c r="E136">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="F136">
-        <v>0.41</v>
+        <v>0.385</v>
       </c>
       <c r="G136">
-        <v>0.506304620463505</v>
+        <v>0.5049806996377401</v>
       </c>
       <c r="H136" t="b">
         <v>0</v>
@@ -5211,16 +5211,16 @@
         <v>125</v>
       </c>
       <c r="D137">
-        <v>-1.46</v>
+        <v>-1.5</v>
       </c>
       <c r="E137">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="F137">
         <v>0.17</v>
       </c>
       <c r="G137">
-        <v>0.1913022310412489</v>
+        <v>0.1877075778468101</v>
       </c>
       <c r="H137" t="b">
         <v>0</v>
@@ -5237,16 +5237,16 @@
         <v>126</v>
       </c>
       <c r="D138">
-        <v>-2.2</v>
+        <v>-2.21</v>
       </c>
       <c r="E138">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="F138">
-        <v>-0.8450000000000001</v>
+        <v>-0.845</v>
       </c>
       <c r="G138">
-        <v>-1.226738918856377</v>
+        <v>-1.223004627491656</v>
       </c>
       <c r="H138" t="b">
         <v>0</v>
@@ -5263,16 +5263,16 @@
         <v>127</v>
       </c>
       <c r="D139">
-        <v>-1.99</v>
+        <v>-1.97</v>
       </c>
       <c r="E139">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="F139">
-        <v>-0.6850000000000001</v>
+        <v>-0.6699999999999999</v>
       </c>
       <c r="G139">
-        <v>-1.002792619557193</v>
+        <v>-1.011969114227257</v>
       </c>
       <c r="H139" t="b">
         <v>0</v>
@@ -5289,16 +5289,16 @@
         <v>128</v>
       </c>
       <c r="D140">
-        <v>-0.49</v>
+        <v>-0.53</v>
       </c>
       <c r="E140">
-        <v>2.3</v>
+        <v>2.31</v>
       </c>
       <c r="F140">
-        <v>0.9049999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="G140">
-        <v>1.275347130287859</v>
+        <v>1.233704476622683</v>
       </c>
       <c r="H140" t="b">
         <v>0</v>
@@ -5315,16 +5315,16 @@
         <v>129</v>
       </c>
       <c r="D141">
-        <v>-1.06</v>
+        <v>-1.04</v>
       </c>
       <c r="E141">
-        <v>2.42</v>
+        <v>2.53</v>
       </c>
       <c r="F141">
-        <v>0.6799999999999999</v>
+        <v>0.7449999999999999</v>
       </c>
       <c r="G141">
-        <v>0.8281216030708143</v>
+        <v>0.8254505289646497</v>
       </c>
       <c r="H141" t="b">
         <v>0</v>
@@ -5341,16 +5341,16 @@
         <v>130</v>
       </c>
       <c r="D142">
-        <v>-0.62</v>
+        <v>-0.61</v>
       </c>
       <c r="E142">
         <v>0.41</v>
       </c>
       <c r="F142">
-        <v>-0.105</v>
+        <v>-0.1</v>
       </c>
       <c r="G142">
-        <v>-0.3900917510466563</v>
+        <v>-0.3714586519693684</v>
       </c>
       <c r="H142" t="b">
         <v>0</v>
@@ -5367,16 +5367,16 @@
         <v>131</v>
       </c>
       <c r="D143">
-        <v>-0.9</v>
+        <v>-0.89</v>
       </c>
       <c r="E143">
-        <v>0.59</v>
+        <v>0.57</v>
       </c>
       <c r="F143">
-        <v>-0.155</v>
+        <v>-0.16</v>
       </c>
       <c r="G143">
-        <v>-0.4072362395946733</v>
+        <v>-0.4123283484679137</v>
       </c>
       <c r="H143" t="b">
         <v>0</v>
@@ -5393,16 +5393,16 @@
         <v>132</v>
       </c>
       <c r="D144">
-        <v>-0.9399999999999999</v>
+        <v>-0.98</v>
       </c>
       <c r="E144">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="F144">
-        <v>0.09999999999999998</v>
+        <v>0.07000000000000006</v>
       </c>
       <c r="G144">
-        <v>0.1458417458875106</v>
+        <v>0.158700340682818</v>
       </c>
       <c r="H144" t="b">
         <v>0</v>
@@ -5428,7 +5428,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="G145">
-        <v>0.02079726528243494</v>
+        <v>0.02614135569976006</v>
       </c>
       <c r="H145" t="b">
         <v>0</v>
@@ -5445,16 +5445,16 @@
         <v>134</v>
       </c>
       <c r="D146">
-        <v>-0.4</v>
+        <v>-0.38</v>
       </c>
       <c r="E146">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="F146">
-        <v>0.485</v>
+        <v>0.5049999999999999</v>
       </c>
       <c r="G146">
-        <v>1.110180837442225</v>
+        <v>1.116108234627169</v>
       </c>
       <c r="H146" t="b">
         <v>0</v>
@@ -5480,7 +5480,7 @@
         <v>-0.1</v>
       </c>
       <c r="G147">
-        <v>-0.2445282643642064</v>
+        <v>-0.2452290973966955</v>
       </c>
       <c r="H147" t="b">
         <v>0</v>
@@ -5500,13 +5500,13 @@
         <v>-0.5</v>
       </c>
       <c r="E148">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="G148">
-        <v>-0.002711598929622993</v>
+        <v>0.01110767009620587</v>
       </c>
       <c r="H148" t="b">
         <v>0</v>
@@ -5523,16 +5523,16 @@
         <v>137</v>
       </c>
       <c r="D149">
-        <v>-0.99</v>
+        <v>-1.02</v>
       </c>
       <c r="E149">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="F149">
-        <v>0.165</v>
+        <v>0.135</v>
       </c>
       <c r="G149">
-        <v>0.2503246215516885</v>
+        <v>0.2352211529696567</v>
       </c>
       <c r="H149" t="b">
         <v>0</v>
@@ -5549,16 +5549,16 @@
         <v>138</v>
       </c>
       <c r="D150">
-        <v>-1.97</v>
+        <v>-1.91</v>
       </c>
       <c r="E150">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F150">
-        <v>-0.48</v>
+        <v>-0.445</v>
       </c>
       <c r="G150">
-        <v>-0.6050798812673548</v>
+        <v>-0.5868877463806134</v>
       </c>
       <c r="H150" t="b">
         <v>0</v>
@@ -5578,13 +5578,13 @@
         <v>-0.91</v>
       </c>
       <c r="E151">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="F151">
-        <v>0.145</v>
+        <v>0.135</v>
       </c>
       <c r="G151">
-        <v>0.246478063332684</v>
+        <v>0.2652837629758923</v>
       </c>
       <c r="H151" t="b">
         <v>0</v>
@@ -5604,13 +5604,13 @@
         <v>0.16</v>
       </c>
       <c r="E152">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="F152">
-        <v>0.9149999999999999</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="G152">
-        <v>2.408432866215102</v>
+        <v>2.423329175086533</v>
       </c>
       <c r="H152" t="b">
         <v>1</v>
@@ -5630,13 +5630,13 @@
         <v>-1.19</v>
       </c>
       <c r="E153">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="F153">
-        <v>-0.01000000000000001</v>
+        <v>-0.01500000000000001</v>
       </c>
       <c r="G153">
-        <v>-0.02704977374020235</v>
+        <v>-0.01666161111567798</v>
       </c>
       <c r="H153" t="b">
         <v>0</v>
@@ -5662,7 +5662,7 @@
         <v>-0.15</v>
       </c>
       <c r="G154">
-        <v>-0.1645140218514396</v>
+        <v>-0.1851085171629655</v>
       </c>
       <c r="H154" t="b">
         <v>0</v>
@@ -5679,16 +5679,16 @@
         <v>143</v>
       </c>
       <c r="D155">
-        <v>-1.82</v>
+        <v>-1.88</v>
       </c>
       <c r="E155">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="F155">
-        <v>-0.03500000000000003</v>
+        <v>-0.05999999999999994</v>
       </c>
       <c r="G155">
-        <v>-0.03290620923743789</v>
+        <v>-0.05538570982308696</v>
       </c>
       <c r="H155" t="b">
         <v>0</v>
@@ -5705,16 +5705,16 @@
         <v>144</v>
       </c>
       <c r="D156">
-        <v>-1.6</v>
+        <v>-1.63</v>
       </c>
       <c r="E156">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="F156">
-        <v>-0.03500000000000003</v>
+        <v>-0.07999999999999996</v>
       </c>
       <c r="G156">
-        <v>-0.1064282772114713</v>
+        <v>-0.08574235772562878</v>
       </c>
       <c r="H156" t="b">
         <v>0</v>
@@ -5731,16 +5731,16 @@
         <v>145</v>
       </c>
       <c r="D157">
-        <v>-1.85</v>
+        <v>-1.82</v>
       </c>
       <c r="E157">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="F157">
-        <v>-0.175</v>
+        <v>-0.15</v>
       </c>
       <c r="G157">
-        <v>-0.186021407883422</v>
+        <v>-0.1924864599490495</v>
       </c>
       <c r="H157" t="b">
         <v>0</v>
@@ -5757,16 +5757,16 @@
         <v>146</v>
       </c>
       <c r="D158">
-        <v>-1.18</v>
+        <v>-1.17</v>
       </c>
       <c r="E158">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="F158">
-        <v>0.17</v>
+        <v>0.1900000000000001</v>
       </c>
       <c r="G158">
-        <v>0.25357498214515</v>
+        <v>0.2641459787803171</v>
       </c>
       <c r="H158" t="b">
         <v>0</v>
@@ -5783,16 +5783,16 @@
         <v>147</v>
       </c>
       <c r="D159">
-        <v>-1.29</v>
+        <v>-1.27</v>
       </c>
       <c r="E159">
         <v>1.32</v>
       </c>
       <c r="F159">
-        <v>0.01500000000000001</v>
+        <v>0.02500000000000002</v>
       </c>
       <c r="G159">
-        <v>0.05041972748270705</v>
+        <v>0.05367552137287877</v>
       </c>
       <c r="H159" t="b">
         <v>0</v>
@@ -5812,13 +5812,13 @@
         <v>-1.09</v>
       </c>
       <c r="E160">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="F160">
-        <v>0.2949999999999999</v>
+        <v>0.3149999999999999</v>
       </c>
       <c r="G160">
-        <v>0.423790266826417</v>
+        <v>0.4364179960666031</v>
       </c>
       <c r="H160" t="b">
         <v>0</v>
@@ -5835,16 +5835,16 @@
         <v>149</v>
       </c>
       <c r="D161">
-        <v>-1.56</v>
+        <v>-1.62</v>
       </c>
       <c r="E161">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="F161">
-        <v>0.1699999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="G161">
-        <v>0.1589525371248622</v>
+        <v>0.1502971809400365</v>
       </c>
       <c r="H161" t="b">
         <v>0</v>
@@ -5870,7 +5870,7 @@
         <v>0.135</v>
       </c>
       <c r="G162">
-        <v>0.5320002454484377</v>
+        <v>0.5201981040514387</v>
       </c>
       <c r="H162" t="b">
         <v>0</v>
@@ -5887,16 +5887,16 @@
         <v>151</v>
       </c>
       <c r="D163">
-        <v>-1.35</v>
+        <v>-1.36</v>
       </c>
       <c r="E163">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F163">
         <v>-0.63</v>
       </c>
       <c r="G163">
-        <v>-1.718650915658944</v>
+        <v>-1.720353048222709</v>
       </c>
       <c r="H163" t="b">
         <v>0</v>
@@ -5913,16 +5913,16 @@
         <v>152</v>
       </c>
       <c r="D164">
-        <v>-0.77</v>
+        <v>-0.74</v>
       </c>
       <c r="E164">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="F164">
-        <v>0.285</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="G164">
-        <v>0.5522710908038786</v>
+        <v>0.5665721280320329</v>
       </c>
       <c r="H164" t="b">
         <v>0</v>
@@ -5939,16 +5939,16 @@
         <v>153</v>
       </c>
       <c r="D165">
-        <v>-1.34</v>
+        <v>-1.33</v>
       </c>
       <c r="E165">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="F165">
-        <v>-0.175</v>
+        <v>-0.16</v>
       </c>
       <c r="G165">
-        <v>-0.2848128638340816</v>
+        <v>-0.2771166322334385</v>
       </c>
       <c r="H165" t="b">
         <v>0</v>
@@ -5968,13 +5968,13 @@
         <v>-0.37</v>
       </c>
       <c r="E166">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="F166">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="G166">
-        <v>1.123859780336996</v>
+        <v>1.105347718017921</v>
       </c>
       <c r="H166" t="b">
         <v>0</v>
@@ -5991,16 +5991,16 @@
         <v>155</v>
       </c>
       <c r="D167">
-        <v>-1.15</v>
+        <v>-1.16</v>
       </c>
       <c r="E167">
         <v>0.41</v>
       </c>
       <c r="F167">
-        <v>-0.37</v>
+        <v>-0.375</v>
       </c>
       <c r="G167">
-        <v>-0.9456722878910017</v>
+        <v>-0.9706327802107011</v>
       </c>
       <c r="H167" t="b">
         <v>0</v>
@@ -6017,16 +6017,16 @@
         <v>156</v>
       </c>
       <c r="D168">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="E168">
         <v>1.92</v>
       </c>
       <c r="F168">
-        <v>1.415</v>
+        <v>1.42</v>
       </c>
       <c r="G168">
-        <v>5.612094741013302</v>
+        <v>5.584872378336489</v>
       </c>
       <c r="H168" t="b">
         <v>1</v>
@@ -6043,16 +6043,16 @@
         <v>157</v>
       </c>
       <c r="D169">
-        <v>-1.16</v>
+        <v>-1.19</v>
       </c>
       <c r="E169">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="F169">
-        <v>-0.005000000000000004</v>
+        <v>-0.02500000000000002</v>
       </c>
       <c r="G169">
-        <v>-0.02761446832151705</v>
+        <v>-0.0392545498107849</v>
       </c>
       <c r="H169" t="b">
         <v>0</v>
@@ -6069,16 +6069,16 @@
         <v>158</v>
       </c>
       <c r="D170">
-        <v>-2.1</v>
+        <v>-2.13</v>
       </c>
       <c r="E170">
-        <v>0.79</v>
+        <v>0.86</v>
       </c>
       <c r="F170">
-        <v>-0.655</v>
+        <v>-0.635</v>
       </c>
       <c r="G170">
-        <v>-0.8580447054752178</v>
+        <v>-0.8459707390918461</v>
       </c>
       <c r="H170" t="b">
         <v>0</v>
@@ -6095,16 +6095,16 @@
         <v>159</v>
       </c>
       <c r="D171">
-        <v>-1.26</v>
+        <v>-1.31</v>
       </c>
       <c r="E171">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="F171">
-        <v>-0.225</v>
+        <v>-0.2450000000000001</v>
       </c>
       <c r="G171">
-        <v>-0.4440651054637401</v>
+        <v>-0.4499681963389828</v>
       </c>
       <c r="H171" t="b">
         <v>0</v>
@@ -6121,16 +6121,16 @@
         <v>160</v>
       </c>
       <c r="D172">
-        <v>-0.91</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="E172">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="F172">
-        <v>-0.165</v>
+        <v>-0.185</v>
       </c>
       <c r="G172">
-        <v>-0.4843887687210921</v>
+        <v>-0.4808889298227777</v>
       </c>
       <c r="H172" t="b">
         <v>0</v>
@@ -6150,13 +6150,13 @@
         <v>-0.74</v>
       </c>
       <c r="E173">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="F173">
-        <v>0.455</v>
+        <v>0.445</v>
       </c>
       <c r="G173">
-        <v>0.7002810637805507</v>
+        <v>0.7215909719730962</v>
       </c>
       <c r="H173" t="b">
         <v>0</v>
@@ -6173,16 +6173,16 @@
         <v>162</v>
       </c>
       <c r="D174">
-        <v>-1.72</v>
+        <v>-1.7</v>
       </c>
       <c r="E174">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="F174">
-        <v>0.01500000000000001</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="G174">
-        <v>0.002685683714997803</v>
+        <v>0.002555161568873396</v>
       </c>
       <c r="H174" t="b">
         <v>0</v>
@@ -6199,16 +6199,16 @@
         <v>163</v>
       </c>
       <c r="D175">
-        <v>-2.54</v>
+        <v>-2.51</v>
       </c>
       <c r="E175">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="F175">
-        <v>-0.72</v>
+        <v>-0.7149999999999999</v>
       </c>
       <c r="G175">
-        <v>-0.7881177985509329</v>
+        <v>-0.7912874139338372</v>
       </c>
       <c r="H175" t="b">
         <v>0</v>
@@ -6228,13 +6228,13 @@
         <v>-0.48</v>
       </c>
       <c r="E176">
-        <v>2.62</v>
+        <v>2.59</v>
       </c>
       <c r="F176">
-        <v>1.07</v>
+        <v>1.055</v>
       </c>
       <c r="G176">
-        <v>1.37234957555509</v>
+        <v>1.361851398910218</v>
       </c>
       <c r="H176" t="b">
         <v>0</v>
@@ -6254,13 +6254,13 @@
         <v>-2.14</v>
       </c>
       <c r="E177">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="F177">
-        <v>-0.5000000000000001</v>
+        <v>-0.5050000000000001</v>
       </c>
       <c r="G177">
-        <v>-0.6190738999151338</v>
+        <v>-0.614595648631822</v>
       </c>
       <c r="H177" t="b">
         <v>0</v>
@@ -6277,16 +6277,16 @@
         <v>166</v>
       </c>
       <c r="D178">
-        <v>-1.53</v>
+        <v>-1.52</v>
       </c>
       <c r="E178">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="F178">
-        <v>-0.18</v>
+        <v>-0.17</v>
       </c>
       <c r="G178">
-        <v>-0.2403096074244806</v>
+        <v>-0.249802604257452</v>
       </c>
       <c r="H178" t="b">
         <v>0</v>
@@ -6303,16 +6303,16 @@
         <v>167</v>
       </c>
       <c r="D179">
-        <v>-1.43</v>
+        <v>-1.47</v>
       </c>
       <c r="E179">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="F179">
-        <v>-0.12</v>
+        <v>-0.145</v>
       </c>
       <c r="G179">
-        <v>-0.1791080567932683</v>
+        <v>-0.1937752002369153</v>
       </c>
       <c r="H179" t="b">
         <v>0</v>
@@ -6329,16 +6329,16 @@
         <v>168</v>
       </c>
       <c r="D180">
-        <v>0.53</v>
+        <v>0.59</v>
       </c>
       <c r="E180">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="F180">
-        <v>1.99</v>
+        <v>1.995</v>
       </c>
       <c r="G180">
-        <v>2.659525438395558</v>
+        <v>2.773699996524947</v>
       </c>
       <c r="H180" t="b">
         <v>1</v>
@@ -6355,16 +6355,16 @@
         <v>169</v>
       </c>
       <c r="D181">
-        <v>-2.02</v>
+        <v>-1.95</v>
       </c>
       <c r="E181">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="F181">
-        <v>-0.235</v>
+        <v>-0.22</v>
       </c>
       <c r="G181">
-        <v>-0.2344355313216283</v>
+        <v>-0.2551781309043753</v>
       </c>
       <c r="H181" t="b">
         <v>0</v>
@@ -6384,13 +6384,13 @@
         <v>-0.61</v>
       </c>
       <c r="E182">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="F182">
-        <v>-0.1</v>
+        <v>-0.105</v>
       </c>
       <c r="G182">
-        <v>-0.3906322991484375</v>
+        <v>-0.4067294611610072</v>
       </c>
       <c r="H182" t="b">
         <v>0</v>
@@ -6407,16 +6407,16 @@
         <v>171</v>
       </c>
       <c r="D183">
-        <v>-0.42</v>
+        <v>-0.43</v>
       </c>
       <c r="E183">
         <v>1.05</v>
       </c>
       <c r="F183">
-        <v>0.3150000000000001</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="G183">
-        <v>0.8541936329917842</v>
+        <v>0.8453229319186891</v>
       </c>
       <c r="H183" t="b">
         <v>0</v>
@@ -6433,16 +6433,16 @@
         <v>172</v>
       </c>
       <c r="D184">
-        <v>-1.08</v>
+        <v>-1.09</v>
       </c>
       <c r="E184">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="F184">
-        <v>-0.04000000000000004</v>
+        <v>-0.03000000000000003</v>
       </c>
       <c r="G184">
-        <v>-0.06248802256814635</v>
+        <v>-0.06300246283491329</v>
       </c>
       <c r="H184" t="b">
         <v>0</v>
@@ -6459,16 +6459,16 @@
         <v>173</v>
       </c>
       <c r="D185">
-        <v>-1.28</v>
+        <v>-1.26</v>
       </c>
       <c r="E185">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="F185">
-        <v>-0.115</v>
+        <v>-0.09499999999999997</v>
       </c>
       <c r="G185">
-        <v>-0.1761342974914554</v>
+        <v>-0.1652293224202838</v>
       </c>
       <c r="H185" t="b">
         <v>0</v>
@@ -6485,16 +6485,16 @@
         <v>174</v>
       </c>
       <c r="D186">
-        <v>-0.9399999999999999</v>
+        <v>-0.92</v>
       </c>
       <c r="E186">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
       <c r="F186">
-        <v>-0.04499999999999998</v>
+        <v>-0.05000000000000004</v>
       </c>
       <c r="G186">
-        <v>-0.1240705959022127</v>
+        <v>-0.1181385085721256</v>
       </c>
       <c r="H186" t="b">
         <v>0</v>
@@ -6511,16 +6511,16 @@
         <v>175</v>
       </c>
       <c r="D187">
-        <v>-1.03</v>
+        <v>-1.01</v>
       </c>
       <c r="E187">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="F187">
-        <v>-0.235</v>
+        <v>-0.23</v>
       </c>
       <c r="G187">
-        <v>-0.6000745290864375</v>
+        <v>-0.6056172700486563</v>
       </c>
       <c r="H187" t="b">
         <v>0</v>
@@ -6537,16 +6537,16 @@
         <v>176</v>
       </c>
       <c r="D188">
-        <v>-0.64</v>
+        <v>-0.63</v>
       </c>
       <c r="E188">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="F188">
-        <v>-0.14</v>
+        <v>-0.13</v>
       </c>
       <c r="G188">
-        <v>-0.5209737672658821</v>
+        <v>-0.5409185613419549</v>
       </c>
       <c r="H188" t="b">
         <v>0</v>
@@ -6563,16 +6563,16 @@
         <v>177</v>
       </c>
       <c r="D189">
-        <v>-0.82</v>
+        <v>-0.83</v>
       </c>
       <c r="E189">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="F189">
-        <v>0.32</v>
+        <v>0.325</v>
       </c>
       <c r="G189">
-        <v>0.5902472023197117</v>
+        <v>0.5626905272092264</v>
       </c>
       <c r="H189" t="b">
         <v>0</v>
@@ -6592,13 +6592,13 @@
         <v>-1.65</v>
       </c>
       <c r="E190">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="F190">
-        <v>-0.1449999999999999</v>
+        <v>-0.1749999999999999</v>
       </c>
       <c r="G190">
-        <v>-0.1958809762824255</v>
+        <v>-0.2037567879780961</v>
       </c>
       <c r="H190" t="b">
         <v>0</v>
@@ -6615,16 +6615,16 @@
         <v>179</v>
       </c>
       <c r="D191">
-        <v>-1.38</v>
+        <v>-1.4</v>
       </c>
       <c r="E191">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="F191">
-        <v>-0.345</v>
+        <v>-0.34</v>
       </c>
       <c r="G191">
-        <v>-0.6512640286509689</v>
+        <v>-0.6485224747457152</v>
       </c>
       <c r="H191" t="b">
         <v>0</v>
@@ -6641,16 +6641,16 @@
         <v>180</v>
       </c>
       <c r="D192">
-        <v>-0.43</v>
+        <v>-0.45</v>
       </c>
       <c r="E192">
         <v>1.05</v>
       </c>
       <c r="F192">
-        <v>0.3100000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="G192">
-        <v>0.8032877975573562</v>
+        <v>0.7786401891629641</v>
       </c>
       <c r="H192" t="b">
         <v>0</v>
@@ -6667,16 +6667,16 @@
         <v>181</v>
       </c>
       <c r="D193">
-        <v>-1.28</v>
+        <v>-1.26</v>
       </c>
       <c r="E193">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="F193">
-        <v>-0.08499999999999996</v>
+        <v>-0.07999999999999996</v>
       </c>
       <c r="G193">
-        <v>-0.150452931528396</v>
+        <v>-0.1483329775523512</v>
       </c>
       <c r="H193" t="b">
         <v>0</v>
@@ -6693,16 +6693,16 @@
         <v>182</v>
       </c>
       <c r="D194">
-        <v>-1.57</v>
+        <v>-1.5</v>
       </c>
       <c r="E194">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="F194">
-        <v>0.1699999999999999</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="G194">
-        <v>0.1915383212800539</v>
+        <v>0.213637832385435</v>
       </c>
       <c r="H194" t="b">
         <v>0</v>
@@ -6719,16 +6719,16 @@
         <v>183</v>
       </c>
       <c r="D195">
-        <v>-1.74</v>
+        <v>-1.71</v>
       </c>
       <c r="E195">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="F195">
-        <v>0.04000000000000004</v>
+        <v>0.06500000000000006</v>
       </c>
       <c r="G195">
-        <v>0.05989896857664394</v>
+        <v>0.06483885473581467</v>
       </c>
       <c r="H195" t="b">
         <v>0</v>
@@ -6748,13 +6748,13 @@
         <v>-1.57</v>
       </c>
       <c r="E196">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="F196">
-        <v>-0.005000000000000004</v>
+        <v>-0.01500000000000001</v>
       </c>
       <c r="G196">
-        <v>-0.006091358146903981</v>
+        <v>-0.009946649835596883</v>
       </c>
       <c r="H196" t="b">
         <v>0</v>
@@ -6771,16 +6771,16 @@
         <v>185</v>
       </c>
       <c r="D197">
-        <v>-1.9</v>
+        <v>-1.92</v>
       </c>
       <c r="E197">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="F197">
-        <v>-0.255</v>
+        <v>-0.26</v>
       </c>
       <c r="G197">
-        <v>-0.3139511520628686</v>
+        <v>-0.2938903800072295</v>
       </c>
       <c r="H197" t="b">
         <v>0</v>
@@ -6797,16 +6797,16 @@
         <v>186</v>
       </c>
       <c r="D198">
-        <v>-1.71</v>
+        <v>-1.68</v>
       </c>
       <c r="E198">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="F198">
-        <v>-0.37</v>
+        <v>-0.34</v>
       </c>
       <c r="G198">
-        <v>-0.5163900116019542</v>
+        <v>-0.5112255093734104</v>
       </c>
       <c r="H198" t="b">
         <v>0</v>
@@ -6823,16 +6823,16 @@
         <v>187</v>
       </c>
       <c r="D199">
-        <v>-1.43</v>
+        <v>-1.42</v>
       </c>
       <c r="E199">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="F199">
-        <v>-0.125</v>
+        <v>-0.11</v>
       </c>
       <c r="G199">
-        <v>-0.1622220417143451</v>
+        <v>-0.1489608438955013</v>
       </c>
       <c r="H199" t="b">
         <v>0</v>
@@ -6849,16 +6849,16 @@
         <v>188</v>
       </c>
       <c r="D200">
-        <v>-1.44</v>
+        <v>-1.5</v>
       </c>
       <c r="E200">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="F200">
-        <v>-0.03499999999999992</v>
+        <v>-0.08999999999999997</v>
       </c>
       <c r="G200">
-        <v>-0.05464424411258664</v>
+        <v>-0.0643215825508965</v>
       </c>
       <c r="H200" t="b">
         <v>0</v>
@@ -6875,16 +6875,16 @@
         <v>189</v>
       </c>
       <c r="D201">
-        <v>-1.53</v>
+        <v>-1.55</v>
       </c>
       <c r="E201">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="F201">
-        <v>0.21</v>
+        <v>0.195</v>
       </c>
       <c r="G201">
-        <v>0.2142957979369436</v>
+        <v>0.2083160316518394</v>
       </c>
       <c r="H201" t="b">
         <v>0</v>
@@ -6910,7 +6910,7 @@
         <v>-0.01000000000000001</v>
       </c>
       <c r="G202">
-        <v>-0.02458654243410886</v>
+        <v>-0.03882832032901578</v>
       </c>
       <c r="H202" t="b">
         <v>0</v>
@@ -6927,16 +6927,16 @@
         <v>191</v>
       </c>
       <c r="D203">
-        <v>-0.63</v>
+        <v>-0.66</v>
       </c>
       <c r="E203">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="F203">
-        <v>0.115</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G203">
-        <v>0.2583662303948719</v>
+        <v>0.2395703336712655</v>
       </c>
       <c r="H203" t="b">
         <v>0</v>
@@ -6956,13 +6956,13 @@
         <v>-1.43</v>
       </c>
       <c r="E204">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="F204">
-        <v>-0.39</v>
+        <v>-0.3799999999999999</v>
       </c>
       <c r="G204">
-        <v>-0.7299005820866151</v>
+        <v>-0.7288246645528303</v>
       </c>
       <c r="H204" t="b">
         <v>0</v>
@@ -6979,16 +6979,16 @@
         <v>193</v>
       </c>
       <c r="D205">
-        <v>-1.11</v>
+        <v>-1.09</v>
       </c>
       <c r="E205">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="F205">
-        <v>0.04999999999999993</v>
+        <v>0.06499999999999995</v>
       </c>
       <c r="G205">
-        <v>0.09301460583894508</v>
+        <v>0.1091939866827381</v>
       </c>
       <c r="H205" t="b">
         <v>0</v>
@@ -7005,16 +7005,16 @@
         <v>194</v>
       </c>
       <c r="D206">
-        <v>-0.8100000000000001</v>
+        <v>-0.82</v>
       </c>
       <c r="E206">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F206">
-        <v>0.06999999999999995</v>
+        <v>0.05500000000000005</v>
       </c>
       <c r="G206">
-        <v>0.152594152691144</v>
+        <v>0.1522652422217803</v>
       </c>
       <c r="H206" t="b">
         <v>0</v>
@@ -7034,13 +7034,13 @@
         <v>-0.82</v>
       </c>
       <c r="E207">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="F207">
-        <v>-0.01999999999999996</v>
+        <v>-0.02999999999999997</v>
       </c>
       <c r="G207">
-        <v>-0.05672311439504257</v>
+        <v>-0.07608466263027258</v>
       </c>
       <c r="H207" t="b">
         <v>0</v>
@@ -7057,16 +7057,16 @@
         <v>196</v>
       </c>
       <c r="D208">
-        <v>-0.64</v>
+        <v>-0.65</v>
       </c>
       <c r="E208">
         <v>0.35</v>
       </c>
       <c r="F208">
-        <v>-0.145</v>
+        <v>-0.15</v>
       </c>
       <c r="G208">
-        <v>-0.5809219526128093</v>
+        <v>-0.5919435790627821</v>
       </c>
       <c r="H208" t="b">
         <v>0</v>
@@ -7086,13 +7086,13 @@
         <v>-0.93</v>
       </c>
       <c r="E209">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="F209">
-        <v>0.2249999999999999</v>
+        <v>0.215</v>
       </c>
       <c r="G209">
-        <v>0.3990905726187705</v>
+        <v>0.3669512274217668</v>
       </c>
       <c r="H209" t="b">
         <v>0</v>
@@ -7109,16 +7109,16 @@
         <v>198</v>
       </c>
       <c r="D210">
-        <v>-1.93</v>
+        <v>-1.91</v>
       </c>
       <c r="E210">
-        <v>0.98</v>
+        <v>1.07</v>
       </c>
       <c r="F210">
-        <v>-0.475</v>
+        <v>-0.4199999999999999</v>
       </c>
       <c r="G210">
-        <v>-0.6211068277605101</v>
+        <v>-0.6048968747185562</v>
       </c>
       <c r="H210" t="b">
         <v>0</v>
@@ -7135,16 +7135,16 @@
         <v>199</v>
       </c>
       <c r="D211">
-        <v>-1.29</v>
+        <v>-1.26</v>
       </c>
       <c r="E211">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="F211">
-        <v>-0.22</v>
+        <v>-0.215</v>
       </c>
       <c r="G211">
-        <v>-0.3736094070877758</v>
+        <v>-0.3948497243842952</v>
       </c>
       <c r="H211" t="b">
         <v>0</v>
@@ -7164,13 +7164,13 @@
         <v>-0.49</v>
       </c>
       <c r="E212">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="F212">
-        <v>0.265</v>
+        <v>0.255</v>
       </c>
       <c r="G212">
-        <v>0.6717041331699574</v>
+        <v>0.6747509119232609</v>
       </c>
       <c r="H212" t="b">
         <v>0</v>
@@ -7187,16 +7187,16 @@
         <v>201</v>
       </c>
       <c r="D213">
-        <v>-1.45</v>
+        <v>-1.5</v>
       </c>
       <c r="E213">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F213">
-        <v>-0.275</v>
+        <v>-0.305</v>
       </c>
       <c r="G213">
-        <v>-0.4844325975045743</v>
+        <v>-0.4925923004011731</v>
       </c>
       <c r="H213" t="b">
         <v>0</v>
@@ -7213,16 +7213,16 @@
         <v>202</v>
       </c>
       <c r="D214">
-        <v>-1.51</v>
+        <v>-1.55</v>
       </c>
       <c r="E214">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="F214">
-        <v>0.1849999999999999</v>
+        <v>0.1699999999999999</v>
       </c>
       <c r="G214">
-        <v>0.1898804740403421</v>
+        <v>0.1720720671840141</v>
       </c>
       <c r="H214" t="b">
         <v>0</v>
@@ -7239,16 +7239,16 @@
         <v>203</v>
       </c>
       <c r="D215">
-        <v>-1.72</v>
+        <v>-1.78</v>
       </c>
       <c r="E215">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="F215">
         <v>0.03500000000000003</v>
       </c>
       <c r="G215">
-        <v>0.0487753350829205</v>
+        <v>0.05469214617698439</v>
       </c>
       <c r="H215" t="b">
         <v>0</v>
@@ -7265,16 +7265,16 @@
         <v>204</v>
       </c>
       <c r="D216">
-        <v>-1.32</v>
+        <v>-1.31</v>
       </c>
       <c r="E216">
         <v>1.83</v>
       </c>
       <c r="F216">
-        <v>0.255</v>
+        <v>0.26</v>
       </c>
       <c r="G216">
-        <v>0.3654469664945935</v>
+        <v>0.3523051987540033</v>
       </c>
       <c r="H216" t="b">
         <v>0</v>
@@ -7291,16 +7291,16 @@
         <v>205</v>
       </c>
       <c r="D217">
-        <v>-1.95</v>
+        <v>-1.89</v>
       </c>
       <c r="E217">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="F217">
-        <v>-0.265</v>
+        <v>-0.25</v>
       </c>
       <c r="G217">
-        <v>-0.2910177198905032</v>
+        <v>-0.2803976212155389</v>
       </c>
       <c r="H217" t="b">
         <v>0</v>
@@ -7320,13 +7320,13 @@
         <v>-1.65</v>
       </c>
       <c r="E218">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="F218">
-        <v>-0.2949999999999999</v>
+        <v>-0.2999999999999999</v>
       </c>
       <c r="G218">
-        <v>-0.4467175347229612</v>
+        <v>-0.4252506816382011</v>
       </c>
       <c r="H218" t="b">
         <v>0</v>
@@ -7343,16 +7343,16 @@
         <v>207</v>
       </c>
       <c r="D219">
-        <v>-1.59</v>
+        <v>-1.58</v>
       </c>
       <c r="E219">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="F219">
-        <v>-0.275</v>
+        <v>-0.28</v>
       </c>
       <c r="G219">
-        <v>-0.4045543863597475</v>
+        <v>-0.4049456319696767</v>
       </c>
       <c r="H219" t="b">
         <v>0</v>
@@ -7372,13 +7372,13 @@
         <v>-1.22</v>
       </c>
       <c r="E220">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="F220">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="G220">
-        <v>0.2549868882442797</v>
+        <v>0.2283012552813594</v>
       </c>
       <c r="H220" t="b">
         <v>0</v>
@@ -7395,16 +7395,16 @@
         <v>209</v>
       </c>
       <c r="D221">
-        <v>-1.04</v>
+        <v>-1.07</v>
       </c>
       <c r="E221">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="F221">
-        <v>0.6799999999999999</v>
+        <v>0.6900000000000001</v>
       </c>
       <c r="G221">
-        <v>0.789699805848227</v>
+        <v>0.7911595179746667</v>
       </c>
       <c r="H221" t="b">
         <v>0</v>
@@ -7424,13 +7424,13 @@
         <v>-0.27</v>
       </c>
       <c r="E222">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="F222">
-        <v>0.23</v>
+        <v>0.235</v>
       </c>
       <c r="G222">
-        <v>0.9102829219032426</v>
+        <v>0.9328815810502261</v>
       </c>
       <c r="H222" t="b">
         <v>0</v>
@@ -7456,7 +7456,7 @@
         <v>-0.19</v>
       </c>
       <c r="G223">
-        <v>-0.5312927033629996</v>
+        <v>-0.5063165401657241</v>
       </c>
       <c r="H223" t="b">
         <v>0</v>
@@ -7473,16 +7473,16 @@
         <v>212</v>
       </c>
       <c r="D224">
-        <v>-1.06</v>
+        <v>-1.05</v>
       </c>
       <c r="E224">
         <v>1.03</v>
       </c>
       <c r="F224">
-        <v>-0.01500000000000001</v>
+        <v>-0.01000000000000001</v>
       </c>
       <c r="G224">
-        <v>-0.009219537497102749</v>
+        <v>-0.007294267780127759</v>
       </c>
       <c r="H224" t="b">
         <v>0</v>
@@ -7502,13 +7502,13 @@
         <v>-0.51</v>
       </c>
       <c r="E225">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="F225">
-        <v>0.655</v>
+        <v>0.635</v>
       </c>
       <c r="G225">
-        <v>1.097310230977193</v>
+        <v>1.080547365779594</v>
       </c>
       <c r="H225" t="b">
         <v>0</v>
@@ -7525,16 +7525,16 @@
         <v>214</v>
       </c>
       <c r="D226">
-        <v>-0.85</v>
+        <v>-0.84</v>
       </c>
       <c r="E226">
         <v>0.93</v>
       </c>
       <c r="F226">
-        <v>0.04000000000000004</v>
+        <v>0.04500000000000004</v>
       </c>
       <c r="G226">
-        <v>0.09758174964656666</v>
+        <v>0.09338279682787975</v>
       </c>
       <c r="H226" t="b">
         <v>0</v>
@@ -7551,16 +7551,16 @@
         <v>215</v>
       </c>
       <c r="D227">
-        <v>-0.97</v>
+        <v>-0.98</v>
       </c>
       <c r="E227">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="F227">
-        <v>-0.19</v>
+        <v>-0.185</v>
       </c>
       <c r="G227">
-        <v>-0.4726906951601776</v>
+        <v>-0.4595570620434268</v>
       </c>
       <c r="H227" t="b">
         <v>0</v>
@@ -7586,7 +7586,7 @@
         <v>0.18</v>
       </c>
       <c r="G228">
-        <v>0.7033295293784763</v>
+        <v>0.7095839041039864</v>
       </c>
       <c r="H228" t="b">
         <v>0</v>
@@ -7603,16 +7603,16 @@
         <v>217</v>
       </c>
       <c r="D229">
-        <v>-1.38</v>
+        <v>-1.4</v>
       </c>
       <c r="E229">
         <v>0.91</v>
       </c>
       <c r="F229">
-        <v>-0.2349999999999999</v>
+        <v>-0.2449999999999999</v>
       </c>
       <c r="G229">
-        <v>-0.4386073801428944</v>
+        <v>-0.4088912677405813</v>
       </c>
       <c r="H229" t="b">
         <v>0</v>
@@ -7629,16 +7629,16 @@
         <v>218</v>
       </c>
       <c r="D230">
-        <v>-1.76</v>
+        <v>-1.77</v>
       </c>
       <c r="E230">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="F230">
-        <v>-0.3</v>
+        <v>-0.285</v>
       </c>
       <c r="G230">
-        <v>-0.3959817617490169</v>
+        <v>-0.3840999623439608</v>
       </c>
       <c r="H230" t="b">
         <v>0</v>
@@ -7655,16 +7655,16 @@
         <v>219</v>
       </c>
       <c r="D231">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="E231">
-        <v>2.24</v>
+        <v>2.25</v>
       </c>
       <c r="F231">
-        <v>1.175</v>
+        <v>1.185</v>
       </c>
       <c r="G231">
-        <v>2.172303363540757</v>
+        <v>2.189039311272863</v>
       </c>
       <c r="H231" t="b">
         <v>1</v>
@@ -7681,16 +7681,16 @@
         <v>220</v>
       </c>
       <c r="D232">
-        <v>-0.71</v>
+        <v>-0.68</v>
       </c>
       <c r="E232">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F232">
-        <v>0.04000000000000004</v>
+        <v>0.065</v>
       </c>
       <c r="G232">
-        <v>0.1455778333364593</v>
+        <v>0.1603375771577955</v>
       </c>
       <c r="H232" t="b">
         <v>0</v>
@@ -7707,16 +7707,16 @@
         <v>221</v>
       </c>
       <c r="D233">
-        <v>-0.87</v>
+        <v>-0.86</v>
       </c>
       <c r="E233">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="F233">
-        <v>0.32</v>
+        <v>0.335</v>
       </c>
       <c r="G233">
-        <v>0.5396584467170876</v>
+        <v>0.5503009296820246</v>
       </c>
       <c r="H233" t="b">
         <v>0</v>
@@ -7733,16 +7733,16 @@
         <v>222</v>
       </c>
       <c r="D234">
-        <v>-1.7</v>
+        <v>-1.73</v>
       </c>
       <c r="E234">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="F234">
-        <v>0.01500000000000001</v>
+        <v>-0.02000000000000002</v>
       </c>
       <c r="G234">
-        <v>-0.008361822501148673</v>
+        <v>-0.01024750464742355</v>
       </c>
       <c r="H234" t="b">
         <v>0</v>
@@ -7759,16 +7759,16 @@
         <v>223</v>
       </c>
       <c r="D235">
-        <v>-1.55</v>
+        <v>-1.57</v>
       </c>
       <c r="E235">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="F235">
-        <v>0.245</v>
+        <v>0.2199999999999999</v>
       </c>
       <c r="G235">
-        <v>0.2458879123766526</v>
+        <v>0.2413674389137073</v>
       </c>
       <c r="H235" t="b">
         <v>0</v>
@@ -7785,16 +7785,16 @@
         <v>224</v>
       </c>
       <c r="D236">
-        <v>-1.5</v>
+        <v>-1.52</v>
       </c>
       <c r="E236">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="F236">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G236">
-        <v>0.0778500225071253</v>
+        <v>0.0548143266878327</v>
       </c>
       <c r="H236" t="b">
         <v>0</v>
@@ -7811,16 +7811,16 @@
         <v>225</v>
       </c>
       <c r="D237">
-        <v>-1.53</v>
+        <v>-1.54</v>
       </c>
       <c r="E237">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="F237">
-        <v>0.09999999999999998</v>
+        <v>0.125</v>
       </c>
       <c r="G237">
-        <v>0.1191132084051635</v>
+        <v>0.1271605891032796</v>
       </c>
       <c r="H237" t="b">
         <v>0</v>
@@ -7837,16 +7837,16 @@
         <v>226</v>
       </c>
       <c r="D238">
-        <v>-0.98</v>
+        <v>-1</v>
       </c>
       <c r="E238">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="F238">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="G238">
-        <v>0.5472270650187869</v>
+        <v>0.5328942355511761</v>
       </c>
       <c r="H238" t="b">
         <v>0</v>
@@ -7863,16 +7863,16 @@
         <v>227</v>
       </c>
       <c r="D239">
-        <v>-1.35</v>
+        <v>-1.33</v>
       </c>
       <c r="E239">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="F239">
-        <v>0</v>
+        <v>-0.005000000000000004</v>
       </c>
       <c r="G239">
-        <v>-0.006553754070662948</v>
+        <v>-0.02832646321321427</v>
       </c>
       <c r="H239" t="b">
         <v>0</v>
@@ -7889,16 +7889,16 @@
         <v>228</v>
       </c>
       <c r="D240">
-        <v>-1.52</v>
+        <v>-1.53</v>
       </c>
       <c r="E240">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="F240">
-        <v>-0.09499999999999997</v>
+        <v>-0.115</v>
       </c>
       <c r="G240">
-        <v>-0.1387459686483564</v>
+        <v>-0.1459288751524601</v>
       </c>
       <c r="H240" t="b">
         <v>0</v>
@@ -7915,16 +7915,16 @@
         <v>229</v>
       </c>
       <c r="D241">
-        <v>-2.18</v>
+        <v>-2.22</v>
       </c>
       <c r="E241">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="F241">
-        <v>-0.43</v>
+        <v>-0.4700000000000001</v>
       </c>
       <c r="G241">
-        <v>-0.535017202450936</v>
+        <v>-0.5239345903284004</v>
       </c>
       <c r="H241" t="b">
         <v>0</v>
@@ -7941,16 +7941,16 @@
         <v>230</v>
       </c>
       <c r="D242">
-        <v>-0.33</v>
+        <v>-0.31</v>
       </c>
       <c r="E242">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F242">
-        <v>0.185</v>
+        <v>0.19</v>
       </c>
       <c r="G242">
-        <v>0.7291254151574148</v>
+        <v>0.728313936441629</v>
       </c>
       <c r="H242" t="b">
         <v>0</v>
@@ -7967,16 +7967,16 @@
         <v>231</v>
       </c>
       <c r="D243">
-        <v>-0.86</v>
+        <v>-0.87</v>
       </c>
       <c r="E243">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="F243">
         <v>-0.125</v>
       </c>
       <c r="G243">
-        <v>-0.3453848609916029</v>
+        <v>-0.3420491057374485</v>
       </c>
       <c r="H243" t="b">
         <v>0</v>
@@ -7993,16 +7993,16 @@
         <v>232</v>
       </c>
       <c r="D244">
-        <v>-1.47</v>
+        <v>-1.46</v>
       </c>
       <c r="E244">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="F244">
-        <v>-0.42</v>
+        <v>-0.41</v>
       </c>
       <c r="G244">
-        <v>-0.7833804217700548</v>
+        <v>-0.7735703297485159</v>
       </c>
       <c r="H244" t="b">
         <v>0</v>
@@ -8022,13 +8022,13 @@
         <v>-1.58</v>
       </c>
       <c r="E245">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="F245">
-        <v>-0.41</v>
+        <v>-0.415</v>
       </c>
       <c r="G245">
-        <v>-0.7151773753981087</v>
+        <v>-0.6909444697416151</v>
       </c>
       <c r="H245" t="b">
         <v>0</v>
@@ -8045,16 +8045,16 @@
         <v>234</v>
       </c>
       <c r="D246">
-        <v>-3.27</v>
+        <v>-3.28</v>
       </c>
       <c r="E246">
-        <v>-1.5</v>
+        <v>-1.52</v>
       </c>
       <c r="F246">
-        <v>-2.385</v>
+        <v>-2.4</v>
       </c>
       <c r="G246">
-        <v>-5.330312257621001</v>
+        <v>-5.390934189821829</v>
       </c>
       <c r="H246" t="b">
         <v>1</v>
@@ -8071,16 +8071,16 @@
         <v>235</v>
       </c>
       <c r="D247">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="E247">
         <v>1.71</v>
       </c>
       <c r="F247">
-        <v>0.915</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="G247">
-        <v>2.269129762284627</v>
+        <v>2.26506583142965</v>
       </c>
       <c r="H247" t="b">
         <v>1</v>
@@ -8097,16 +8097,16 @@
         <v>236</v>
       </c>
       <c r="D248">
-        <v>-0.76</v>
+        <v>-0.74</v>
       </c>
       <c r="E248">
         <v>0.25</v>
       </c>
       <c r="F248">
-        <v>-0.255</v>
+        <v>-0.245</v>
       </c>
       <c r="G248">
-        <v>-0.9724815868204607</v>
+        <v>-0.9834563074383756</v>
       </c>
       <c r="H248" t="b">
         <v>0</v>
@@ -8123,16 +8123,16 @@
         <v>237</v>
       </c>
       <c r="D249">
-        <v>-1.96</v>
+        <v>-1.98</v>
       </c>
       <c r="E249">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="F249">
         <v>-0.8149999999999999</v>
       </c>
       <c r="G249">
-        <v>-1.419259880802647</v>
+        <v>-1.399506754760546</v>
       </c>
       <c r="H249" t="b">
         <v>0</v>
@@ -8152,13 +8152,13 @@
         <v>-0.63</v>
       </c>
       <c r="E250">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="F250">
-        <v>0.835</v>
+        <v>0.845</v>
       </c>
       <c r="G250">
-        <v>1.103567839507388</v>
+        <v>1.105524346269017</v>
       </c>
       <c r="H250" t="b">
         <v>0</v>
@@ -8175,16 +8175,16 @@
         <v>239</v>
       </c>
       <c r="D251">
-        <v>-1.88</v>
+        <v>-1.93</v>
       </c>
       <c r="E251">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="F251">
-        <v>-0.83</v>
+        <v>-0.86</v>
       </c>
       <c r="G251">
-        <v>-1.614745661266662</v>
+        <v>-1.58696620902568</v>
       </c>
       <c r="H251" t="b">
         <v>0</v>
@@ -8201,16 +8201,16 @@
         <v>240</v>
       </c>
       <c r="D252">
-        <v>-8.390000000000001</v>
+        <v>-8.369999999999999</v>
       </c>
       <c r="E252">
-        <v>-6.9</v>
+        <v>-6.87</v>
       </c>
       <c r="F252">
-        <v>-7.645</v>
+        <v>-7.619999999999999</v>
       </c>
       <c r="G252">
-        <v>-20.20294237818716</v>
+        <v>-19.90393899523232</v>
       </c>
       <c r="H252" t="b">
         <v>1</v>
@@ -8227,16 +8227,16 @@
         <v>241</v>
       </c>
       <c r="D253">
-        <v>-0.35</v>
+        <v>-0.38</v>
       </c>
       <c r="E253">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="F253">
-        <v>0.8299999999999998</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G253">
-        <v>1.364721382694644</v>
+        <v>1.338712777996997</v>
       </c>
       <c r="H253" t="b">
         <v>0</v>
@@ -8253,16 +8253,16 @@
         <v>242</v>
       </c>
       <c r="D254">
-        <v>-2.19</v>
+        <v>-2.15</v>
       </c>
       <c r="E254">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="F254">
-        <v>-0.475</v>
+        <v>-0.47</v>
       </c>
       <c r="G254">
-        <v>-0.5210785242200643</v>
+        <v>-0.5282384956307083</v>
       </c>
       <c r="H254" t="b">
         <v>0</v>
@@ -8279,16 +8279,16 @@
         <v>243</v>
       </c>
       <c r="D255">
-        <v>-1.84</v>
+        <v>-1.82</v>
       </c>
       <c r="E255">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="F255">
-        <v>-0.04000000000000004</v>
+        <v>-0.04500000000000004</v>
       </c>
       <c r="G255">
-        <v>-0.0510074713044794</v>
+        <v>-0.04462819084105249</v>
       </c>
       <c r="H255" t="b">
         <v>0</v>
@@ -8305,16 +8305,16 @@
         <v>244</v>
       </c>
       <c r="D256">
-        <v>-2.9</v>
+        <v>-2.92</v>
       </c>
       <c r="E256">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="F256">
-        <v>-1.35</v>
+        <v>-1.345</v>
       </c>
       <c r="G256">
-        <v>-1.707811804227467</v>
+        <v>-1.674288802453586</v>
       </c>
       <c r="H256" t="b">
         <v>0</v>
@@ -8331,16 +8331,16 @@
         <v>245</v>
       </c>
       <c r="D257">
-        <v>-2.65</v>
+        <v>-2.64</v>
       </c>
       <c r="E257">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="F257">
-        <v>-0.9849999999999999</v>
+        <v>-0.99</v>
       </c>
       <c r="G257">
-        <v>-1.16191745113467</v>
+        <v>-1.171502735703342</v>
       </c>
       <c r="H257" t="b">
         <v>0</v>
@@ -8357,16 +8357,16 @@
         <v>246</v>
       </c>
       <c r="D258">
-        <v>-0.9</v>
+        <v>-0.91</v>
       </c>
       <c r="E258">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="F258">
         <v>0.455</v>
       </c>
       <c r="G258">
-        <v>0.6374926261931468</v>
+        <v>0.6480881298554461</v>
       </c>
       <c r="H258" t="b">
         <v>0</v>
@@ -8383,16 +8383,16 @@
         <v>247</v>
       </c>
       <c r="D259">
-        <v>-1.79</v>
+        <v>-1.74</v>
       </c>
       <c r="E259">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="F259">
-        <v>-0.46</v>
+        <v>-0.43</v>
       </c>
       <c r="G259">
-        <v>-0.6577120907954808</v>
+        <v>-0.6653704184511602</v>
       </c>
       <c r="H259" t="b">
         <v>0</v>
@@ -8418,7 +8418,7 @@
         <v>-1</v>
       </c>
       <c r="G260">
-        <v>-1.42778868051883</v>
+        <v>-1.416741624261969</v>
       </c>
       <c r="H260" t="b">
         <v>0</v>
@@ -8435,16 +8435,16 @@
         <v>249</v>
       </c>
       <c r="D261">
-        <v>-2.38</v>
+        <v>-2.42</v>
       </c>
       <c r="E261">
-        <v>1.16</v>
+        <v>1.08</v>
       </c>
       <c r="F261">
-        <v>-0.61</v>
+        <v>-0.6699999999999999</v>
       </c>
       <c r="G261">
-        <v>-0.6909013606495624</v>
+        <v>-0.7445332126589808</v>
       </c>
       <c r="H261" t="b">
         <v>0</v>
@@ -8461,16 +8461,16 @@
         <v>250</v>
       </c>
       <c r="D262">
-        <v>-0.61</v>
+        <v>-0.6</v>
       </c>
       <c r="E262">
         <v>0.39</v>
       </c>
       <c r="F262">
-        <v>-0.11</v>
+        <v>-0.105</v>
       </c>
       <c r="G262">
-        <v>-0.4140656091811205</v>
+        <v>-0.4108648344271421</v>
       </c>
       <c r="H262" t="b">
         <v>0</v>
@@ -8490,13 +8490,13 @@
         <v>-0.84</v>
       </c>
       <c r="E263">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
       <c r="F263">
-        <v>-0.11</v>
+        <v>-0.09499999999999997</v>
       </c>
       <c r="G263">
-        <v>-0.2628910734041891</v>
+        <v>-0.2471621685245419</v>
       </c>
       <c r="H263" t="b">
         <v>0</v>
@@ -8513,16 +8513,16 @@
         <v>252</v>
       </c>
       <c r="D264">
-        <v>-1.18</v>
+        <v>-1.17</v>
       </c>
       <c r="E264">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F264">
-        <v>-0.135</v>
+        <v>-0.115</v>
       </c>
       <c r="G264">
-        <v>-0.238975758250527</v>
+        <v>-0.2184675244195334</v>
       </c>
       <c r="H264" t="b">
         <v>0</v>
@@ -8542,13 +8542,13 @@
         <v>-1.08</v>
       </c>
       <c r="E265">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="F265">
-        <v>0.08499999999999996</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G265">
-        <v>0.1498455269506685</v>
+        <v>0.1446514710485735</v>
       </c>
       <c r="H265" t="b">
         <v>0</v>
@@ -8565,16 +8565,16 @@
         <v>254</v>
       </c>
       <c r="D266">
-        <v>-0.67</v>
+        <v>-0.64</v>
       </c>
       <c r="E266">
         <v>1.11</v>
       </c>
       <c r="F266">
-        <v>0.22</v>
+        <v>0.235</v>
       </c>
       <c r="G266">
-        <v>0.5225272225852602</v>
+        <v>0.5438324418401973</v>
       </c>
       <c r="H266" t="b">
         <v>0</v>
@@ -8591,16 +8591,16 @@
         <v>255</v>
       </c>
       <c r="D267">
-        <v>-0.96</v>
+        <v>-0.95</v>
       </c>
       <c r="E267">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="F267">
-        <v>-0.18</v>
+        <v>-0.17</v>
       </c>
       <c r="G267">
-        <v>-0.4529741185356654</v>
+        <v>-0.4537004907113697</v>
       </c>
       <c r="H267" t="b">
         <v>0</v>
@@ -8620,13 +8620,13 @@
         <v>-0.57</v>
       </c>
       <c r="E268">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="F268">
-        <v>-0.07499999999999998</v>
+        <v>-0.06999999999999998</v>
       </c>
       <c r="G268">
-        <v>-0.3210545216111156</v>
+        <v>-0.3050155165849732</v>
       </c>
       <c r="H268" t="b">
         <v>0</v>
@@ -8643,16 +8643,16 @@
         <v>257</v>
       </c>
       <c r="D269">
-        <v>-1.26</v>
+        <v>-1.29</v>
       </c>
       <c r="E269">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="F269">
-        <v>-0.105</v>
+        <v>-0.115</v>
       </c>
       <c r="G269">
-        <v>-0.1829639789775099</v>
+        <v>-0.1819349984830987</v>
       </c>
       <c r="H269" t="b">
         <v>0</v>
@@ -8669,16 +8669,16 @@
         <v>258</v>
       </c>
       <c r="D270">
-        <v>-1.44</v>
+        <v>-1.49</v>
       </c>
       <c r="E270">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="F270">
-        <v>0.01000000000000001</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="G270">
-        <v>0.006951037242387283</v>
+        <v>0.01094377493592291</v>
       </c>
       <c r="H270" t="b">
         <v>0</v>
@@ -8695,16 +8695,16 @@
         <v>259</v>
       </c>
       <c r="D271">
-        <v>-1.14</v>
+        <v>-1.11</v>
       </c>
       <c r="E271">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="F271">
-        <v>-0.06999999999999995</v>
+        <v>-0.06500000000000006</v>
       </c>
       <c r="G271">
-        <v>-0.1303466735601604</v>
+        <v>-0.1336237047849717</v>
       </c>
       <c r="H271" t="b">
         <v>0</v>
@@ -8721,16 +8721,16 @@
         <v>260</v>
       </c>
       <c r="D272">
-        <v>-0.18</v>
+        <v>-0.19</v>
       </c>
       <c r="E272">
         <v>1.31</v>
       </c>
       <c r="F272">
-        <v>0.5650000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G272">
-        <v>1.492161167895504</v>
+        <v>1.483583551548629</v>
       </c>
       <c r="H272" t="b">
         <v>0</v>
@@ -8747,16 +8747,16 @@
         <v>261</v>
       </c>
       <c r="D273">
-        <v>-1.7</v>
+        <v>-1.67</v>
       </c>
       <c r="E273">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="F273">
-        <v>-0.495</v>
+        <v>-0.475</v>
       </c>
       <c r="G273">
-        <v>-0.8049008295315742</v>
+        <v>-0.7817552532235368</v>
       </c>
       <c r="H273" t="b">
         <v>0</v>
@@ -8773,16 +8773,16 @@
         <v>262</v>
       </c>
       <c r="D274">
-        <v>-1.72</v>
+        <v>-1.7</v>
       </c>
       <c r="E274">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="F274">
-        <v>0.005000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G274">
-        <v>0.01948127130425794</v>
+        <v>0.02652702769177529</v>
       </c>
       <c r="H274" t="b">
         <v>0</v>
@@ -8799,16 +8799,16 @@
         <v>263</v>
       </c>
       <c r="D275">
-        <v>-1.53</v>
+        <v>-1.56</v>
       </c>
       <c r="E275">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="F275">
-        <v>0.23</v>
+        <v>0.2249999999999999</v>
       </c>
       <c r="G275">
-        <v>0.2432689423541344</v>
+        <v>0.2389758196828849</v>
       </c>
       <c r="H275" t="b">
         <v>0</v>
@@ -8825,16 +8825,16 @@
         <v>264</v>
       </c>
       <c r="D276">
-        <v>-1.58</v>
+        <v>-1.64</v>
       </c>
       <c r="E276">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="F276">
-        <v>-0.06500000000000006</v>
+        <v>-0.07499999999999996</v>
       </c>
       <c r="G276">
-        <v>-0.1010746409990753</v>
+        <v>-0.09529487281427426</v>
       </c>
       <c r="H276" t="b">
         <v>0</v>
@@ -8851,16 +8851,16 @@
         <v>265</v>
       </c>
       <c r="D277">
-        <v>-1.73</v>
+        <v>-1.77</v>
       </c>
       <c r="E277">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="F277">
-        <v>-0.09499999999999997</v>
+        <v>-0.12</v>
       </c>
       <c r="G277">
-        <v>-0.1163711197770391</v>
+        <v>-0.1203918598248194</v>
       </c>
       <c r="H277" t="b">
         <v>0</v>
@@ -8880,13 +8880,13 @@
         <v>-1.44</v>
       </c>
       <c r="E278">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="F278">
-        <v>-0.09499999999999997</v>
+        <v>-0.08499999999999996</v>
       </c>
       <c r="G278">
-        <v>-0.1387570483069603</v>
+        <v>-0.1244834845416104</v>
       </c>
       <c r="H278" t="b">
         <v>0</v>
@@ -8903,16 +8903,16 @@
         <v>267</v>
       </c>
       <c r="D279">
-        <v>-1.33</v>
+        <v>-1.31</v>
       </c>
       <c r="E279">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="F279">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="G279">
-        <v>-0.02926658679680898</v>
+        <v>-0.018160449765601</v>
       </c>
       <c r="H279" t="b">
         <v>0</v>
@@ -8929,16 +8929,16 @@
         <v>268</v>
       </c>
       <c r="D280">
-        <v>-1.37</v>
+        <v>-1.35</v>
       </c>
       <c r="E280">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="F280">
-        <v>0.0149999999999999</v>
+        <v>0.05499999999999994</v>
       </c>
       <c r="G280">
-        <v>0.03828144266878189</v>
+        <v>0.06065112160177418</v>
       </c>
       <c r="H280" t="b">
         <v>0</v>
@@ -8958,13 +8958,13 @@
         <v>-1.51</v>
       </c>
       <c r="E281">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="F281">
-        <v>0.235</v>
+        <v>0.21</v>
       </c>
       <c r="G281">
-        <v>0.2526615733312423</v>
+        <v>0.2550350136730372</v>
       </c>
       <c r="H281" t="b">
         <v>0</v>
@@ -8981,16 +8981,16 @@
         <v>270</v>
       </c>
       <c r="D282">
-        <v>-0.53</v>
+        <v>-0.54</v>
       </c>
       <c r="E282">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="F282">
-        <v>-0.02500000000000002</v>
+        <v>-0.03500000000000003</v>
       </c>
       <c r="G282">
-        <v>-0.1307199178870532</v>
+        <v>-0.140486067685187</v>
       </c>
       <c r="H282" t="b">
         <v>0</v>
@@ -9010,13 +9010,13 @@
         <v>-0.6899999999999999</v>
       </c>
       <c r="E283">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="F283">
-        <v>0.04500000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G283">
-        <v>0.1166094160137073</v>
+        <v>0.09793586346066913</v>
       </c>
       <c r="H283" t="b">
         <v>0</v>
@@ -9033,16 +9033,16 @@
         <v>272</v>
       </c>
       <c r="D284">
-        <v>-1.09</v>
+        <v>-1.08</v>
       </c>
       <c r="E284">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F284">
-        <v>-0.06500000000000006</v>
+        <v>-0.05000000000000004</v>
       </c>
       <c r="G284">
-        <v>-0.09874021107451382</v>
+        <v>-0.09911980176273594</v>
       </c>
       <c r="H284" t="b">
         <v>0</v>
@@ -9062,13 +9062,13 @@
         <v>-1.13</v>
       </c>
       <c r="E285">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="F285">
-        <v>0.02000000000000002</v>
+        <v>0.03500000000000003</v>
       </c>
       <c r="G285">
-        <v>0.03237837752721794</v>
+        <v>0.04386426943432137</v>
       </c>
       <c r="H285" t="b">
         <v>0</v>
@@ -9085,16 +9085,16 @@
         <v>274</v>
       </c>
       <c r="D286">
-        <v>-0.97</v>
+        <v>-0.96</v>
       </c>
       <c r="E286">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F286">
-        <v>-0.07000000000000001</v>
+        <v>-0.08999999999999997</v>
       </c>
       <c r="G286">
-        <v>-0.1869104007905311</v>
+        <v>-0.2056921983414546</v>
       </c>
       <c r="H286" t="b">
         <v>0</v>
@@ -9111,16 +9111,16 @@
         <v>275</v>
       </c>
       <c r="D287">
-        <v>-0.87</v>
+        <v>-0.88</v>
       </c>
       <c r="E287">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F287">
-        <v>-0.08000000000000002</v>
+        <v>-0.09500000000000003</v>
       </c>
       <c r="G287">
-        <v>-0.2179077976345385</v>
+        <v>-0.2194663061238564</v>
       </c>
       <c r="H287" t="b">
         <v>0</v>
@@ -9146,7 +9146,7 @@
         <v>-0.09999999999999998</v>
       </c>
       <c r="G288">
-        <v>-0.3853980987474361</v>
+        <v>-0.3825352846951196</v>
       </c>
       <c r="H288" t="b">
         <v>0</v>
@@ -9163,16 +9163,16 @@
         <v>277</v>
       </c>
       <c r="D289">
-        <v>-1.22</v>
+        <v>-1.21</v>
       </c>
       <c r="E289">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="F289">
-        <v>-0.06999999999999995</v>
+        <v>-0.04999999999999993</v>
       </c>
       <c r="G289">
-        <v>-0.09508910151484462</v>
+        <v>-0.1072805913187207</v>
       </c>
       <c r="H289" t="b">
         <v>0</v>
@@ -9189,16 +9189,16 @@
         <v>278</v>
       </c>
       <c r="D290">
-        <v>-1.44</v>
+        <v>-1.43</v>
       </c>
       <c r="E290">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="F290">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G290">
-        <v>0.0725046232567222</v>
+        <v>0.05341565741223062</v>
       </c>
       <c r="H290" t="b">
         <v>0</v>
@@ -9215,16 +9215,16 @@
         <v>279</v>
       </c>
       <c r="D291">
-        <v>-1.26</v>
+        <v>-1.3</v>
       </c>
       <c r="E291">
         <v>0.82</v>
       </c>
       <c r="F291">
-        <v>-0.22</v>
+        <v>-0.24</v>
       </c>
       <c r="G291">
-        <v>-0.4366779009474164</v>
+        <v>-0.4382964928993479</v>
       </c>
       <c r="H291" t="b">
         <v>0</v>
@@ -9241,16 +9241,16 @@
         <v>280</v>
       </c>
       <c r="D292">
-        <v>-0.55</v>
+        <v>-0.58</v>
       </c>
       <c r="E292">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F292">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G292">
-        <v>0.4860944391952932</v>
+        <v>0.4588657405866838</v>
       </c>
       <c r="H292" t="b">
         <v>0</v>
@@ -9267,16 +9267,16 @@
         <v>281</v>
       </c>
       <c r="D293">
-        <v>-1.5</v>
+        <v>-1.51</v>
       </c>
       <c r="E293">
         <v>0.89</v>
       </c>
       <c r="F293">
-        <v>-0.305</v>
+        <v>-0.31</v>
       </c>
       <c r="G293">
-        <v>-0.4985662586083969</v>
+        <v>-0.4999401833511226</v>
       </c>
       <c r="H293" t="b">
         <v>0</v>
@@ -9293,16 +9293,16 @@
         <v>282</v>
       </c>
       <c r="D294">
-        <v>-1.45</v>
+        <v>-1.46</v>
       </c>
       <c r="E294">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="F294">
-        <v>0.225</v>
+        <v>0.26</v>
       </c>
       <c r="G294">
-        <v>0.2940158342358705</v>
+        <v>0.2973223697502506</v>
       </c>
       <c r="H294" t="b">
         <v>0</v>
@@ -9322,13 +9322,13 @@
         <v>-1.63</v>
       </c>
       <c r="E295">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="F295">
-        <v>0.16</v>
+        <v>0.145</v>
       </c>
       <c r="G295">
-        <v>0.1832109426566678</v>
+        <v>0.1795377833189993</v>
       </c>
       <c r="H295" t="b">
         <v>0</v>
@@ -9345,16 +9345,16 @@
         <v>284</v>
       </c>
       <c r="D296">
-        <v>-1.59</v>
+        <v>-1.63</v>
       </c>
       <c r="E296">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="F296">
-        <v>-0.05000000000000004</v>
+        <v>-0.06499999999999995</v>
       </c>
       <c r="G296">
-        <v>-0.07474653772152891</v>
+        <v>-0.09683561672140176</v>
       </c>
       <c r="H296" t="b">
         <v>0</v>
@@ -9371,16 +9371,16 @@
         <v>285</v>
       </c>
       <c r="D297">
-        <v>-1.6</v>
+        <v>-1.61</v>
       </c>
       <c r="E297">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="F297">
-        <v>0.07499999999999996</v>
+        <v>0.04999999999999993</v>
       </c>
       <c r="G297">
-        <v>0.06912590541350033</v>
+        <v>0.06100249220357829</v>
       </c>
       <c r="H297" t="b">
         <v>0</v>
@@ -9397,16 +9397,16 @@
         <v>286</v>
       </c>
       <c r="D298">
-        <v>-1.53</v>
+        <v>-1.5</v>
       </c>
       <c r="E298">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="F298">
-        <v>-0.175</v>
+        <v>-0.165</v>
       </c>
       <c r="G298">
-        <v>-0.2143314154277969</v>
+        <v>-0.2275788609851271</v>
       </c>
       <c r="H298" t="b">
         <v>0</v>
@@ -9423,16 +9423,16 @@
         <v>287</v>
       </c>
       <c r="D299">
-        <v>-1.34</v>
+        <v>-1.37</v>
       </c>
       <c r="E299">
         <v>1.27</v>
       </c>
       <c r="F299">
-        <v>-0.03500000000000003</v>
+        <v>-0.05000000000000004</v>
       </c>
       <c r="G299">
-        <v>-0.05629088453375202</v>
+        <v>-0.06207136308556997</v>
       </c>
       <c r="H299" t="b">
         <v>0</v>
@@ -9449,16 +9449,16 @@
         <v>288</v>
       </c>
       <c r="D300">
-        <v>-1.44</v>
+        <v>-1.42</v>
       </c>
       <c r="E300">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="F300">
-        <v>-0.04499999999999993</v>
+        <v>-0.02499999999999991</v>
       </c>
       <c r="G300">
-        <v>-0.03885371402646672</v>
+        <v>-0.04217482081406661</v>
       </c>
       <c r="H300" t="b">
         <v>0</v>
@@ -9475,16 +9475,16 @@
         <v>289</v>
       </c>
       <c r="D301">
-        <v>-1.51</v>
+        <v>-1.52</v>
       </c>
       <c r="E301">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="F301">
-        <v>0.225</v>
+        <v>0.215</v>
       </c>
       <c r="G301">
-        <v>0.2411351833747947</v>
+        <v>0.2423308598393357</v>
       </c>
       <c r="H301" t="b">
         <v>0</v>
@@ -9501,16 +9501,16 @@
         <v>290</v>
       </c>
       <c r="D302">
-        <v>-0.59</v>
+        <v>-0.6</v>
       </c>
       <c r="E302">
         <v>0.42</v>
       </c>
       <c r="F302">
-        <v>-0.08499999999999999</v>
+        <v>-0.09</v>
       </c>
       <c r="G302">
-        <v>-0.3525264951278704</v>
+        <v>-0.3563958594911886</v>
       </c>
       <c r="H302" t="b">
         <v>0</v>
@@ -9527,16 +9527,16 @@
         <v>291</v>
       </c>
       <c r="D303">
-        <v>-0.6899999999999999</v>
+        <v>-0.71</v>
       </c>
       <c r="E303">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="F303">
-        <v>0.04000000000000004</v>
+        <v>0.03500000000000003</v>
       </c>
       <c r="G303">
-        <v>0.1124079807201466</v>
+        <v>0.1048003934625255</v>
       </c>
       <c r="H303" t="b">
         <v>0</v>
@@ -9553,16 +9553,16 @@
         <v>292</v>
       </c>
       <c r="D304">
-        <v>-1.07</v>
+        <v>-1.06</v>
       </c>
       <c r="E304">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="F304">
-        <v>-0.02500000000000002</v>
+        <v>-0.01000000000000001</v>
       </c>
       <c r="G304">
-        <v>-0.03302689593738892</v>
+        <v>-0.0365942597685757</v>
       </c>
       <c r="H304" t="b">
         <v>0</v>
@@ -9579,16 +9579,16 @@
         <v>293</v>
       </c>
       <c r="D305">
-        <v>-1.25</v>
+        <v>-1.24</v>
       </c>
       <c r="E305">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="F305">
-        <v>-0.06000000000000005</v>
+        <v>-0.08499999999999996</v>
       </c>
       <c r="G305">
-        <v>-0.1237090777052264</v>
+        <v>-0.1286270724663964</v>
       </c>
       <c r="H305" t="b">
         <v>0</v>
@@ -9605,16 +9605,16 @@
         <v>294</v>
       </c>
       <c r="D306">
-        <v>-0.8100000000000001</v>
+        <v>-0.79</v>
       </c>
       <c r="E306">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F306">
-        <v>0.08499999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G306">
-        <v>0.1975097984228223</v>
+        <v>0.1939591518496646</v>
       </c>
       <c r="H306" t="b">
         <v>0</v>
@@ -9631,16 +9631,16 @@
         <v>295</v>
       </c>
       <c r="D307">
-        <v>-0.93</v>
+        <v>-0.95</v>
       </c>
       <c r="E307">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="F307">
         <v>-0.155</v>
       </c>
       <c r="G307">
-        <v>-0.3945553162846447</v>
+        <v>-0.381194287848254</v>
       </c>
       <c r="H307" t="b">
         <v>0</v>
@@ -9657,16 +9657,16 @@
         <v>296</v>
       </c>
       <c r="D308">
-        <v>-0.58</v>
+        <v>-0.59</v>
       </c>
       <c r="E308">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="F308">
-        <v>-0.08999999999999997</v>
+        <v>-0.08499999999999999</v>
       </c>
       <c r="G308">
-        <v>-0.3443456149390552</v>
+        <v>-0.3293011160080346</v>
       </c>
       <c r="H308" t="b">
         <v>0</v>
@@ -9683,16 +9683,16 @@
         <v>297</v>
       </c>
       <c r="D309">
-        <v>-1.21</v>
+        <v>-1.23</v>
       </c>
       <c r="E309">
         <v>1.11</v>
       </c>
       <c r="F309">
-        <v>-0.04999999999999993</v>
+        <v>-0.05999999999999994</v>
       </c>
       <c r="G309">
-        <v>-0.1054401816642067</v>
+        <v>-0.0977466632387862</v>
       </c>
       <c r="H309" t="b">
         <v>0</v>
@@ -9709,16 +9709,16 @@
         <v>298</v>
       </c>
       <c r="D310">
-        <v>-1.5</v>
+        <v>-1.49</v>
       </c>
       <c r="E310">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="F310">
-        <v>-0.02500000000000002</v>
+        <v>-0.005000000000000004</v>
       </c>
       <c r="G310">
-        <v>-0.01857750205944018</v>
+        <v>-0.02278022489209935</v>
       </c>
       <c r="H310" t="b">
         <v>0</v>
@@ -9735,16 +9735,16 @@
         <v>299</v>
       </c>
       <c r="D311">
-        <v>-1.32</v>
+        <v>-1.34</v>
       </c>
       <c r="E311">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="F311">
-        <v>-0.265</v>
+        <v>-0.27</v>
       </c>
       <c r="G311">
-        <v>-0.4815939118471258</v>
+        <v>-0.4748147360503585</v>
       </c>
       <c r="H311" t="b">
         <v>0</v>
@@ -9764,13 +9764,13 @@
         <v>-0.76</v>
       </c>
       <c r="E312">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="F312">
-        <v>-0.01000000000000001</v>
+        <v>-0.01500000000000001</v>
       </c>
       <c r="G312">
-        <v>-0.0486262734456862</v>
+        <v>-0.04588962906413899</v>
       </c>
       <c r="H312" t="b">
         <v>0</v>
@@ -9787,16 +9787,16 @@
         <v>301</v>
       </c>
       <c r="D313">
-        <v>-1.28</v>
+        <v>-1.3</v>
       </c>
       <c r="E313">
         <v>1.08</v>
       </c>
       <c r="F313">
-        <v>-0.09999999999999998</v>
+        <v>-0.11</v>
       </c>
       <c r="G313">
-        <v>-0.1590080255363713</v>
+        <v>-0.1602526534735848</v>
       </c>
       <c r="H313" t="b">
         <v>0</v>
@@ -9813,16 +9813,16 @@
         <v>302</v>
       </c>
       <c r="D314">
-        <v>-1.74</v>
+        <v>-1.72</v>
       </c>
       <c r="E314">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="F314">
-        <v>-0.01500000000000001</v>
+        <v>-0.01000000000000001</v>
       </c>
       <c r="G314">
-        <v>0.009089476317905626</v>
+        <v>0.01667126843698164</v>
       </c>
       <c r="H314" t="b">
         <v>0</v>
@@ -9839,16 +9839,16 @@
         <v>303</v>
       </c>
       <c r="D315">
-        <v>-1.66</v>
+        <v>-1.64</v>
       </c>
       <c r="E315">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="F315">
-        <v>0.125</v>
+        <v>0.1050000000000001</v>
       </c>
       <c r="G315">
-        <v>0.1338265706660418</v>
+        <v>0.1168271382113077</v>
       </c>
       <c r="H315" t="b">
         <v>0</v>
@@ -9868,13 +9868,13 @@
         <v>-1.56</v>
       </c>
       <c r="E316">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="F316">
-        <v>-0.005000000000000004</v>
+        <v>0</v>
       </c>
       <c r="G316">
-        <v>-0.003777046396980097</v>
+        <v>0.004288956158652166</v>
       </c>
       <c r="H316" t="b">
         <v>0</v>
@@ -9891,16 +9891,16 @@
         <v>305</v>
       </c>
       <c r="D317">
-        <v>-1.68</v>
+        <v>-1.71</v>
       </c>
       <c r="E317">
         <v>1.61</v>
       </c>
       <c r="F317">
-        <v>-0.03499999999999992</v>
+        <v>-0.04999999999999993</v>
       </c>
       <c r="G317">
-        <v>-0.04721251029981999</v>
+        <v>-0.06235041200343745</v>
       </c>
       <c r="H317" t="b">
         <v>0</v>
@@ -9917,16 +9917,16 @@
         <v>306</v>
       </c>
       <c r="D318">
-        <v>-1.44</v>
+        <v>-1.47</v>
       </c>
       <c r="E318">
         <v>1.21</v>
       </c>
       <c r="F318">
-        <v>-0.115</v>
+        <v>-0.13</v>
       </c>
       <c r="G318">
-        <v>-0.1652921140461674</v>
+        <v>-0.1715070466678147</v>
       </c>
       <c r="H318" t="b">
         <v>0</v>
@@ -9943,16 +9943,16 @@
         <v>307</v>
       </c>
       <c r="D319">
-        <v>-1.3</v>
+        <v>-1.29</v>
       </c>
       <c r="E319">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="F319">
-        <v>0.01000000000000001</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="G319">
-        <v>0.02696567649256404</v>
+        <v>0.03262626915877277</v>
       </c>
       <c r="H319" t="b">
         <v>0</v>
@@ -9969,16 +9969,16 @@
         <v>308</v>
       </c>
       <c r="D320">
-        <v>-1.38</v>
+        <v>-1.36</v>
       </c>
       <c r="E320">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="F320">
-        <v>0.05000000000000004</v>
+        <v>0.05499999999999994</v>
       </c>
       <c r="G320">
-        <v>0.07745950206782869</v>
+        <v>0.07308506709189019</v>
       </c>
       <c r="H320" t="b">
         <v>0</v>
@@ -9995,16 +9995,16 @@
         <v>309</v>
       </c>
       <c r="D321">
-        <v>-1.56</v>
+        <v>-1.59</v>
       </c>
       <c r="E321">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="F321">
-        <v>0.1849999999999999</v>
+        <v>0.195</v>
       </c>
       <c r="G321">
-        <v>0.222568057184195</v>
+        <v>0.22102893448868</v>
       </c>
       <c r="H321" t="b">
         <v>0</v>
@@ -10021,16 +10021,16 @@
         <v>310</v>
       </c>
       <c r="D322">
-        <v>-0.52</v>
+        <v>-0.5</v>
       </c>
       <c r="E322">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F322">
-        <v>-0.01000000000000001</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="G322">
-        <v>-0.0002710918745111805</v>
+        <v>0.006470457108467865</v>
       </c>
       <c r="H322" t="b">
         <v>0</v>
@@ -10047,16 +10047,16 @@
         <v>311</v>
       </c>
       <c r="D323">
-        <v>-0.79</v>
+        <v>-0.8</v>
       </c>
       <c r="E323">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="F323">
-        <v>-0.05000000000000004</v>
+        <v>-0.065</v>
       </c>
       <c r="G323">
-        <v>-0.15222946022002</v>
+        <v>-0.1643860423215283</v>
       </c>
       <c r="H323" t="b">
         <v>0</v>
@@ -10073,16 +10073,16 @@
         <v>312</v>
       </c>
       <c r="D324">
-        <v>-1.13</v>
+        <v>-1.17</v>
       </c>
       <c r="E324">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="F324">
-        <v>-0.1149999999999999</v>
+        <v>-0.1299999999999999</v>
       </c>
       <c r="G324">
-        <v>-0.2144064368145298</v>
+        <v>-0.215874640700767</v>
       </c>
       <c r="H324" t="b">
         <v>0</v>
@@ -10099,16 +10099,16 @@
         <v>313</v>
       </c>
       <c r="D325">
-        <v>-1.21</v>
+        <v>-1.19</v>
       </c>
       <c r="E325">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="F325">
-        <v>-0.05499999999999994</v>
+        <v>-0.03000000000000003</v>
       </c>
       <c r="G325">
-        <v>-0.0806253443329413</v>
+        <v>-0.07036253693395911</v>
       </c>
       <c r="H325" t="b">
         <v>0</v>
@@ -10125,16 +10125,16 @@
         <v>314</v>
       </c>
       <c r="D326">
-        <v>-0.91</v>
+        <v>-0.89</v>
       </c>
       <c r="E326">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="F326">
-        <v>-0.02500000000000002</v>
+        <v>-0.01000000000000001</v>
       </c>
       <c r="G326">
-        <v>-0.05834871478964373</v>
+        <v>-0.05338064622662118</v>
       </c>
       <c r="H326" t="b">
         <v>0</v>
@@ -10151,16 +10151,16 @@
         <v>315</v>
       </c>
       <c r="D327">
-        <v>-0.92</v>
+        <v>-0.9</v>
       </c>
       <c r="E327">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="F327">
-        <v>-0.12</v>
+        <v>-0.115</v>
       </c>
       <c r="G327">
-        <v>-0.3101425394823207</v>
+        <v>-0.3095493788798834</v>
       </c>
       <c r="H327" t="b">
         <v>0</v>
@@ -10177,16 +10177,16 @@
         <v>316</v>
       </c>
       <c r="D328">
-        <v>-0.65</v>
+        <v>-0.66</v>
       </c>
       <c r="E328">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="F328">
         <v>-0.155</v>
       </c>
       <c r="G328">
-        <v>-0.6248024713228553</v>
+        <v>-0.6190428748735629</v>
       </c>
       <c r="H328" t="b">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>317</v>
       </c>
       <c r="D329">
-        <v>-1.12</v>
+        <v>-1.16</v>
       </c>
       <c r="E329">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="F329">
-        <v>0.0149999999999999</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G329">
-        <v>0.03505369731601277</v>
+        <v>0.01223994701323133</v>
       </c>
       <c r="H329" t="b">
         <v>0</v>
@@ -10229,16 +10229,16 @@
         <v>318</v>
       </c>
       <c r="D330">
-        <v>-1.37</v>
+        <v>-1.39</v>
       </c>
       <c r="E330">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="F330">
-        <v>0.09999999999999998</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="G330">
-        <v>0.1264635089530244</v>
+        <v>0.1199341815605302</v>
       </c>
       <c r="H330" t="b">
         <v>0</v>
@@ -10264,7 +10264,7 @@
         <v>-0.05500000000000005</v>
       </c>
       <c r="G331">
-        <v>-0.096732698145375</v>
+        <v>-0.09087008813138336</v>
       </c>
       <c r="H331" t="b">
         <v>0</v>
@@ -10281,16 +10281,16 @@
         <v>320</v>
       </c>
       <c r="D332">
-        <v>-0.68</v>
+        <v>-0.7</v>
       </c>
       <c r="E332">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F332">
-        <v>0.04999999999999999</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G332">
-        <v>0.1284979759781744</v>
+        <v>0.1268351068699928</v>
       </c>
       <c r="H332" t="b">
         <v>0</v>
@@ -10307,16 +10307,16 @@
         <v>321</v>
       </c>
       <c r="D333">
-        <v>-1.43</v>
+        <v>-1.45</v>
       </c>
       <c r="E333">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F333">
-        <v>-0.235</v>
+        <v>-0.25</v>
       </c>
       <c r="G333">
-        <v>-0.3920254880348806</v>
+        <v>-0.4031811277656061</v>
       </c>
       <c r="H333" t="b">
         <v>0</v>
@@ -10333,16 +10333,16 @@
         <v>322</v>
       </c>
       <c r="D334">
-        <v>-1.73</v>
+        <v>-1.69</v>
       </c>
       <c r="E334">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="F334">
-        <v>-0.02500000000000002</v>
+        <v>0.01500000000000001</v>
       </c>
       <c r="G334">
-        <v>-0.002331825649477956</v>
+        <v>0.0001579731543123379</v>
       </c>
       <c r="H334" t="b">
         <v>0</v>
@@ -10359,16 +10359,16 @@
         <v>323</v>
       </c>
       <c r="D335">
-        <v>-1.67</v>
+        <v>-1.65</v>
       </c>
       <c r="E335">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="F335">
-        <v>0.09500000000000008</v>
+        <v>0.115</v>
       </c>
       <c r="G335">
-        <v>0.1272212770544307</v>
+        <v>0.1223574865149467</v>
       </c>
       <c r="H335" t="b">
         <v>0</v>
@@ -10388,13 +10388,13 @@
         <v>-1.54</v>
       </c>
       <c r="E336">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="F336">
-        <v>0.02000000000000002</v>
+        <v>0.05499999999999994</v>
       </c>
       <c r="G336">
-        <v>0.04452959433864784</v>
+        <v>0.06023198732280367</v>
       </c>
       <c r="H336" t="b">
         <v>0</v>
@@ -10411,16 +10411,16 @@
         <v>325</v>
       </c>
       <c r="D337">
-        <v>-1.86</v>
+        <v>-1.82</v>
       </c>
       <c r="E337">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="F337">
-        <v>-0.17</v>
+        <v>-0.155</v>
       </c>
       <c r="G337">
-        <v>-0.1774525806984595</v>
+        <v>-0.1688042449460247</v>
       </c>
       <c r="H337" t="b">
         <v>0</v>
@@ -10437,16 +10437,16 @@
         <v>326</v>
       </c>
       <c r="D338">
-        <v>-1.41</v>
+        <v>-1.44</v>
       </c>
       <c r="E338">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="F338">
-        <v>-0.06999999999999995</v>
+        <v>-0.07999999999999996</v>
       </c>
       <c r="G338">
-        <v>-0.1063949169948303</v>
+        <v>-0.1153613154303961</v>
       </c>
       <c r="H338" t="b">
         <v>0</v>
@@ -10463,16 +10463,16 @@
         <v>327</v>
       </c>
       <c r="D339">
-        <v>-1.44</v>
+        <v>-1.41</v>
       </c>
       <c r="E339">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="F339">
-        <v>-0.12</v>
+        <v>-0.115</v>
       </c>
       <c r="G339">
-        <v>-0.1776576357553394</v>
+        <v>-0.1664794101779279</v>
       </c>
       <c r="H339" t="b">
         <v>0</v>
@@ -10489,16 +10489,16 @@
         <v>328</v>
       </c>
       <c r="D340">
-        <v>-1.4</v>
+        <v>-1.45</v>
       </c>
       <c r="E340">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="F340">
-        <v>0.01000000000000001</v>
+        <v>-0.02500000000000002</v>
       </c>
       <c r="G340">
-        <v>-0.006992076262658856</v>
+        <v>-0.007610661850386496</v>
       </c>
       <c r="H340" t="b">
         <v>0</v>
@@ -10515,16 +10515,16 @@
         <v>329</v>
       </c>
       <c r="D341">
-        <v>-1.57</v>
+        <v>-1.52</v>
       </c>
       <c r="E341">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="F341">
-        <v>0.1899999999999999</v>
+        <v>0.23</v>
       </c>
       <c r="G341">
-        <v>0.2121181541217249</v>
+        <v>0.2158135402580196</v>
       </c>
       <c r="H341" t="b">
         <v>0</v>
@@ -10541,16 +10541,16 @@
         <v>330</v>
       </c>
       <c r="D342">
-        <v>-0.51</v>
+        <v>-0.53</v>
       </c>
       <c r="E342">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="F342">
-        <v>-0.005000000000000004</v>
+        <v>-0.02000000000000002</v>
       </c>
       <c r="G342">
-        <v>-0.05783052687810138</v>
+        <v>-0.08556563783244579</v>
       </c>
       <c r="H342" t="b">
         <v>0</v>
@@ -10570,13 +10570,13 @@
         <v>-0.74</v>
       </c>
       <c r="E343">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="F343">
-        <v>-0.01500000000000001</v>
+        <v>-0.005000000000000004</v>
       </c>
       <c r="G343">
-        <v>-0.01964351095232687</v>
+        <v>-0.02275597937264823</v>
       </c>
       <c r="H343" t="b">
         <v>0</v>
@@ -10602,7 +10602,7 @@
         <v>0.03500000000000003</v>
       </c>
       <c r="G344">
-        <v>0.06950983848822738</v>
+        <v>0.06894506589006597</v>
       </c>
       <c r="H344" t="b">
         <v>0</v>
@@ -10628,7 +10628,7 @@
         <v>0.03000000000000003</v>
       </c>
       <c r="G345">
-        <v>0.04863890104398641</v>
+        <v>0.05764176780124067</v>
       </c>
       <c r="H345" t="b">
         <v>0</v>
@@ -10645,16 +10645,16 @@
         <v>334</v>
       </c>
       <c r="D346">
-        <v>-0.92</v>
+        <v>-0.93</v>
       </c>
       <c r="E346">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="F346">
-        <v>-0.02500000000000002</v>
+        <v>-0.04500000000000004</v>
       </c>
       <c r="G346">
-        <v>-0.06025794580790497</v>
+        <v>-0.09343350732034049</v>
       </c>
       <c r="H346" t="b">
         <v>0</v>
@@ -10671,16 +10671,16 @@
         <v>335</v>
       </c>
       <c r="D347">
-        <v>-0.68</v>
+        <v>-0.72</v>
       </c>
       <c r="E347">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="F347">
-        <v>0.08499999999999996</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G347">
-        <v>0.2244444212305221</v>
+        <v>0.2203951520007771</v>
       </c>
       <c r="H347" t="b">
         <v>0</v>
@@ -10697,16 +10697,16 @@
         <v>336</v>
       </c>
       <c r="D348">
-        <v>-0.51</v>
+        <v>-0.52</v>
       </c>
       <c r="E348">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="F348">
         <v>-0.01500000000000001</v>
       </c>
       <c r="G348">
-        <v>-0.03550427699068599</v>
+        <v>-0.03865929340102739</v>
       </c>
       <c r="H348" t="b">
         <v>0</v>
@@ -10723,16 +10723,16 @@
         <v>337</v>
       </c>
       <c r="D349">
-        <v>-1.19</v>
+        <v>-1.21</v>
       </c>
       <c r="E349">
         <v>1.14</v>
       </c>
       <c r="F349">
-        <v>-0.02500000000000002</v>
+        <v>-0.03500000000000003</v>
       </c>
       <c r="G349">
-        <v>-0.04960857524142676</v>
+        <v>-0.04242726741868877</v>
       </c>
       <c r="H349" t="b">
         <v>0</v>
@@ -10749,16 +10749,16 @@
         <v>338</v>
       </c>
       <c r="D350">
-        <v>-1.38</v>
+        <v>-1.4</v>
       </c>
       <c r="E350">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="F350">
-        <v>0.1000000000000001</v>
+        <v>0.08000000000000007</v>
       </c>
       <c r="G350">
-        <v>0.1046270786442786</v>
+        <v>0.08509432884513483</v>
       </c>
       <c r="H350" t="b">
         <v>0</v>
@@ -10775,16 +10775,16 @@
         <v>339</v>
       </c>
       <c r="D351">
-        <v>-1.18</v>
+        <v>-1.13</v>
       </c>
       <c r="E351">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F351">
-        <v>-0.09499999999999997</v>
+        <v>-0.07999999999999996</v>
       </c>
       <c r="G351">
-        <v>-0.1638012026211073</v>
+        <v>-0.1727072302380522</v>
       </c>
       <c r="H351" t="b">
         <v>0</v>
@@ -10801,16 +10801,16 @@
         <v>340</v>
       </c>
       <c r="D352">
-        <v>-0.74</v>
+        <v>-0.75</v>
       </c>
       <c r="E352">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="F352">
-        <v>-0.01500000000000001</v>
+        <v>0</v>
       </c>
       <c r="G352">
-        <v>-0.002948898524666031</v>
+        <v>-0.004096364934624343</v>
       </c>
       <c r="H352" t="b">
         <v>0</v>
@@ -10827,16 +10827,16 @@
         <v>341</v>
       </c>
       <c r="D353">
-        <v>-1.19</v>
+        <v>-1.22</v>
       </c>
       <c r="E353">
         <v>1.16</v>
       </c>
       <c r="F353">
-        <v>-0.01500000000000001</v>
+        <v>-0.03000000000000003</v>
       </c>
       <c r="G353">
-        <v>-0.04740480175876653</v>
+        <v>-0.04589702571392829</v>
       </c>
       <c r="H353" t="b">
         <v>0</v>
@@ -10853,16 +10853,16 @@
         <v>342</v>
       </c>
       <c r="D354">
-        <v>-1.75</v>
+        <v>-1.78</v>
       </c>
       <c r="E354">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="F354">
-        <v>-0.07999999999999996</v>
+        <v>-0.07500000000000007</v>
       </c>
       <c r="G354">
-        <v>-0.08566691136581683</v>
+        <v>-0.06579651868663067</v>
       </c>
       <c r="H354" t="b">
         <v>0</v>
@@ -10882,13 +10882,13 @@
         <v>-1.78</v>
       </c>
       <c r="E355">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="F355">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G355">
-        <v>-0.002104759694345467</v>
+        <v>-2.089724921866988E-05</v>
       </c>
       <c r="H355" t="b">
         <v>0</v>
@@ -10905,16 +10905,16 @@
         <v>344</v>
       </c>
       <c r="D356">
-        <v>-1.39</v>
+        <v>-1.41</v>
       </c>
       <c r="E356">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="F356">
-        <v>0.135</v>
+        <v>0.145</v>
       </c>
       <c r="G356">
-        <v>0.2088862052003514</v>
+        <v>0.1969839640000645</v>
       </c>
       <c r="H356" t="b">
         <v>0</v>
@@ -10931,16 +10931,16 @@
         <v>345</v>
       </c>
       <c r="D357">
-        <v>-1.85</v>
+        <v>-1.83</v>
       </c>
       <c r="E357">
         <v>1.5</v>
       </c>
       <c r="F357">
-        <v>-0.175</v>
+        <v>-0.165</v>
       </c>
       <c r="G357">
-        <v>-0.2031834238623595</v>
+        <v>-0.20039281238703</v>
       </c>
       <c r="H357" t="b">
         <v>0</v>
@@ -10957,16 +10957,16 @@
         <v>346</v>
       </c>
       <c r="D358">
-        <v>-1.47</v>
+        <v>-1.53</v>
       </c>
       <c r="E358">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="F358">
-        <v>-0.14</v>
+        <v>-0.175</v>
       </c>
       <c r="G358">
-        <v>-0.2328197765000803</v>
+        <v>-0.2356706001370743</v>
       </c>
       <c r="H358" t="b">
         <v>0</v>
@@ -10983,16 +10983,16 @@
         <v>347</v>
       </c>
       <c r="D359">
-        <v>-1.29</v>
+        <v>-1.32</v>
       </c>
       <c r="E359">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="F359">
-        <v>-0.01500000000000001</v>
+        <v>-0.02500000000000002</v>
       </c>
       <c r="G359">
-        <v>-0.05087414059688262</v>
+        <v>-0.05216417669237285</v>
       </c>
       <c r="H359" t="b">
         <v>0</v>
@@ -11009,16 +11009,16 @@
         <v>348</v>
       </c>
       <c r="D360">
-        <v>-1.41</v>
+        <v>-1.46</v>
       </c>
       <c r="E360">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="F360">
-        <v>-0.03499999999999992</v>
+        <v>-0.05499999999999994</v>
       </c>
       <c r="G360">
-        <v>-0.07188186758884584</v>
+        <v>-0.07628040418332226</v>
       </c>
       <c r="H360" t="b">
         <v>0</v>
@@ -11035,16 +11035,16 @@
         <v>349</v>
       </c>
       <c r="D361">
-        <v>-1.87</v>
+        <v>-1.91</v>
       </c>
       <c r="E361">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="F361">
-        <v>-0.125</v>
+        <v>-0.135</v>
       </c>
       <c r="G361">
-        <v>-0.1555489524601577</v>
+        <v>-0.1517298256816645</v>
       </c>
       <c r="H361" t="b">
         <v>0</v>
@@ -11064,13 +11064,13 @@
         <v>-0.45</v>
       </c>
       <c r="E362">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F362">
-        <v>0.05000000000000002</v>
+        <v>0.05500000000000002</v>
       </c>
       <c r="G362">
-        <v>0.1939888999134207</v>
+        <v>0.1995283501118971</v>
       </c>
       <c r="H362" t="b">
         <v>0</v>
@@ -11087,16 +11087,16 @@
         <v>351</v>
       </c>
       <c r="D363">
-        <v>-0.78</v>
+        <v>-0.79</v>
       </c>
       <c r="E363">
         <v>0.68</v>
       </c>
       <c r="F363">
-        <v>-0.04999999999999999</v>
+        <v>-0.05499999999999999</v>
       </c>
       <c r="G363">
-        <v>-0.1228471645855541</v>
+        <v>-0.14032284071475</v>
       </c>
       <c r="H363" t="b">
         <v>0</v>
@@ -11113,16 +11113,16 @@
         <v>352</v>
       </c>
       <c r="D364">
-        <v>-1.27</v>
+        <v>-1.24</v>
       </c>
       <c r="E364">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="F364">
-        <v>-0.23</v>
+        <v>-0.195</v>
       </c>
       <c r="G364">
-        <v>-0.4002598747380663</v>
+        <v>-0.3924683949943618</v>
       </c>
       <c r="H364" t="b">
         <v>0</v>
@@ -11148,7 +11148,7 @@
         <v>-0.1900000000000001</v>
       </c>
       <c r="G365">
-        <v>-0.3278717299307971</v>
+        <v>-0.3386300950791841</v>
       </c>
       <c r="H365" t="b">
         <v>0</v>
@@ -11165,16 +11165,16 @@
         <v>354</v>
       </c>
       <c r="D366">
-        <v>-0.73</v>
+        <v>-0.75</v>
       </c>
       <c r="E366">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="F366">
-        <v>0.135</v>
+        <v>0.12</v>
       </c>
       <c r="G366">
-        <v>0.2814121306519156</v>
+        <v>0.2826178154408662</v>
       </c>
       <c r="H366" t="b">
         <v>0</v>
@@ -11200,7 +11200,7 @@
         <v>0.09000000000000002</v>
       </c>
       <c r="G367">
-        <v>0.2084058309414069</v>
+        <v>0.2142483853509327</v>
       </c>
       <c r="H367" t="b">
         <v>0</v>
@@ -11217,16 +11217,16 @@
         <v>356</v>
       </c>
       <c r="D368">
-        <v>-0.47</v>
+        <v>-0.5</v>
       </c>
       <c r="E368">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="F368">
         <v>0.01500000000000001</v>
       </c>
       <c r="G368">
-        <v>0.05750785726351398</v>
+        <v>0.04201507919851601</v>
       </c>
       <c r="H368" t="b">
         <v>0</v>
@@ -11243,16 +11243,16 @@
         <v>357</v>
       </c>
       <c r="D369">
-        <v>-1.16</v>
+        <v>-1.13</v>
       </c>
       <c r="E369">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="F369">
-        <v>-0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G369">
-        <v>0.03171572003527764</v>
+        <v>0.03059977929822534</v>
       </c>
       <c r="H369" t="b">
         <v>0</v>
@@ -11269,16 +11269,16 @@
         <v>358</v>
       </c>
       <c r="D370">
-        <v>-1.49</v>
+        <v>-1.52</v>
       </c>
       <c r="E370">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="F370">
-        <v>-0.03000000000000003</v>
+        <v>-0.05500000000000005</v>
       </c>
       <c r="G370">
-        <v>-0.06011145634471889</v>
+        <v>-0.05966012120620305</v>
       </c>
       <c r="H370" t="b">
         <v>0</v>
@@ -11298,13 +11298,13 @@
         <v>-1.05</v>
       </c>
       <c r="E371">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="F371">
-        <v>-0.01000000000000001</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G371">
-        <v>0.004867194595050246</v>
+        <v>0.009202172343243735</v>
       </c>
       <c r="H371" t="b">
         <v>0</v>
@@ -11324,13 +11324,13 @@
         <v>-0.84</v>
       </c>
       <c r="E372">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="F372">
-        <v>-0.09499999999999997</v>
+        <v>-0.08999999999999997</v>
       </c>
       <c r="G372">
-        <v>-0.2236292643288035</v>
+        <v>-0.2306807386038169</v>
       </c>
       <c r="H372" t="b">
         <v>0</v>
@@ -11347,16 +11347,16 @@
         <v>361</v>
       </c>
       <c r="D373">
-        <v>-1.2</v>
+        <v>-1.19</v>
       </c>
       <c r="E373">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="F373">
-        <v>0.005000000000000004</v>
+        <v>-0.005000000000000004</v>
       </c>
       <c r="G373">
-        <v>0.00759374722978332</v>
+        <v>0.006231644372147456</v>
       </c>
       <c r="H373" t="b">
         <v>0</v>
@@ -11373,16 +11373,16 @@
         <v>362</v>
       </c>
       <c r="D374">
-        <v>-1.7</v>
+        <v>-1.76</v>
       </c>
       <c r="E374">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="F374">
-        <v>0</v>
+        <v>-0.05500000000000005</v>
       </c>
       <c r="G374">
-        <v>-0.04071344821712929</v>
+        <v>-0.05011559344081586</v>
       </c>
       <c r="H374" t="b">
         <v>0</v>
@@ -11402,13 +11402,13 @@
         <v>-1.76</v>
       </c>
       <c r="E375">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="F375">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G375">
-        <v>0.0722338470838596</v>
+        <v>0.06411442339626652</v>
       </c>
       <c r="H375" t="b">
         <v>0</v>
@@ -11425,16 +11425,16 @@
         <v>364</v>
       </c>
       <c r="D376">
-        <v>-1.68</v>
+        <v>-1.72</v>
       </c>
       <c r="E376">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="F376">
-        <v>-0.1599999999999999</v>
+        <v>-0.145</v>
       </c>
       <c r="G376">
-        <v>-0.1852875114447629</v>
+        <v>-0.1868777202522287</v>
       </c>
       <c r="H376" t="b">
         <v>0</v>
@@ -11451,16 +11451,16 @@
         <v>365</v>
       </c>
       <c r="D377">
-        <v>-1.95</v>
+        <v>-1.99</v>
       </c>
       <c r="E377">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="F377">
-        <v>-0.2899999999999999</v>
+        <v>-0.305</v>
       </c>
       <c r="G377">
-        <v>-0.3299404917046622</v>
+        <v>-0.3388666140959667</v>
       </c>
       <c r="H377" t="b">
         <v>0</v>
@@ -11477,16 +11477,16 @@
         <v>366</v>
       </c>
       <c r="D378">
-        <v>-1.82</v>
+        <v>-1.83</v>
       </c>
       <c r="E378">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="F378">
-        <v>-0.48</v>
+        <v>-0.49</v>
       </c>
       <c r="G378">
-        <v>-0.7167629882453769</v>
+        <v>-0.7012461444703705</v>
       </c>
       <c r="H378" t="b">
         <v>0</v>
@@ -11503,16 +11503,16 @@
         <v>367</v>
       </c>
       <c r="D379">
-        <v>-1.23</v>
+        <v>-1.25</v>
       </c>
       <c r="E379">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="F379">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G379">
-        <v>0.1397685266358146</v>
+        <v>0.1280189652367045</v>
       </c>
       <c r="H379" t="b">
         <v>0</v>
@@ -11529,16 +11529,16 @@
         <v>368</v>
       </c>
       <c r="D380">
-        <v>-1.34</v>
+        <v>-1.33</v>
       </c>
       <c r="E380">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="F380">
-        <v>0.06499999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G380">
-        <v>0.09525271379655174</v>
+        <v>0.09628997022899481</v>
       </c>
       <c r="H380" t="b">
         <v>0</v>
@@ -11555,16 +11555,16 @@
         <v>369</v>
       </c>
       <c r="D381">
-        <v>-1.79</v>
+        <v>-1.82</v>
       </c>
       <c r="E381">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="F381">
-        <v>-0.05500000000000005</v>
+        <v>-0.04500000000000004</v>
       </c>
       <c r="G381">
-        <v>-0.06895405509380061</v>
+        <v>-0.04745521481631347</v>
       </c>
       <c r="H381" t="b">
         <v>0</v>
@@ -11590,7 +11590,7 @@
         <v>-0.02000000000000002</v>
       </c>
       <c r="G382">
-        <v>-0.06129104962352214</v>
+        <v>-0.09206540404367559</v>
       </c>
       <c r="H382" t="b">
         <v>0</v>
@@ -11607,16 +11607,16 @@
         <v>371</v>
       </c>
       <c r="D383">
-        <v>-0.67</v>
+        <v>-0.68</v>
       </c>
       <c r="E383">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="F383">
-        <v>0.06</v>
+        <v>0.04999999999999999</v>
       </c>
       <c r="G383">
-        <v>0.1485699121048013</v>
+        <v>0.1457279882529499</v>
       </c>
       <c r="H383" t="b">
         <v>0</v>
@@ -11633,16 +11633,16 @@
         <v>372</v>
       </c>
       <c r="D384">
-        <v>-0.63</v>
+        <v>-0.66</v>
       </c>
       <c r="E384">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="F384">
-        <v>0.385</v>
+        <v>0.405</v>
       </c>
       <c r="G384">
-        <v>0.7706582255261919</v>
+        <v>0.7380498476887534</v>
       </c>
       <c r="H384" t="b">
         <v>0</v>
@@ -11659,16 +11659,16 @@
         <v>373</v>
       </c>
       <c r="D385">
-        <v>-1.22</v>
+        <v>-1.18</v>
       </c>
       <c r="E385">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="F385">
-        <v>-0.04000000000000004</v>
+        <v>-0.01500000000000001</v>
       </c>
       <c r="G385">
-        <v>-0.05773331844949114</v>
+        <v>-0.04191094728285556</v>
       </c>
       <c r="H385" t="b">
         <v>0</v>
@@ -11685,16 +11685,16 @@
         <v>374</v>
       </c>
       <c r="D386">
-        <v>-0.83</v>
+        <v>-0.84</v>
       </c>
       <c r="E386">
         <v>0.93</v>
       </c>
       <c r="F386">
-        <v>0.05000000000000004</v>
+        <v>0.04500000000000004</v>
       </c>
       <c r="G386">
-        <v>0.1082175767289866</v>
+        <v>0.09418455476773767</v>
       </c>
       <c r="H386" t="b">
         <v>0</v>
@@ -11711,16 +11711,16 @@
         <v>375</v>
       </c>
       <c r="D387">
-        <v>-0.84</v>
+        <v>-0.82</v>
       </c>
       <c r="E387">
         <v>0.75</v>
       </c>
       <c r="F387">
-        <v>-0.04499999999999998</v>
+        <v>-0.03499999999999998</v>
       </c>
       <c r="G387">
-        <v>-0.09019448874710888</v>
+        <v>-0.09175411674949531</v>
       </c>
       <c r="H387" t="b">
         <v>0</v>
@@ -11737,16 +11737,16 @@
         <v>376</v>
       </c>
       <c r="D388">
-        <v>-0.53</v>
+        <v>-0.51</v>
       </c>
       <c r="E388">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="F388">
         <v>-0.01500000000000001</v>
       </c>
       <c r="G388">
-        <v>-0.04613068607435102</v>
+        <v>-0.06199363681785962</v>
       </c>
       <c r="H388" t="b">
         <v>0</v>
@@ -11763,16 +11763,16 @@
         <v>377</v>
       </c>
       <c r="D389">
-        <v>-1.16</v>
+        <v>-1.18</v>
       </c>
       <c r="E389">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="F389">
-        <v>0.005000000000000004</v>
+        <v>-0.01500000000000001</v>
       </c>
       <c r="G389">
-        <v>0.004095292402125674</v>
+        <v>-0.0006222319030179286</v>
       </c>
       <c r="H389" t="b">
         <v>0</v>
@@ -11789,16 +11789,16 @@
         <v>378</v>
       </c>
       <c r="D390">
-        <v>-1.37</v>
+        <v>-1.41</v>
       </c>
       <c r="E390">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="F390">
-        <v>0.12</v>
+        <v>0.07500000000000007</v>
       </c>
       <c r="G390">
-        <v>0.119368326294673</v>
+        <v>0.1110235561633011</v>
       </c>
       <c r="H390" t="b">
         <v>0</v>
@@ -11815,16 +11815,16 @@
         <v>379</v>
       </c>
       <c r="D391">
-        <v>-1.12</v>
+        <v>-1.15</v>
       </c>
       <c r="E391">
         <v>0.97</v>
       </c>
       <c r="F391">
-        <v>-0.07500000000000007</v>
+        <v>-0.08999999999999997</v>
       </c>
       <c r="G391">
-        <v>-0.1780686355759633</v>
+        <v>-0.1713142631581387</v>
       </c>
       <c r="H391" t="b">
         <v>0</v>
@@ -11841,16 +11841,16 @@
         <v>380</v>
       </c>
       <c r="D392">
-        <v>-0.78</v>
+        <v>-0.79</v>
       </c>
       <c r="E392">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="F392">
         <v>-0.03500000000000003</v>
       </c>
       <c r="G392">
-        <v>-0.09575346729021676</v>
+        <v>-0.0871155861099424</v>
       </c>
       <c r="H392" t="b">
         <v>0</v>
@@ -11867,16 +11867,16 @@
         <v>381</v>
       </c>
       <c r="D393">
-        <v>-1.21</v>
+        <v>-1.24</v>
       </c>
       <c r="E393">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="F393">
-        <v>-0.03000000000000003</v>
+        <v>-0.03500000000000003</v>
       </c>
       <c r="G393">
-        <v>-0.03383413318298432</v>
+        <v>-0.04757473641181118</v>
       </c>
       <c r="H393" t="b">
         <v>0</v>
@@ -11893,16 +11893,16 @@
         <v>382</v>
       </c>
       <c r="D394">
-        <v>-2.07</v>
+        <v>-2.01</v>
       </c>
       <c r="E394">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="F394">
-        <v>-0.335</v>
+        <v>-0.2999999999999999</v>
       </c>
       <c r="G394">
-        <v>-0.3719156323136949</v>
+        <v>-0.3777450103866971</v>
       </c>
       <c r="H394" t="b">
         <v>0</v>
@@ -11919,16 +11919,16 @@
         <v>383</v>
       </c>
       <c r="D395">
-        <v>-1.72</v>
+        <v>-1.74</v>
       </c>
       <c r="E395">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="F395">
         <v>0.05000000000000004</v>
       </c>
       <c r="G395">
-        <v>0.05368696258601922</v>
+        <v>0.03891451665439755</v>
       </c>
       <c r="H395" t="b">
         <v>0</v>
@@ -11945,16 +11945,16 @@
         <v>384</v>
       </c>
       <c r="D396">
-        <v>-1.88</v>
+        <v>-1.86</v>
       </c>
       <c r="E396">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="F396">
-        <v>-0.32</v>
+        <v>-0.3200000000000001</v>
       </c>
       <c r="G396">
-        <v>-0.3909617652666155</v>
+        <v>-0.4024859858505311</v>
       </c>
       <c r="H396" t="b">
         <v>0</v>
@@ -11971,16 +11971,16 @@
         <v>385</v>
       </c>
       <c r="D397">
-        <v>-1.99</v>
+        <v>-2</v>
       </c>
       <c r="E397">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="F397">
-        <v>-0.33</v>
+        <v>-0.325</v>
       </c>
       <c r="G397">
-        <v>-0.4005172024363322</v>
+        <v>-0.3965848057549725</v>
       </c>
       <c r="H397" t="b">
         <v>0</v>
@@ -11997,16 +11997,16 @@
         <v>386</v>
       </c>
       <c r="D398">
-        <v>-1.47</v>
+        <v>-1.46</v>
       </c>
       <c r="E398">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="F398">
-        <v>-0.12</v>
+        <v>-0.09999999999999998</v>
       </c>
       <c r="G398">
-        <v>-0.1634389503459774</v>
+        <v>-0.1692092043906759</v>
       </c>
       <c r="H398" t="b">
         <v>0</v>
@@ -12023,16 +12023,16 @@
         <v>387</v>
       </c>
       <c r="D399">
-        <v>-1.53</v>
+        <v>-1.55</v>
       </c>
       <c r="E399">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="F399">
-        <v>-0.205</v>
+        <v>-0.225</v>
       </c>
       <c r="G399">
-        <v>-0.3187629343884484</v>
+        <v>-0.3211192215419608</v>
       </c>
       <c r="H399" t="b">
         <v>0</v>
@@ -12049,16 +12049,16 @@
         <v>388</v>
       </c>
       <c r="D400">
-        <v>-1.33</v>
+        <v>-1.29</v>
       </c>
       <c r="E400">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="F400">
-        <v>0.08999999999999997</v>
+        <v>0.09499999999999997</v>
       </c>
       <c r="G400">
-        <v>0.1376749676940988</v>
+        <v>0.1323657992536376</v>
       </c>
       <c r="H400" t="b">
         <v>0</v>
@@ -12075,16 +12075,16 @@
         <v>389</v>
       </c>
       <c r="D401">
-        <v>-1.6</v>
+        <v>-1.62</v>
       </c>
       <c r="E401">
         <v>1.87</v>
       </c>
       <c r="F401">
-        <v>0.135</v>
+        <v>0.125</v>
       </c>
       <c r="G401">
-        <v>0.1394307221714055</v>
+        <v>0.1260712315703366</v>
       </c>
       <c r="H401" t="b">
         <v>0</v>
@@ -12101,16 +12101,16 @@
         <v>390</v>
       </c>
       <c r="D402">
-        <v>-0.72</v>
+        <v>-0.71</v>
       </c>
       <c r="E402">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="F402">
-        <v>-0.205</v>
+        <v>-0.21</v>
       </c>
       <c r="G402">
-        <v>-0.7797475339889488</v>
+        <v>-0.7910188457818103</v>
       </c>
       <c r="H402" t="b">
         <v>0</v>
@@ -12127,16 +12127,16 @@
         <v>391</v>
       </c>
       <c r="D403">
-        <v>-0.63</v>
+        <v>-0.61</v>
       </c>
       <c r="E403">
         <v>0.86</v>
       </c>
       <c r="F403">
-        <v>0.115</v>
+        <v>0.125</v>
       </c>
       <c r="G403">
-        <v>0.3326844193503555</v>
+        <v>0.3534415826955096</v>
       </c>
       <c r="H403" t="b">
         <v>0</v>
@@ -12153,16 +12153,16 @@
         <v>392</v>
       </c>
       <c r="D404">
-        <v>-1.29</v>
+        <v>-1.32</v>
       </c>
       <c r="E404">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="F404">
-        <v>-0.26</v>
+        <v>-0.265</v>
       </c>
       <c r="G404">
-        <v>-0.5026325606437834</v>
+        <v>-0.4931982353576405</v>
       </c>
       <c r="H404" t="b">
         <v>0</v>
@@ -12179,16 +12179,16 @@
         <v>393</v>
       </c>
       <c r="D405">
-        <v>-0.89</v>
+        <v>-0.91</v>
       </c>
       <c r="E405">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="F405">
         <v>0.26</v>
       </c>
       <c r="G405">
-        <v>0.4317283753580271</v>
+        <v>0.4293023151569809</v>
       </c>
       <c r="H405" t="b">
         <v>0</v>
@@ -12208,13 +12208,13 @@
         <v>-0.98</v>
       </c>
       <c r="E406">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="F406">
-        <v>-0.09499999999999997</v>
+        <v>-0.09999999999999998</v>
       </c>
       <c r="G406">
-        <v>-0.2266292942215348</v>
+        <v>-0.2155162298278173</v>
       </c>
       <c r="H406" t="b">
         <v>0</v>
@@ -12231,16 +12231,16 @@
         <v>395</v>
       </c>
       <c r="D407">
-        <v>-0.73</v>
+        <v>-0.74</v>
       </c>
       <c r="E407">
         <v>0.8100000000000001</v>
       </c>
       <c r="F407">
-        <v>0.04000000000000004</v>
+        <v>0.03500000000000003</v>
       </c>
       <c r="G407">
-        <v>0.07331045540846848</v>
+        <v>0.0893594088926071</v>
       </c>
       <c r="H407" t="b">
         <v>0</v>
@@ -12257,16 +12257,16 @@
         <v>396</v>
       </c>
       <c r="D408">
-        <v>-0.97</v>
+        <v>-0.95</v>
       </c>
       <c r="E408">
         <v>0.04</v>
       </c>
       <c r="F408">
-        <v>-0.465</v>
+        <v>-0.455</v>
       </c>
       <c r="G408">
-        <v>-1.785463287969704</v>
+        <v>-1.806080028784051</v>
       </c>
       <c r="H408" t="b">
         <v>0</v>
@@ -12283,16 +12283,16 @@
         <v>397</v>
       </c>
       <c r="D409">
-        <v>-1.62</v>
+        <v>-1.61</v>
       </c>
       <c r="E409">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="F409">
         <v>-0.475</v>
       </c>
       <c r="G409">
-        <v>-0.840159548043015</v>
+        <v>-0.8382322157733914</v>
       </c>
       <c r="H409" t="b">
         <v>0</v>
@@ -12309,16 +12309,16 @@
         <v>398</v>
       </c>
       <c r="D410">
-        <v>-1.2</v>
+        <v>-1.19</v>
       </c>
       <c r="E410">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="F410">
         <v>0.295</v>
       </c>
       <c r="G410">
-        <v>0.3914167266287332</v>
+        <v>0.3922033159339086</v>
       </c>
       <c r="H410" t="b">
         <v>0</v>
@@ -12335,16 +12335,16 @@
         <v>399</v>
       </c>
       <c r="D411">
-        <v>-1.23</v>
+        <v>-1.27</v>
       </c>
       <c r="E411">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="F411">
-        <v>-0.195</v>
+        <v>-0.2</v>
       </c>
       <c r="G411">
-        <v>-0.3837518671208766</v>
+        <v>-0.3622911148102125</v>
       </c>
       <c r="H411" t="b">
         <v>0</v>
@@ -12361,16 +12361,16 @@
         <v>400</v>
       </c>
       <c r="D412">
-        <v>-0.91</v>
+        <v>-0.9</v>
       </c>
       <c r="E412">
         <v>0.61</v>
       </c>
       <c r="F412">
-        <v>-0.15</v>
+        <v>-0.145</v>
       </c>
       <c r="G412">
-        <v>-0.3812788995738547</v>
+        <v>-0.374805940772517</v>
       </c>
       <c r="H412" t="b">
         <v>0</v>
@@ -12387,16 +12387,16 @@
         <v>401</v>
       </c>
       <c r="D413">
-        <v>-1.47</v>
+        <v>-1.52</v>
       </c>
       <c r="E413">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="F413">
-        <v>-0.28</v>
+        <v>-0.325</v>
       </c>
       <c r="G413">
-        <v>-0.5102518784505803</v>
+        <v>-0.5244273051472942</v>
       </c>
       <c r="H413" t="b">
         <v>0</v>
@@ -12413,16 +12413,16 @@
         <v>402</v>
       </c>
       <c r="D414">
-        <v>-2.1</v>
+        <v>-2.07</v>
       </c>
       <c r="E414">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="F414">
-        <v>-0.385</v>
+        <v>-0.3749999999999999</v>
       </c>
       <c r="G414">
-        <v>-0.4448038697001022</v>
+        <v>-0.4407563124073692</v>
       </c>
       <c r="H414" t="b">
         <v>0</v>
@@ -12439,16 +12439,16 @@
         <v>403</v>
       </c>
       <c r="D415">
-        <v>-1.88</v>
+        <v>-1.85</v>
       </c>
       <c r="E415">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="F415">
-        <v>-0.07499999999999996</v>
+        <v>-0.06500000000000006</v>
       </c>
       <c r="G415">
-        <v>-0.06485462270090474</v>
+        <v>-0.06446074541473369</v>
       </c>
       <c r="H415" t="b">
         <v>0</v>
@@ -12465,16 +12465,16 @@
         <v>404</v>
       </c>
       <c r="D416">
-        <v>-1.76</v>
+        <v>-1.78</v>
       </c>
       <c r="E416">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="F416">
         <v>-0.21</v>
       </c>
       <c r="G416">
-        <v>-0.2810801989809776</v>
+        <v>-0.2661772536733986</v>
       </c>
       <c r="H416" t="b">
         <v>0</v>
@@ -12491,16 +12491,16 @@
         <v>405</v>
       </c>
       <c r="D417">
-        <v>-1.38</v>
+        <v>-1.42</v>
       </c>
       <c r="E417">
         <v>1.94</v>
       </c>
       <c r="F417">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="G417">
-        <v>0.322523587848678</v>
+        <v>0.3100197922865983</v>
       </c>
       <c r="H417" t="b">
         <v>0</v>
@@ -12517,16 +12517,16 @@
         <v>406</v>
       </c>
       <c r="D418">
-        <v>-1.64</v>
+        <v>-1.66</v>
       </c>
       <c r="E418">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="F418">
-        <v>-0.2949999999999999</v>
+        <v>-0.3149999999999999</v>
       </c>
       <c r="G418">
-        <v>-0.4370351343597316</v>
+        <v>-0.4595606391593065</v>
       </c>
       <c r="H418" t="b">
         <v>0</v>
@@ -12543,16 +12543,16 @@
         <v>407</v>
       </c>
       <c r="D419">
-        <v>-1.71</v>
+        <v>-1.68</v>
       </c>
       <c r="E419">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="F419">
-        <v>-0.405</v>
+        <v>-0.36</v>
       </c>
       <c r="G419">
-        <v>-0.5625474971917246</v>
+        <v>-0.5402303571695795</v>
       </c>
       <c r="H419" t="b">
         <v>0</v>
@@ -12569,16 +12569,16 @@
         <v>408</v>
       </c>
       <c r="D420">
-        <v>-3.2</v>
+        <v>-3.14</v>
       </c>
       <c r="E420">
-        <v>-0.35</v>
+        <v>-0.37</v>
       </c>
       <c r="F420">
-        <v>-1.775</v>
+        <v>-1.755</v>
       </c>
       <c r="G420">
-        <v>-2.472753054228827</v>
+        <v>-2.537860751971707</v>
       </c>
       <c r="H420" t="b">
         <v>1</v>
@@ -12595,16 +12595,16 @@
         <v>409</v>
       </c>
       <c r="D421">
-        <v>-1.5</v>
+        <v>-1.54</v>
       </c>
       <c r="E421">
         <v>1.98</v>
       </c>
       <c r="F421">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="G421">
-        <v>0.2594954526537973</v>
+        <v>0.2641010913188289</v>
       </c>
       <c r="H421" t="b">
         <v>0</v>
@@ -12621,16 +12621,16 @@
         <v>410</v>
       </c>
       <c r="D422">
-        <v>-0.52</v>
+        <v>-0.54</v>
       </c>
       <c r="E422">
         <v>0.48</v>
       </c>
       <c r="F422">
-        <v>-0.02000000000000002</v>
+        <v>-0.03000000000000003</v>
       </c>
       <c r="G422">
-        <v>-0.1021276623525774</v>
+        <v>-0.0946158736805346</v>
       </c>
       <c r="H422" t="b">
         <v>0</v>
@@ -12650,13 +12650,13 @@
         <v>-0.6</v>
       </c>
       <c r="E423">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="F423">
-        <v>0.125</v>
+        <v>0.135</v>
       </c>
       <c r="G423">
-        <v>0.3410781980937033</v>
+        <v>0.3491414385216781</v>
       </c>
       <c r="H423" t="b">
         <v>0</v>
@@ -12676,13 +12676,13 @@
         <v>-1</v>
       </c>
       <c r="E424">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="F424">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G424">
-        <v>0.1322712200430053</v>
+        <v>0.1098026235039589</v>
       </c>
       <c r="H424" t="b">
         <v>0</v>
@@ -12699,16 +12699,16 @@
         <v>413</v>
       </c>
       <c r="D425">
-        <v>-1.08</v>
+        <v>-1.09</v>
       </c>
       <c r="E425">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="F425">
-        <v>0.08999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G425">
-        <v>0.1555245261657442</v>
+        <v>0.1407346550658231</v>
       </c>
       <c r="H425" t="b">
         <v>0</v>
@@ -12725,16 +12725,16 @@
         <v>414</v>
       </c>
       <c r="D426">
-        <v>-0.88</v>
+        <v>-0.86</v>
       </c>
       <c r="E426">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="F426">
-        <v>-0.005000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G426">
-        <v>0.03512845945178022</v>
+        <v>0.05669708549352018</v>
       </c>
       <c r="H426" t="b">
         <v>0</v>
@@ -12754,13 +12754,13 @@
         <v>-0.77</v>
       </c>
       <c r="E427">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F427">
-        <v>0.01500000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G427">
-        <v>0.0349227612004082</v>
+        <v>0.04599581023477844</v>
       </c>
       <c r="H427" t="b">
         <v>0</v>
@@ -12786,7 +12786,7 @@
         <v>-0.035</v>
       </c>
       <c r="G428">
-        <v>-0.1437971095184912</v>
+        <v>-0.1347403124092788</v>
       </c>
       <c r="H428" t="b">
         <v>0</v>
@@ -12806,13 +12806,13 @@
         <v>-1</v>
       </c>
       <c r="E429">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="F429">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="G429">
-        <v>0.2668217717422716</v>
+        <v>0.2693317279683613</v>
       </c>
       <c r="H429" t="b">
         <v>0</v>
@@ -12829,16 +12829,16 @@
         <v>418</v>
       </c>
       <c r="D430">
-        <v>-1.59</v>
+        <v>-1.57</v>
       </c>
       <c r="E430">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="F430">
-        <v>-0.11</v>
+        <v>-0.105</v>
       </c>
       <c r="G430">
-        <v>-0.1481047860925239</v>
+        <v>-0.1534292340334286</v>
       </c>
       <c r="H430" t="b">
         <v>0</v>
@@ -12855,16 +12855,16 @@
         <v>419</v>
       </c>
       <c r="D431">
-        <v>-1.03</v>
+        <v>-1.01</v>
       </c>
       <c r="E431">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="F431">
-        <v>0.03000000000000003</v>
+        <v>0.03500000000000003</v>
       </c>
       <c r="G431">
-        <v>0.04271974825788423</v>
+        <v>0.05500841059064517</v>
       </c>
       <c r="H431" t="b">
         <v>0</v>
@@ -12881,16 +12881,16 @@
         <v>420</v>
       </c>
       <c r="D432">
-        <v>-0.6</v>
+        <v>-0.61</v>
       </c>
       <c r="E432">
         <v>0.88</v>
       </c>
       <c r="F432">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="G432">
-        <v>0.3599738417992273</v>
+        <v>0.3563151224159928</v>
       </c>
       <c r="H432" t="b">
         <v>0</v>
@@ -12907,16 +12907,16 @@
         <v>421</v>
       </c>
       <c r="D433">
-        <v>-1.13</v>
+        <v>-1.14</v>
       </c>
       <c r="E433">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="F433">
         <v>0.04500000000000004</v>
       </c>
       <c r="G433">
-        <v>0.09223021574914129</v>
+        <v>0.08516277213697974</v>
       </c>
       <c r="H433" t="b">
         <v>0</v>
@@ -12933,16 +12933,16 @@
         <v>422</v>
       </c>
       <c r="D434">
-        <v>-1.56</v>
+        <v>-1.63</v>
       </c>
       <c r="E434">
         <v>1.81</v>
       </c>
       <c r="F434">
-        <v>0.125</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="G434">
-        <v>0.1457647879519378</v>
+        <v>0.1268920619639574</v>
       </c>
       <c r="H434" t="b">
         <v>0</v>
@@ -12962,13 +12962,13 @@
         <v>-1.69</v>
       </c>
       <c r="E435">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="F435">
-        <v>0.12</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="G435">
-        <v>0.1170477833348682</v>
+        <v>0.1169547494957193</v>
       </c>
       <c r="H435" t="b">
         <v>0</v>
@@ -12985,16 +12985,16 @@
         <v>424</v>
       </c>
       <c r="D436">
-        <v>-1.5</v>
+        <v>-1.53</v>
       </c>
       <c r="E436">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="F436">
         <v>0.03000000000000003</v>
       </c>
       <c r="G436">
-        <v>0.01820352640677791</v>
+        <v>0.04883383362904873</v>
       </c>
       <c r="H436" t="b">
         <v>0</v>
@@ -13011,16 +13011,16 @@
         <v>425</v>
       </c>
       <c r="D437">
-        <v>-1.6</v>
+        <v>-1.65</v>
       </c>
       <c r="E437">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="F437">
-        <v>0.07499999999999996</v>
+        <v>0.04500000000000004</v>
       </c>
       <c r="G437">
-        <v>0.07577497131830724</v>
+        <v>0.05980969529795362</v>
       </c>
       <c r="H437" t="b">
         <v>0</v>
@@ -13037,16 +13037,16 @@
         <v>426</v>
       </c>
       <c r="D438">
-        <v>-1.37</v>
+        <v>-1.41</v>
       </c>
       <c r="E438">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="F438">
-        <v>-0.03000000000000003</v>
+        <v>-0.03999999999999992</v>
       </c>
       <c r="G438">
-        <v>-0.03790258386411201</v>
+        <v>-0.04664020258969805</v>
       </c>
       <c r="H438" t="b">
         <v>0</v>
@@ -13063,16 +13063,16 @@
         <v>427</v>
       </c>
       <c r="D439">
-        <v>-1.32</v>
+        <v>-1.3</v>
       </c>
       <c r="E439">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="F439">
-        <v>-0.005000000000000004</v>
+        <v>-0.01500000000000001</v>
       </c>
       <c r="G439">
-        <v>-0.0163207505803642</v>
+        <v>-0.01371747568087182</v>
       </c>
       <c r="H439" t="b">
         <v>0</v>
@@ -13089,16 +13089,16 @@
         <v>428</v>
       </c>
       <c r="D440">
-        <v>-1.19</v>
+        <v>-1.18</v>
       </c>
       <c r="E440">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="F440">
-        <v>0.2100000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="G440">
-        <v>0.3002409565166722</v>
+        <v>0.3128709467936323</v>
       </c>
       <c r="H440" t="b">
         <v>0</v>
@@ -13115,16 +13115,16 @@
         <v>429</v>
       </c>
       <c r="D441">
-        <v>-2.08</v>
+        <v>-2.1</v>
       </c>
       <c r="E441">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="F441">
-        <v>-0.3450000000000001</v>
+        <v>-0.365</v>
       </c>
       <c r="G441">
-        <v>-0.4120487619476857</v>
+        <v>-0.4163632887655419</v>
       </c>
       <c r="H441" t="b">
         <v>0</v>
